--- a/Hobay/TestData/fenyong_data.xlsx
+++ b/Hobay/TestData/fenyong_data.xlsx
@@ -75,7 +75,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -89,13 +104,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -103,17 +111,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,8 +133,16 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
@@ -150,23 +165,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
@@ -174,22 +181,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -203,10 +203,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,7 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,55 +249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +285,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,19 +357,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,55 +393,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,23 +510,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +566,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -568,39 +601,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -653,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="14" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -942,6 +942,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1214,17 +1282,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="18.125" customWidth="1" style="16" min="1" max="1"/>
+    <col width="18.1333333333333" customWidth="1" style="16" min="1" max="1"/>
     <col width="14.75" customWidth="1" style="16" min="2" max="2"/>
-    <col width="12.125" customWidth="1" style="16" min="3" max="3"/>
+    <col width="12.1333333333333" customWidth="1" style="16" min="3" max="3"/>
     <col width="19.5" customWidth="1" style="16" min="4" max="4"/>
     <col width="18.5" customWidth="1" style="16" min="5" max="5"/>
     <col width="13.75" customWidth="1" style="16" min="6" max="6"/>
-    <col width="17.875" customWidth="1" style="16" min="7" max="7"/>
+    <col width="17.8833333333333" customWidth="1" style="16" min="7" max="7"/>
     <col width="9" customWidth="1" style="16" min="8" max="8"/>
-    <col width="35.625" customWidth="1" style="16" min="9" max="9"/>
+    <col width="35.6333333333333" customWidth="1" style="16" min="9" max="9"/>
     <col width="9" customWidth="1" style="16" min="10" max="10"/>
-    <col width="9.125" customWidth="1" style="16" min="11" max="11"/>
+    <col width="9.133333333333329" customWidth="1" style="16" min="11" max="11"/>
     <col width="14.5" customWidth="1" style="16" min="12" max="12"/>
     <col width="9" customWidth="1" style="16" min="13" max="13"/>
     <col width="12.5" customWidth="1" style="16" min="14" max="14"/>
@@ -1980,8 +2048,8 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5"/>
@@ -1992,18 +2060,18 @@
     <col width="15.5583333333333" customWidth="1" style="23" min="4" max="4"/>
     <col width="16.225" customWidth="1" style="23" min="5" max="5"/>
     <col width="15.4416666666667" customWidth="1" style="23" min="6" max="7"/>
-    <col width="32.7916666666667" customWidth="1" style="23" min="8" max="8"/>
-    <col width="34.875" customWidth="1" style="23" min="9" max="9"/>
+    <col width="32.8" customWidth="1" style="23" min="8" max="8"/>
+    <col width="34.8833333333333" customWidth="1" style="23" min="9" max="9"/>
     <col width="39" customWidth="1" style="23" min="10" max="10"/>
     <col width="35.725" customWidth="1" style="23" min="11" max="11"/>
     <col width="26.9083333333333" customWidth="1" style="23" min="12" max="12"/>
-    <col width="34.875" customWidth="1" style="23" min="13" max="13"/>
-    <col width="33.625" customWidth="1" style="23" min="14" max="14"/>
+    <col width="34.8833333333333" customWidth="1" style="23" min="13" max="13"/>
+    <col width="33.6333333333333" customWidth="1" style="23" min="14" max="14"/>
     <col width="39.25" customWidth="1" style="23" min="15" max="15"/>
     <col width="20.25" customWidth="1" style="23" min="16" max="16"/>
-    <col width="19.625" customWidth="1" style="23" min="17" max="17"/>
+    <col width="19.6333333333333" customWidth="1" style="23" min="17" max="17"/>
     <col width="28" customWidth="1" style="23" min="18" max="18"/>
-    <col width="28.375" customWidth="1" style="23" min="19" max="19"/>
+    <col width="28.3833333333333" customWidth="1" style="23" min="19" max="19"/>
     <col width="17.2" customWidth="1" style="23" min="20" max="20"/>
     <col width="31.6083333333333" customWidth="1" style="21" min="21" max="21"/>
     <col width="8.891666666666669" customWidth="1" style="21" min="22" max="16384"/>
@@ -2150,7 +2218,7 @@
       </c>
       <c r="G2" s="12" t="inlineStr">
         <is>
-          <t>普通焕商实物商品</t>
+          <t>普通焕商本地生活</t>
         </is>
       </c>
       <c r="H2" s="12" t="inlineStr">
@@ -2165,7 +2233,7 @@
       </c>
       <c r="J2" s="12" t="inlineStr">
         <is>
-          <t>{'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.40'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}</t>
+          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}</t>
         </is>
       </c>
       <c r="K2" s="12" t="inlineStr">
@@ -2175,7 +2243,7 @@
       </c>
       <c r="L2" s="12" t="inlineStr">
         <is>
-          <t>EC-2020070811335200008825</t>
+          <t>EC-2020091017461700003965</t>
         </is>
       </c>
       <c r="M2" s="12" t="inlineStr">
@@ -2185,7 +2253,7 @@
       </c>
       <c r="N2" s="12" t="inlineStr">
         <is>
-          <t>{'业务焕商': 1000750, 'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
+          <t>{'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
         </is>
       </c>
       <c r="O2" s="12" t="inlineStr">
@@ -2200,17 +2268,17 @@
       </c>
       <c r="Q2" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.00'), Decimal('13.50'), Decimal('3.15'), Decimal('1.35'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.25'), Decimal('0.30'), Decimal('0.07'), Decimal('0.03'), Decimal('0.20')]</t>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('27.00'), Decimal('4.50'), Decimal('3.15'), Decimal('1.35'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.45'), Decimal('0.10'), Decimal('0.07'), Decimal('0.03'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R2" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999989822.96'), Decimal('999989922.96'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999989821.96'), Decimal('999989822.96'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('142965.99'), Decimal('142968.99'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101936016.95'), Decimal('101935916.95'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101936017.95'), Decimal('101936016.95'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13865948.25'), Decimal('13865945.25'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101935917.95'), Decimal('101936017.95'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('10927.21'), Decimal('10827.21'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('63260.87'), Decimal('63245.87'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.00'), Decimal('59042.84'), Decimal('59024.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('13.50'), Decimal('48708.55'), Decimal('48695.05'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('15680.43'), Decimal('15677.28'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('444.54'), Decimal('443.19'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316145220.05'), Decimal('999999316145211.05'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101935916.95'), Decimal('101935917.95'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('10927.36'), Decimal('10927.21'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.25'), Decimal('1034.05'), Decimal('1033.80'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.30'), Decimal('501.77'), Decimal('501.47'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('857.55'), Decimal('857.48'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('12.75'), Decimal('12.72'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101935917.15'), Decimal('101935916.95'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999982018.47'), Decimal('999982118.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999982017.47'), Decimal('999982018.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('167618.05'), Decimal('167621.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942017.38'), Decimal('101941917.38'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942018.38'), Decimal('101942017.38'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962729.82'), Decimal('13962726.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941918.38'), Decimal('101942018.38'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('26651.18'), Decimal('26551.18'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('67867.73'), Decimal('67852.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('115388.52'), Decimal('115361.52'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('53709.54'), Decimal('53705.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19445.06'), Decimal('19441.91'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('5937.72'), Decimal('5936.37'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170845.31'), Decimal('999999316170836.31'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941917.38'), Decimal('101941918.38'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('26651.33'), Decimal('26651.18'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('101847.84'), Decimal('101847.39'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('510.83'), Decimal('510.73'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('863.97'), Decimal('863.90'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('16.35'), Decimal('16.32'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941917.58'), Decimal('101941917.38'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S2" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999989822.96'), Decimal('999989922.96'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999989821.96'), Decimal('999989822.96'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('142965.99'), Decimal('142968.99'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101936016.95'), Decimal('101935916.95'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101936017.95'), Decimal('101936016.95'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13865948.25'), Decimal('13865945.25'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101935917.95'), Decimal('101936017.95'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('10927.21'), Decimal('10827.21'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('63260.87'), Decimal('63245.87'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.00'), Decimal('59042.84'), Decimal('59024.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('13.50'), Decimal('48708.55'), Decimal('48695.05'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('15680.43'), Decimal('15677.28'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('444.54'), Decimal('443.19'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316145220.05'), Decimal('999999316145211.05'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101935916.95'), Decimal('101935917.95'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('10927.36'), Decimal('10927.21'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.25'), Decimal('1034.05'), Decimal('1033.80'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.30'), Decimal('501.77'), Decimal('501.47'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('857.55'), Decimal('857.48'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('12.75'), Decimal('12.72'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101935917.15'), Decimal('101935916.95'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999982018.47'), Decimal('999982118.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999982017.47'), Decimal('999982018.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('167618.05'), Decimal('167621.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942017.38'), Decimal('101941917.38'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942018.38'), Decimal('101942017.38'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962729.82'), Decimal('13962726.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941918.38'), Decimal('101942018.38'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('26651.18'), Decimal('26551.18'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('67867.73'), Decimal('67852.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('115388.52'), Decimal('115361.52'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('53709.54'), Decimal('53705.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19445.06'), Decimal('19441.91'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('5937.72'), Decimal('5936.37'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170845.31'), Decimal('999999316170836.31'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941917.38'), Decimal('101941918.38'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('26651.33'), Decimal('26651.18'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('101847.84'), Decimal('101847.39'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('510.83'), Decimal('510.73'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('863.97'), Decimal('863.90'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('16.35'), Decimal('16.32'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941917.58'), Decimal('101941917.38'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T2" s="12" t="inlineStr">
@@ -2258,7 +2326,7 @@
       </c>
       <c r="G3" s="12" t="inlineStr">
         <is>
-          <t>普通焕商商企服务</t>
+          <t>普通焕商本地生活</t>
         </is>
       </c>
       <c r="H3" s="12" t="inlineStr">
@@ -2273,27 +2341,27 @@
       </c>
       <c r="J3" s="12" t="inlineStr">
         <is>
-          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}</t>
+          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}</t>
         </is>
       </c>
       <c r="K3" s="12" t="inlineStr">
         <is>
-          <t>[{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': None}]</t>
+          <t>[{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
         </is>
       </c>
       <c r="L3" s="12" t="inlineStr">
         <is>
-          <t>EC-2020070822270000008905</t>
+          <t>EC-2020091017462600003969</t>
         </is>
       </c>
       <c r="M3" s="12" t="inlineStr">
         <is>
-          <t>{'charge_amount': Decimal('1200'), 'reserve_fund': Decimal('720.00')}</t>
+          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
         </is>
       </c>
       <c r="N3" s="12" t="inlineStr">
         <is>
-          <t>{'业务焕商': 1000750, 'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
+          <t>{'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
         </is>
       </c>
       <c r="O3" s="12" t="inlineStr">
@@ -2303,22 +2371,22 @@
       </c>
       <c r="P3" s="12" t="inlineStr">
         <is>
-          <t>[1000656, 10, 10, 1000650, 1000656, 1000650, 1000647, 1000646, 1000794, 10]</t>
+          <t>[1000656, 10, 10, 1000650, 1000656, 1000650, 1000648, 1000647, 1000646, 1000794, 10]</t>
         </is>
       </c>
       <c r="Q3" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('10.00'), Decimal('-10.00'), Decimal('10.00'), Decimal('-720.00'), Decimal('180.00'), Decimal('378.00'), Decimal('37.80'), Decimal('16.20'), Decimal('108.00')]</t>
+          <t>[Decimal('-100.00'), Decimal('100.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('27.00'), Decimal('4.50'), Decimal('3.15'), Decimal('1.35'), Decimal('9.00')]</t>
         </is>
       </c>
       <c r="R3" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('1995226.00'), Decimal('1995236.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('10.00'), Decimal('101936949.15'), Decimal('101936939.15'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-10.00'), Decimal('101936939.15'), Decimal('101936949.15'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('10.00'), Decimal('11337.36'), Decimal('11327.36'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-720.00'), Decimal('0.00'), Decimal('720.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('180.00'), Decimal('63495.87'), Decimal('63315.87'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('378.00'), Decimal('49626.55'), Decimal('49248.55'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('37.80'), Decimal('15775.63'), Decimal('15737.83'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('16.20'), Decimal('485.34'), Decimal('469.14'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('108.00'), Decimal('999999316146457.05'), Decimal('999999316146349.05'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989766.00'), Decimal('1989866.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942017.58'), Decimal('101941917.58'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941917.58'), Decimal('101942017.58'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('26751.33'), Decimal('26651.33'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('67882.73'), Decimal('67867.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('115439.52'), Decimal('115412.52'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('53718.04'), Decimal('53713.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19451.01'), Decimal('19447.86'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('5940.27'), Decimal('5938.92'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170922.31'), Decimal('999999316170913.31'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
         </is>
       </c>
       <c r="S3" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('1995226.00'), Decimal('1995236.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('10.00'), Decimal('101936949.15'), Decimal('101936939.15'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-10.00'), Decimal('101936939.15'), Decimal('101936949.15'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('10.00'), Decimal('11337.36'), Decimal('11327.36'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-720.00'), Decimal('0.00'), Decimal('720.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('180.00'), Decimal('63495.87'), Decimal('63315.87'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('378.00'), Decimal('49626.55'), Decimal('49248.55'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('37.80'), Decimal('15775.63'), Decimal('15737.83'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('16.20'), Decimal('485.34'), Decimal('469.14'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('108.00'), Decimal('999999316146457.05'), Decimal('999999316146349.05'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989766.00'), Decimal('1989866.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942017.58'), Decimal('101941917.58'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941917.58'), Decimal('101942017.58'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('26751.33'), Decimal('26651.33'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('67882.73'), Decimal('67867.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('115439.52'), Decimal('115412.52'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('53718.04'), Decimal('53713.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19451.01'), Decimal('19447.86'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('5940.27'), Decimal('5938.92'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170922.31'), Decimal('999999316170913.31'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
         </is>
       </c>
       <c r="T3" s="12" t="inlineStr">
@@ -2366,7 +2434,7 @@
       </c>
       <c r="G4" s="12" t="inlineStr">
         <is>
-          <t>普通焕商实物商品</t>
+          <t>普通焕商本地生活</t>
         </is>
       </c>
       <c r="H4" s="12" t="inlineStr">
@@ -2381,17 +2449,17 @@
       </c>
       <c r="J4" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
         </is>
       </c>
       <c r="K4" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': None}], '支付服务费分佣': [{'个人焕商': None}, {'市代理商': 103554, '区代理商': 1000029, '省代理商': 1000246}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
         </is>
       </c>
       <c r="L4" s="12" t="inlineStr">
         <is>
-          <t>EC-2020070900311300008909</t>
+          <t>EC-2020091017463400003973</t>
         </is>
       </c>
       <c r="M4" s="12" t="inlineStr">
@@ -2401,32 +2469,32 @@
       </c>
       <c r="N4" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣对象': {'业务焕商': 1000750, 'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'业务焕商': 1000763, 'TCO': 1000760, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
+          <t>{'储备金二级分佣对象': {'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
         </is>
       </c>
       <c r="O4" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000647, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000029, 'sales_ratio': Decimal('0.40'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.60')}}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
         </is>
       </c>
       <c r="P4" s="12" t="inlineStr">
         <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000650, 1000656, 1000650, 1000647, 1000794, 1000646, 10, 10, 1000029, 1000760, 1000763, 103554, 1000246, 10]</t>
+          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000650, 1000656, 1000650, 1000648, 1000794, 1000647, 1000646, 10, 10, 1001308, 103554, 1000246, 10]</t>
         </is>
       </c>
       <c r="Q4" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('22.05'), Decimal('9.45'), Decimal('4.50'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.06'), Decimal('0.18'), Decimal('0.36'), Decimal('0.10'), Decimal('0.10'), Decimal('0.20')]</t>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R4" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086847998.51'), Decimal('1086848098.51'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086847997.51'), Decimal('1086847998.51'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698465.59'), Decimal('9999698468.59'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101937039.15'), Decimal('101936939.15'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101937040.15'), Decimal('101937039.15'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13865957.25'), Decimal('13865954.25'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101936940.15'), Decimal('101937040.15'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('11437.36'), Decimal('11337.36'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('63510.87'), Decimal('63495.87'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('22.05'), Decimal('49668.20'), Decimal('49646.15'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('9.45'), Decimal('503.19'), Decimal('493.74'), 'TCO分佣金额（现金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('15784.13'), Decimal('15779.63'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316146534.05'), Decimal('999999316146525.05'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101936939.15'), Decimal('101936940.15'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000029, 2, 2, Decimal('0.06'), Decimal('99341.91'), Decimal('99341.85'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000760, 2, 11, Decimal('0.18'), Decimal('3.50'), Decimal('3.32'), 'TCO分佣金额（易贝）收入', 1), (1000763, 2, 11, Decimal('0.36'), Decimal('5.54'), Decimal('5.18'), '业务焕商分佣金额（易贝）收入', 1), (103554, 2, 2, Decimal('0.10'), Decimal('2240.71'), Decimal('2240.61'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897980268.21'), Decimal('999897980268.11'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101936939.35'), Decimal('101936939.15'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086896181.78'), Decimal('1086896281.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086896180.78'), Decimal('1086896181.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698321.03'), Decimal('9999698324.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942017.58'), Decimal('101941917.58'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942018.58'), Decimal('101942017.58'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962732.82'), Decimal('13962729.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941918.58'), Decimal('101942018.58'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('26851.33'), Decimal('26751.33'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('67897.73'), Decimal('67882.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('115475.22'), Decimal('115456.32'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5955.57'), Decimal('5947.47'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('53726.54'), Decimal('53722.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19459.51'), Decimal('19455.01'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170999.31'), Decimal('999999316170990.31'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941917.58'), Decimal('101941918.58'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('20.92'), Decimal('20.77'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19107.58'), Decimal('19107.03'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982680.71'), Decimal('999897982680.61'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941917.78'), Decimal('101941917.58'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S4" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086847998.51'), Decimal('1086848098.51'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086847997.51'), Decimal('1086847998.51'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698465.59'), Decimal('9999698468.59'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101937039.15'), Decimal('101936939.15'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101937040.15'), Decimal('101937039.15'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13865957.25'), Decimal('13865954.25'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101936940.15'), Decimal('101937040.15'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('11437.36'), Decimal('11337.36'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('63510.87'), Decimal('63495.87'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('22.05'), Decimal('49668.20'), Decimal('49646.15'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('9.45'), Decimal('503.19'), Decimal('493.74'), 'TCO分佣金额（现金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('15784.13'), Decimal('15779.63'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316146534.05'), Decimal('999999316146525.05'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101936939.15'), Decimal('101936940.15'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000029, 2, 2, Decimal('0.06'), Decimal('99341.91'), Decimal('99341.85'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000760, 2, 11, Decimal('0.18'), Decimal('3.50'), Decimal('3.32'), 'TCO分佣金额（易贝）收入', 1), (1000763, 2, 11, Decimal('0.36'), Decimal('5.54'), Decimal('5.18'), '业务焕商分佣金额（易贝）收入', 1), (103554, 2, 2, Decimal('0.10'), Decimal('2240.71'), Decimal('2240.61'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897980268.21'), Decimal('999897980268.11'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101936939.35'), Decimal('101936939.15'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086896181.78'), Decimal('1086896281.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086896180.78'), Decimal('1086896181.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698321.03'), Decimal('9999698324.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942017.58'), Decimal('101941917.58'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942018.58'), Decimal('101942017.58'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962732.82'), Decimal('13962729.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941918.58'), Decimal('101942018.58'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('26851.33'), Decimal('26751.33'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('67897.73'), Decimal('67882.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('115475.22'), Decimal('115456.32'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5955.57'), Decimal('5947.47'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('53726.54'), Decimal('53722.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19459.51'), Decimal('19455.01'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170999.31'), Decimal('999999316170990.31'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941917.58'), Decimal('101941918.58'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('20.92'), Decimal('20.77'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19107.58'), Decimal('19107.03'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982680.71'), Decimal('999897982680.61'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941917.78'), Decimal('101941917.58'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T4" s="12" t="inlineStr">
@@ -2474,7 +2542,7 @@
       </c>
       <c r="G5" s="12" t="inlineStr">
         <is>
-          <t>普通焕商实物商品</t>
+          <t>普通焕商本地生活</t>
         </is>
       </c>
       <c r="H5" s="12" t="inlineStr">
@@ -2489,17 +2557,17 @@
       </c>
       <c r="J5" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.40'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
         </is>
       </c>
       <c r="K5" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': None}, {'市代理商': 103554, '区代理商': 1000029, '省代理商': 1000246}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
         </is>
       </c>
       <c r="L5" s="12" t="inlineStr">
         <is>
-          <t>EC-2020070113161700015042</t>
+          <t>EC-2020091017464400003977</t>
         </is>
       </c>
       <c r="M5" s="12" t="inlineStr">
@@ -2509,32 +2577,32 @@
       </c>
       <c r="N5" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣对象': {'业务焕商': 1000750, 'TCO': 1000794, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'业务焕商': 1000763, 'TCO': 1000760, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
+          <t>{'储备金二级分佣对象': {'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
         </is>
       </c>
       <c r="O5" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000029, 'sales_ratio': Decimal('0.40'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.60')}}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
         </is>
       </c>
       <c r="P5" s="12" t="inlineStr">
         <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000650, 1000656, 1000650, 1000648, 1000794, 1000647, 1000646, 10, 10, 1000029, 1000760, 1000763]</t>
+          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000650, 1000656, 1000650, 1000648, 1000794, 1000647, 1000646, 10, 10, 1001308, 103554, 1000246, 10]</t>
         </is>
       </c>
       <c r="Q5" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('12.60'), Decimal('5.40'), Decimal('13.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.06'), Decimal('0.18'), Decimal('0.36')]</t>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R5" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086848099.51'), Decimal('1086848199.51'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086848098.51'), Decimal('1086848099.51'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698468.59'), Decimal('9999698471.59'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101944745.09'), Decimal('101944645.09'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101944746.09'), Decimal('101944745.09'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13865980.26'), Decimal('13865977.26'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101944646.09'), Decimal('101944746.09'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('10811.26'), Decimal('10711.26'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('62837.87'), Decimal('62822.87'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('58800.08'), Decimal('58787.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('395.40'), Decimal('390.00'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('13.50'), Decimal('48457.45'), Decimal('48443.95'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('15613.83'), Decimal('15609.33'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316144629.67'), Decimal('999999316144620.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101944645.09'), Decimal('101944646.09'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1000029, 2, 2, Decimal('0.06'), Decimal('99340.25'), Decimal('99340.19'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000760, 2, 11, Decimal('0.18'), Decimal('3.32'), Decimal('3.14'), 'TCO分佣金额（易贝）收入', 1), (1000763, 2, 11, Decimal('0.36'), Decimal('5.18'), Decimal('4.82'), '业务焕商分佣金额（易贝）收入', 1), (103554, 2, 2, Decimal('0.10'), Decimal('2240.34'), Decimal('2240.24'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897980267.84'), Decimal('999897980267.74'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101944645.29'), Decimal('101944645.09'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086896080.78'), Decimal('1086896180.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086896079.78'), Decimal('1086896080.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698318.03'), Decimal('9999698321.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942017.78'), Decimal('101941917.78'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942018.78'), Decimal('101942017.78'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962735.82'), Decimal('13962732.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941918.78'), Decimal('101942018.78'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('26951.33'), Decimal('26851.33'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('67912.73'), Decimal('67897.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('115510.92'), Decimal('115492.02'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5970.87'), Decimal('5962.77'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('53735.04'), Decimal('53730.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19468.01'), Decimal('19463.51'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316171076.31'), Decimal('999999316171067.31'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941917.78'), Decimal('101941918.78'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.07'), Decimal('20.92'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19108.13'), Decimal('19107.58'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982680.81'), Decimal('999897982680.71'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941917.98'), Decimal('101941917.78'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="S5" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086848099.51'), Decimal('1086848199.51'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086848098.51'), Decimal('1086848099.51'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698468.59'), Decimal('9999698471.59'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101944745.09'), Decimal('101944645.09'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101944746.09'), Decimal('101944745.09'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13865980.26'), Decimal('13865977.26'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101944646.09'), Decimal('101944746.09'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('10811.26'), Decimal('10711.26'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('62837.87'), Decimal('62822.87'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('58800.08'), Decimal('58787.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('395.40'), Decimal('390.00'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('13.50'), Decimal('48457.45'), Decimal('48443.95'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('15613.83'), Decimal('15609.33'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316144629.67'), Decimal('999999316144620.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101944645.09'), Decimal('101944646.09'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1000029, 2, 2, Decimal('0.06'), Decimal('99340.25'), Decimal('99340.19'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000760, 2, 11, Decimal('0.18'), Decimal('3.32'), Decimal('3.14'), 'TCO分佣金额（易贝）收入', 1), (1000763, 2, 11, Decimal('0.36'), Decimal('5.18'), Decimal('4.82'), '业务焕商分佣金额（易贝）收入', 1), (103554, 2, 2, Decimal('0.10'), Decimal('2240.34'), Decimal('2240.24'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897980267.84'), Decimal('999897980267.74'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101944645.29'), Decimal('101944645.09'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086896080.78'), Decimal('1086896180.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086896079.78'), Decimal('1086896080.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698318.03'), Decimal('9999698321.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942017.78'), Decimal('101941917.78'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942018.78'), Decimal('101942017.78'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962735.82'), Decimal('13962732.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941918.78'), Decimal('101942018.78'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('26951.33'), Decimal('26851.33'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('67912.73'), Decimal('67897.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('115510.92'), Decimal('115492.02'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5970.87'), Decimal('5962.77'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('53735.04'), Decimal('53730.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19468.01'), Decimal('19463.51'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316171076.31'), Decimal('999999316171067.31'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941917.78'), Decimal('101941918.78'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.07'), Decimal('20.92'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19108.13'), Decimal('19107.58'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982680.81'), Decimal('999897982680.71'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941917.98'), Decimal('101941917.78'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="T5" s="12" t="inlineStr">
@@ -2582,7 +2650,7 @@
       </c>
       <c r="G6" s="12" t="inlineStr">
         <is>
-          <t>普通焕商商企服务</t>
+          <t>普通焕商本地生活</t>
         </is>
       </c>
       <c r="H6" s="12" t="inlineStr">
@@ -2597,17 +2665,17 @@
       </c>
       <c r="J6" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.40'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.40'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}}</t>
         </is>
       </c>
       <c r="K6" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001259}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]}</t>
         </is>
       </c>
       <c r="L6" s="12" t="inlineStr">
         <is>
-          <t>EC-2020070211010000008739</t>
+          <t>EC-2020091017465400003981</t>
         </is>
       </c>
       <c r="M6" s="12" t="inlineStr">
@@ -2617,7 +2685,7 @@
       </c>
       <c r="N6" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣对象': {'业务焕商': 1000750, 'TCO': 1000794, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'业务焕商': 1000750, 'TCO': 1000794, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
+          <t>{'储备金二级分佣对象': {'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'业务焕商': 1000750, 'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
         </is>
       </c>
       <c r="O6" s="12" t="inlineStr">
@@ -2627,46 +2695,32 @@
       </c>
       <c r="P6" s="12" t="inlineStr">
         <is>
-          <t>[1000656, 10, 10, 10, 1000650, 1000650, 1000656, 1000650, 1000648, 1000794, 1000647, 1000646, 10, 10, 1000648, 1000794, 1000647]</t>
+          <t>[1000656, 10, 10, 10, 1000650, 1000650, 1000656, 1000650, 1000648, 1000794, 1000647, 1000646, 10, 10, 1001259, 1000648, 1000794, 1000647, 1000646, 10]</t>
         </is>
       </c>
       <c r="Q6" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-100.00'), Decimal('96.00'), Decimal('4.00'), Decimal('-96.00'), Decimal('100.00'), Decimal('-4.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('12.60'), Decimal('5.40'), Decimal('13.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-4.00'), Decimal('1.12'), Decimal('0.48'), Decimal('1.20')]</t>
+          <t>[Decimal('-100.00'), Decimal('96.00'), Decimal('4.00'), Decimal('-96.00'), Decimal('100.00'), Decimal('-4.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-4.00'), Decimal('0.60'), Decimal('1.26'), Decimal('0.54'), Decimal('0.40'), Decimal('0.40'), Decimal('0.80')]</t>
         </is>
       </c>
       <c r="R6" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999917269.00'), Decimal('999917369.00'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999316144949.27'), Decimal('999999316144853.27'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999316144953.27'), Decimal('999999316144949.27'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999316144857.27'), Decimal('999999316144953.27'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('63159.87'), Decimal('63059.87'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('63155.87'), Decimal('63159.87'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('63170.87'), Decimal('63155.87'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('58873.72'), Decimal('58861.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('426.96'), Decimal('421.56'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('13.50'), Decimal('48536.35'), Decimal('48522.85'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('15640.13'), Decimal('15635.63'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316144866.27'), Decimal('999999316144857.27'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999316144862.27'), Decimal('999999316144866.27'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('1.12'), Decimal('58874.84'), Decimal('58873.72'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.48'), Decimal('427.44'), Decimal('426.96'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('1.20'), Decimal('48537.55'), Decimal('48536.35'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('15640.53'), Decimal('15640.13'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999316144863.07'), Decimal('999999316144862.27'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999889345.05'), Decimal('999889445.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999316171240.31'), Decimal('999999316171144.31'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999316171244.31'), Decimal('999999316171240.31'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999316171148.31'), Decimal('999999316171244.31'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('68012.73'), Decimal('67912.73'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('68008.73'), Decimal('68012.73'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68023.73'), Decimal('68008.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('115546.62'), Decimal('115527.72'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5986.17'), Decimal('5978.07'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('53743.54'), Decimal('53739.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19476.51'), Decimal('19472.01'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316171157.31'), Decimal('999999316171148.31'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999316171153.31'), Decimal('999999316171157.31'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.60'), Decimal('106675.80'), Decimal('106675.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('1.26'), Decimal('115547.88'), Decimal('115546.62'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.54'), Decimal('5986.71'), Decimal('5986.17'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.40'), Decimal('53743.94'), Decimal('53743.54'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('19476.91'), Decimal('19476.51'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999316171154.11'), Decimal('999999316171153.31'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="S6" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999917269.00'), Decimal('999917369.00'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999316144949.27'), Decimal('999999316144853.27'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(卖家卖出商品的实收金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999316144953.27'), Decimal('999999316144949.27'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999316144857.27'), Decimal('999999316144953.27'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('63159.87'), Decimal('63059.87'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('63155.87'), Decimal('63159.87'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('63170.87'), Decimal('63155.87'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('58873.72'), Decimal('58861.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('426.96'), Decimal('421.56'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('13.50'), Decimal('48536.35'), Decimal('48522.85'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('15640.13'), Decimal('15635.63'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316144866.27'), Decimal('999999316144857.27'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999316144862.27'), Decimal('999999316144866.27'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('1.12'), Decimal('58874.84'), Decimal('58873.72'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.48'), Decimal('427.44'), Decimal('426.96'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('1.20'), Decimal('48537.55'), Decimal('48536.35'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('15640.53'), Decimal('15640.13'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999316144863.07'), Decimal('999999316144862.27'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999889345.05'), Decimal('999889445.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999316171240.31'), Decimal('999999316171144.31'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999316171244.31'), Decimal('999999316171240.31'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999316171148.31'), Decimal('999999316171244.31'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('68012.73'), Decimal('67912.73'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('68008.73'), Decimal('68012.73'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68023.73'), Decimal('68008.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('115546.62'), Decimal('115527.72'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5986.17'), Decimal('5978.07'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('53743.54'), Decimal('53739.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19476.51'), Decimal('19472.01'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316171157.31'), Decimal('999999316171148.31'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999316171153.31'), Decimal('999999316171157.31'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.60'), Decimal('106675.80'), Decimal('106675.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('1.26'), Decimal('115547.88'), Decimal('115546.62'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.54'), Decimal('5986.71'), Decimal('5986.17'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.40'), Decimal('53743.94'), Decimal('53743.54'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('19476.91'), Decimal('19476.51'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999316171154.11'), Decimal('999999316171153.31'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="T6" s="12" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="U6" s="12" t="inlineStr">
         <is>
-          <t>用例错误！错误原因是：第2行，Tuples differ: (10, [69 chars]9316144853.27'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2) != (10, [69 chars]9316144853.27'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(卖家卖出商品的实收金额)', 2)
-First differing element 6:
-'现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)'
-'现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(卖家卖出商品的实收金额)'
-  (10,
-   2,
-   3,
-   Decimal('96.00'),
-   Decimal('999999316144949.27'),
-   Decimal('999999316144853.27'),
--  '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)',
-?                           ^^^    -- --
-+  '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(卖家卖出商品的实收金额)',
-?                           ^^^   +++++
-   2)：</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2712,10 +2766,14 @@
           <t>{"buyer_phone":17777777781,"seller_phone":17777777774,"买家":1000656,"卖家":1000648,"平台":10}</t>
         </is>
       </c>
-      <c r="I7" s="12" t="n"/>
+      <c r="I7" s="12" t="inlineStr">
+        <is>
+          <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
+        </is>
+      </c>
       <c r="J7" s="12" t="inlineStr">
         <is>
-          <t>{'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.40'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}</t>
+          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}</t>
         </is>
       </c>
       <c r="K7" s="12" t="inlineStr">
@@ -2725,38 +2783,38 @@
       </c>
       <c r="L7" s="12" t="inlineStr">
         <is>
-          <t>EC-2020062416364500014733</t>
+          <t>EC-2020091017470100003983</t>
         </is>
       </c>
       <c r="M7" s="12" t="n"/>
       <c r="N7" s="12" t="inlineStr">
         <is>
-          <t>{'自由销售': 1000750, 'TCO': 1000649, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
+          <t>{'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
         </is>
       </c>
       <c r="O7" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.20'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.30')}, '支付服务费二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.20'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.30')}}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
         </is>
       </c>
       <c r="P7" s="12" t="inlineStr">
         <is>
-          <t>[1000656, 1000656, 1000656, 10, 10, 10, 10, 1000648, 10, 1000648, 1000647, 1000646, 10]</t>
+          <t>[1000656, 1000656, 1000656, 10, 10, 10, 10, 1000648, 10, 1000648, 1000647, 1000646, 1000794, 10]</t>
         </is>
       </c>
       <c r="Q7" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.30'), Decimal('10.00'), Decimal('0.10'), Decimal('0.30'), Decimal('-10.00'), Decimal('10.00'), Decimal('-0.10'), Decimal('0.04'), Decimal('0.03'), Decimal('0.01'), Decimal('0.02')]</t>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-1.00'), Decimal('0.60'), Decimal('0.10'), Decimal('0.07'), Decimal('0.03'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R7" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('999991034.06'), Decimal('999991044.06'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-0.10'), Decimal('999991033.96'), Decimal('999991034.06'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-0.30'), Decimal('139801.99'), Decimal('139802.29'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944075.10'), Decimal('101944065.10'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944075.20'), Decimal('101944075.10'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13865739.17'), Decimal('13865738.87'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944065.20'), Decimal('101944075.20'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('10.00'), Decimal('988.20'), Decimal('978.20'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-0.10'), Decimal('101944065.10'), Decimal('101944065.20'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000648, 2, 2, Decimal('0.04'), Decimal('988.24'), Decimal('988.20'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.03'), Decimal('486.97'), Decimal('486.94'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.01'), Decimal('852.96'), Decimal('852.95'), '易贝购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944065.12'), Decimal('101944065.10'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999981917.47'), Decimal('999982017.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999981916.47'), Decimal('999981917.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('168015.05'), Decimal('168018.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942017.98'), Decimal('101941917.98'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942018.98'), Decimal('101942017.98'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962738.82'), Decimal('13962735.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941918.98'), Decimal('101942018.98'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('101947.84'), Decimal('101847.84'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941917.98'), Decimal('101941918.98'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000648, 2, 2, Decimal('0.60'), Decimal('101948.44'), Decimal('101947.84'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('510.93'), Decimal('510.83'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('864.04'), Decimal('863.97'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('16.38'), Decimal('16.35'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941918.18'), Decimal('101941917.98'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S7" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('999991034.06'), Decimal('999991044.06'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-0.10'), Decimal('999991033.96'), Decimal('999991034.06'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-0.30'), Decimal('139801.99'), Decimal('139802.29'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944075.10'), Decimal('101944065.10'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944075.20'), Decimal('101944075.10'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13865739.17'), Decimal('13865738.87'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944065.20'), Decimal('101944075.20'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('10.00'), Decimal('988.20'), Decimal('978.20'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-0.10'), Decimal('101944065.10'), Decimal('101944065.20'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000648, 2, 2, Decimal('0.04'), Decimal('988.24'), Decimal('988.20'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.03'), Decimal('486.97'), Decimal('486.94'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.01'), Decimal('852.96'), Decimal('852.95'), '易贝购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944065.12'), Decimal('101944065.10'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999981917.47'), Decimal('999982017.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999981916.47'), Decimal('999981917.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('168015.05'), Decimal('168018.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942017.98'), Decimal('101941917.98'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942018.98'), Decimal('101942017.98'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962738.82'), Decimal('13962735.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941918.98'), Decimal('101942018.98'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('101947.84'), Decimal('101847.84'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941917.98'), Decimal('101941918.98'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000648, 2, 2, Decimal('0.60'), Decimal('101948.44'), Decimal('101947.84'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('510.93'), Decimal('510.83'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('864.04'), Decimal('863.97'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('16.38'), Decimal('16.35'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941918.18'), Decimal('101941917.98'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T7" s="12" t="inlineStr">
@@ -2812,10 +2870,14 @@
           <t>{"buyer_phone":17777777781,"seller_phone":17777777774,"买家":1000656,"卖家":1000648,"平台":10}</t>
         </is>
       </c>
-      <c r="I8" s="12" t="n"/>
+      <c r="I8" s="12" t="inlineStr">
+        <is>
+          <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
+        </is>
+      </c>
       <c r="J8" s="12" t="inlineStr">
         <is>
-          <t>{'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.40'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}</t>
+          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}</t>
         </is>
       </c>
       <c r="K8" s="12" t="inlineStr">
@@ -2825,18 +2887,18 @@
       </c>
       <c r="L8" s="12" t="inlineStr">
         <is>
-          <t>EC-2020062417262100014761</t>
+          <t>EC-2020091017470800003985</t>
         </is>
       </c>
       <c r="M8" s="12" t="n"/>
       <c r="N8" s="12" t="inlineStr">
         <is>
-          <t>{'自由销售': 1000750, 'TCO': 1000649, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
+          <t>{'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
         </is>
       </c>
       <c r="O8" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.20'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.30')}, '支付服务费二级分佣比例': None}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': None}</t>
         </is>
       </c>
       <c r="P8" s="12" t="inlineStr">
@@ -2846,17 +2908,17 @@
       </c>
       <c r="Q8" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('10.00'), Decimal('-10.00'), Decimal('10.00')]</t>
+          <t>[Decimal('-100.00'), Decimal('100.00'), Decimal('-100.00'), Decimal('100.00')]</t>
         </is>
       </c>
       <c r="R8" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('1996546.00'), Decimal('1996556.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('10.00'), Decimal('101944075.36'), Decimal('101944065.36'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-10.00'), Decimal('101944065.36'), Decimal('101944075.36'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('10.00'), Decimal('1018.24'), Decimal('1008.24'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989666.00'), Decimal('1989766.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942018.18'), Decimal('101941918.18'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941918.18'), Decimal('101942018.18'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102048.44'), Decimal('101948.44'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1))</t>
         </is>
       </c>
       <c r="S8" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('1996546.00'), Decimal('1996556.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('10.00'), Decimal('101944075.36'), Decimal('101944065.36'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-10.00'), Decimal('101944065.36'), Decimal('101944075.36'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('10.00'), Decimal('1018.24'), Decimal('1008.24'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989666.00'), Decimal('1989766.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942018.18'), Decimal('101941918.18'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941918.18'), Decimal('101942018.18'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102048.44'), Decimal('101948.44'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1))</t>
         </is>
       </c>
       <c r="T8" s="12" t="inlineStr">
@@ -2912,51 +2974,55 @@
           <t>{"buyer_phone":"17777777781","seller_phone":17777777774,"disanfang_phone":13724765586,"买家":1000656,"出钱方":1000166,"卖家":1000648,"平台":10}</t>
         </is>
       </c>
-      <c r="I9" s="12" t="n"/>
+      <c r="I9" s="12" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
+        </is>
+      </c>
       <c r="J9" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.40'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
         </is>
       </c>
       <c r="K9" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': None}, {'市代理商': 103554, '区代理商': 1000029, '省代理商': 1000246}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
         </is>
       </c>
       <c r="L9" s="12" t="inlineStr">
         <is>
-          <t>EC-2020062416392400014737</t>
+          <t>EC-2020091017471500003987</t>
         </is>
       </c>
       <c r="M9" s="12" t="n"/>
       <c r="N9" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣对象': {'自由销售': 1000750, 'TCO': 1000649, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'自由销售': 1000763, 'TCO': 1000760, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
+          <t>{'储备金二级分佣对象': {'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
         </is>
       </c>
       <c r="O9" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.20'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.30')}, '支付服务费二级分佣比例': {'agent_id': 1000029, 'sales_ratio': Decimal('0.40'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.60')}}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
         </is>
       </c>
       <c r="P9" s="12" t="inlineStr">
         <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000648, 10, 1000029, 1000760, 1000763, 103554]</t>
+          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000648, 10, 1001308, 103554, 1000246, 10]</t>
         </is>
       </c>
       <c r="Q9" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.30'), Decimal('10.00'), Decimal('0.10'), Decimal('0.30'), Decimal('-10.00'), Decimal('10.00'), Decimal('-0.10'), Decimal('0.02'), Decimal('0.01'), Decimal('0.03'), Decimal('0.01')]</t>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R9" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-10.00'), Decimal('1086848510.69'), Decimal('1086848520.69'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.10'), Decimal('1086848510.59'), Decimal('1086848510.69'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.30'), Decimal('9999698480.83'), Decimal('9999698481.13'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944075.12'), Decimal('101944065.12'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944075.22'), Decimal('101944075.12'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13865739.47'), Decimal('13865739.17'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944065.22'), Decimal('101944075.22'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('10.00'), Decimal('998.24'), Decimal('988.24'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-0.10'), Decimal('101944065.12'), Decimal('101944065.22'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000029, 2, 2, Decimal('0.02'), Decimal('99339.50'), Decimal('99339.48'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000760, 2, 11, Decimal('0.01'), Decimal('2.76'), Decimal('2.75'), 'TCO分佣金额（易贝）收入', 1), (1000763, 2, 11, Decimal('0.03'), Decimal('4.04'), Decimal('4.01'), '业务焕商分佣金额（易贝）收入', 1), (103554, 2, 2, Decimal('0.01'), Decimal('2239.57'), Decimal('2239.56'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.01'), Decimal('999897980267.08'), Decimal('999897980267.07'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944065.14'), Decimal('101944065.12'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895979.78'), Decimal('1086896079.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895978.78'), Decimal('1086895979.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698315.03'), Decimal('9999698318.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942018.18'), Decimal('101941918.18'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942019.18'), Decimal('101942018.18'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962741.82'), Decimal('13962738.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941919.18'), Decimal('101942019.18'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102148.44'), Decimal('102048.44'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941918.18'), Decimal('101941919.18'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.22'), Decimal('21.07'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19108.68'), Decimal('19108.13'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982680.91'), Decimal('999897982680.81'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941918.38'), Decimal('101941918.18'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S9" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-10.00'), Decimal('1086848510.69'), Decimal('1086848520.69'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.10'), Decimal('1086848510.59'), Decimal('1086848510.69'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.30'), Decimal('9999698480.83'), Decimal('9999698481.13'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944075.12'), Decimal('101944065.12'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944075.22'), Decimal('101944075.12'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13865739.47'), Decimal('13865739.17'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944065.22'), Decimal('101944075.22'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('10.00'), Decimal('998.24'), Decimal('988.24'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-0.10'), Decimal('101944065.12'), Decimal('101944065.22'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000029, 2, 2, Decimal('0.02'), Decimal('99339.50'), Decimal('99339.48'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000760, 2, 11, Decimal('0.01'), Decimal('2.76'), Decimal('2.75'), 'TCO分佣金额（易贝）收入', 1), (1000763, 2, 11, Decimal('0.03'), Decimal('4.04'), Decimal('4.01'), '业务焕商分佣金额（易贝）收入', 1), (103554, 2, 2, Decimal('0.01'), Decimal('2239.57'), Decimal('2239.56'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.01'), Decimal('999897980267.08'), Decimal('999897980267.07'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944065.14'), Decimal('101944065.12'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895979.78'), Decimal('1086896079.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895978.78'), Decimal('1086895979.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698315.03'), Decimal('9999698318.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942018.18'), Decimal('101941918.18'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942019.18'), Decimal('101942018.18'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962741.82'), Decimal('13962738.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941919.18'), Decimal('101942019.18'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102148.44'), Decimal('102048.44'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941918.18'), Decimal('101941919.18'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.22'), Decimal('21.07'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19108.68'), Decimal('19108.13'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982680.91'), Decimal('999897982680.81'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941918.38'), Decimal('101941918.18'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T9" s="12" t="inlineStr">
@@ -3012,51 +3078,55 @@
           <t>{"buyer_phone":"17777777781","seller_phone":17777777774,"disanfang_phone":13724765586,"买家":1000656,"出钱方":1000166,"卖家":1000648,"平台":10}</t>
         </is>
       </c>
-      <c r="I10" s="12" t="n"/>
+      <c r="I10" s="12" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
+        </is>
+      </c>
       <c r="J10" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.40'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
         </is>
       </c>
       <c r="K10" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': None}, {'市代理商': 103554, '区代理商': 1000029, '省代理商': 1000246}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
         </is>
       </c>
       <c r="L10" s="12" t="inlineStr">
         <is>
-          <t>EC-2020062416411900014739</t>
+          <t>EC-2020091017472200003989</t>
         </is>
       </c>
       <c r="M10" s="12" t="n"/>
       <c r="N10" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣对象': {'自由销售': 1000750, 'TCO': 1000649, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'自由销售': 1000763, 'TCO': 1000760, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
+          <t>{'储备金二级分佣对象': {'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
         </is>
       </c>
       <c r="O10" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.20'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.30')}, '支付服务费二级分佣比例': {'agent_id': 1000029, 'sales_ratio': Decimal('0.40'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.60')}}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
         </is>
       </c>
       <c r="P10" s="12" t="inlineStr">
         <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000648, 10, 1000029, 1000760, 1000763, 103554]</t>
+          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000648, 10, 1001308, 103554, 1000246, 10]</t>
         </is>
       </c>
       <c r="Q10" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.30'), Decimal('10.00'), Decimal('0.10'), Decimal('0.30'), Decimal('-10.00'), Decimal('10.00'), Decimal('-0.10'), Decimal('0.02'), Decimal('0.01'), Decimal('0.03'), Decimal('0.01')]</t>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R10" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-10.00'), Decimal('1086848500.59'), Decimal('1086848510.59'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.10'), Decimal('1086848500.49'), Decimal('1086848500.59'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.30'), Decimal('9999698480.53'), Decimal('9999698480.83'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944075.14'), Decimal('101944065.14'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944075.24'), Decimal('101944075.14'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13865739.77'), Decimal('13865739.47'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944065.24'), Decimal('101944075.24'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('10.00'), Decimal('1008.24'), Decimal('998.24'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-0.10'), Decimal('101944065.14'), Decimal('101944065.24'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1000029, 2, 2, Decimal('0.02'), Decimal('99339.52'), Decimal('99339.50'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000760, 2, 11, Decimal('0.01'), Decimal('2.77'), Decimal('2.76'), 'TCO分佣金额（易贝）收入', 1), (1000763, 2, 11, Decimal('0.03'), Decimal('4.07'), Decimal('4.04'), '业务焕商分佣金额（易贝）收入', 1), (103554, 2, 2, Decimal('0.01'), Decimal('2239.58'), Decimal('2239.57'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.01'), Decimal('999897980267.09'), Decimal('999897980267.08'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944065.16'), Decimal('101944065.14'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895878.78'), Decimal('1086895978.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895877.78'), Decimal('1086895878.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698312.03'), Decimal('9999698315.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942018.38'), Decimal('101941918.38'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942019.38'), Decimal('101942018.38'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962744.82'), Decimal('13962741.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941919.38'), Decimal('101942019.38'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102248.44'), Decimal('102148.44'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941918.38'), Decimal('101941919.38'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.37'), Decimal('21.22'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19109.23'), Decimal('19108.68'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.01'), Decimal('999897982680.91'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941918.58'), Decimal('101941918.38'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="S10" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-10.00'), Decimal('1086848500.59'), Decimal('1086848510.59'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.10'), Decimal('1086848500.49'), Decimal('1086848500.59'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.30'), Decimal('9999698480.53'), Decimal('9999698480.83'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944075.14'), Decimal('101944065.14'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944075.24'), Decimal('101944075.14'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13865739.77'), Decimal('13865739.47'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944065.24'), Decimal('101944075.24'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('10.00'), Decimal('1008.24'), Decimal('998.24'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-0.10'), Decimal('101944065.14'), Decimal('101944065.24'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1000029, 2, 2, Decimal('0.02'), Decimal('99339.52'), Decimal('99339.50'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000760, 2, 11, Decimal('0.01'), Decimal('2.77'), Decimal('2.76'), 'TCO分佣金额（易贝）收入', 1), (1000763, 2, 11, Decimal('0.03'), Decimal('4.07'), Decimal('4.04'), '业务焕商分佣金额（易贝）收入', 1), (103554, 2, 2, Decimal('0.01'), Decimal('2239.58'), Decimal('2239.57'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.01'), Decimal('999897980267.09'), Decimal('999897980267.08'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944065.16'), Decimal('101944065.14'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895878.78'), Decimal('1086895978.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895877.78'), Decimal('1086895878.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698312.03'), Decimal('9999698315.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942018.38'), Decimal('101941918.38'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942019.38'), Decimal('101942018.38'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962744.82'), Decimal('13962741.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941919.38'), Decimal('101942019.38'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102248.44'), Decimal('102148.44'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941918.38'), Decimal('101941919.38'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.37'), Decimal('21.22'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19109.23'), Decimal('19108.68'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.01'), Decimal('999897982680.91'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941918.58'), Decimal('101941918.38'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="T10" s="12" t="inlineStr">
@@ -3112,10 +3182,14 @@
           <t>{"buyer_phone":17777777781,"seller_phone":17777777774,"买家":1000656,"卖家":1000648,"平台":10}</t>
         </is>
       </c>
-      <c r="I11" s="12" t="n"/>
+      <c r="I11" s="12" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
+        </is>
+      </c>
       <c r="J11" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.40'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.40'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}}</t>
         </is>
       </c>
       <c r="K11" s="12" t="inlineStr">
@@ -3125,38 +3199,38 @@
       </c>
       <c r="L11" s="12" t="inlineStr">
         <is>
-          <t>EC-2020062418040300014787</t>
+          <t>EC-2020091017472900003991</t>
         </is>
       </c>
       <c r="M11" s="12" t="n"/>
       <c r="N11" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣对象': {'自由销售': 1000750, 'TCO': 1000649, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'自由销售': 1000750, 'TCO': 1000649, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
+          <t>{'储备金二级分佣对象': {'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'业务焕商': 1000750, 'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
         </is>
       </c>
       <c r="O11" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.20'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.30')}, '支付服务费二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.20'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.30')}}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
         </is>
       </c>
       <c r="P11" s="12" t="inlineStr">
         <is>
-          <t>[1000656, 10, 10, 10, 1000648, 1000648, 10, 1000648, 1000647, 1000646, 1000649]</t>
+          <t>[1000656, 10, 10, 10, 1000648, 1000648, 10, 1000648, 1000794, 1000647, 1000646, 10]</t>
         </is>
       </c>
       <c r="Q11" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('9.00'), Decimal('1.00'), Decimal('-9.00'), Decimal('10.00'), Decimal('-1.00'), Decimal('-1.00'), Decimal('0.40'), Decimal('0.30'), Decimal('0.04'), Decimal('0.03')]</t>
+          <t>[Decimal('-100.00'), Decimal('90.00'), Decimal('10.00'), Decimal('-90.00'), Decimal('100.00'), Decimal('-10.00'), Decimal('-10.00'), Decimal('4.20'), Decimal('1.80'), Decimal('1.00'), Decimal('1.00'), Decimal('2.00')]</t>
         </is>
       </c>
       <c r="R11" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('999919149.00'), Decimal('999919159.00'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('9.00'), Decimal('999999316075369.70'), Decimal('999999316075360.70'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('1.00'), Decimal('999999316075370.70'), Decimal('999999316075369.70'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-9.00'), Decimal('999999316075361.70'), Decimal('999999316075370.70'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000648, 2, 3, Decimal('10.00'), Decimal('35831.08'), Decimal('35821.08'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000648, 2, 1, Decimal('-1.00'), Decimal('35830.08'), Decimal('35831.08'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (10, 2, 1, Decimal('-1.00'), Decimal('999999316075360.70'), Decimal('999999316075361.70'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('0.40'), Decimal('35830.48'), Decimal('35830.08'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000647, 2, 2, Decimal('0.30'), Decimal('31057.45'), Decimal('31057.15'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.04'), Decimal('9923.63'), Decimal('9923.59'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000649, 2, 11, Decimal('0.03'), Decimal('1155.20'), Decimal('1155.17'), 'TCO分佣金额（现金）收入', 2), (1000750, 2, 11, Decimal('0.03'), Decimal('613.20'), Decimal('613.17'), '业务焕商分佣金额（现金）收入', 2), (10, 2, 2, Decimal('0.20'), Decimal('999999316075360.90'), Decimal('999999316075360.70'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999889245.05'), Decimal('999889345.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('90.00'), Decimal('999999316171244.11'), Decimal('999999316171154.11'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('10.00'), Decimal('999999316171254.11'), Decimal('999999316171244.11'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-90.00'), Decimal('999999316171164.11'), Decimal('999999316171254.11'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000648, 2, 3, Decimal('100.00'), Decimal('115647.88'), Decimal('115547.88'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000648, 2, 1, Decimal('-10.00'), Decimal('115637.88'), Decimal('115647.88'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (10, 2, 1, Decimal('-10.00'), Decimal('999999316171154.11'), Decimal('999999316171164.11'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('4.20'), Decimal('115642.08'), Decimal('115637.88'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('1.80'), Decimal('5988.51'), Decimal('5986.71'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('1.00'), Decimal('53744.94'), Decimal('53743.94'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('1.00'), Decimal('19477.91'), Decimal('19476.91'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('2.00'), Decimal('999999316171156.11'), Decimal('999999316171154.11'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="S11" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('999919149.00'), Decimal('999919159.00'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('9.00'), Decimal('999999316075369.70'), Decimal('999999316075360.70'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('1.00'), Decimal('999999316075370.70'), Decimal('999999316075369.70'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-9.00'), Decimal('999999316075361.70'), Decimal('999999316075370.70'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000648, 2, 3, Decimal('10.00'), Decimal('35831.08'), Decimal('35821.08'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000648, 2, 1, Decimal('-1.00'), Decimal('35830.08'), Decimal('35831.08'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (10, 2, 1, Decimal('-1.00'), Decimal('999999316075360.70'), Decimal('999999316075361.70'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('0.40'), Decimal('35830.48'), Decimal('35830.08'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000647, 2, 2, Decimal('0.30'), Decimal('31057.45'), Decimal('31057.15'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.04'), Decimal('9923.63'), Decimal('9923.59'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000649, 2, 11, Decimal('0.03'), Decimal('1155.20'), Decimal('1155.17'), 'TCO分佣金额（现金）收入', 2), (1000750, 2, 11, Decimal('0.03'), Decimal('613.20'), Decimal('613.17'), '业务焕商分佣金额（现金）收入', 2), (10, 2, 2, Decimal('0.20'), Decimal('999999316075360.90'), Decimal('999999316075360.70'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999889245.05'), Decimal('999889345.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('90.00'), Decimal('999999316171244.11'), Decimal('999999316171154.11'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('10.00'), Decimal('999999316171254.11'), Decimal('999999316171244.11'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-90.00'), Decimal('999999316171164.11'), Decimal('999999316171254.11'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000648, 2, 3, Decimal('100.00'), Decimal('115647.88'), Decimal('115547.88'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000648, 2, 1, Decimal('-10.00'), Decimal('115637.88'), Decimal('115647.88'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (10, 2, 1, Decimal('-10.00'), Decimal('999999316171154.11'), Decimal('999999316171164.11'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('4.20'), Decimal('115642.08'), Decimal('115637.88'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('1.80'), Decimal('5988.51'), Decimal('5986.71'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('1.00'), Decimal('53744.94'), Decimal('53743.94'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('1.00'), Decimal('19477.91'), Decimal('19476.91'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('2.00'), Decimal('999999316171156.11'), Decimal('999999316171154.11'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="T11" s="12" t="inlineStr">
@@ -3212,10 +3286,14 @@
           <t>{"buyer_phone":17777777781,"seller_phone":17777777783,"买家":1000656,"卖家":1000664,"平台":10}</t>
         </is>
       </c>
-      <c r="I12" s="12" t="n"/>
+      <c r="I12" s="12" t="inlineStr">
+        <is>
+          <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
+        </is>
+      </c>
       <c r="J12" s="12" t="inlineStr">
         <is>
-          <t>{'区分佣比例': Decimal('0.60'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}</t>
+          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}</t>
         </is>
       </c>
       <c r="K12" s="12" t="inlineStr">
@@ -3225,38 +3303,38 @@
       </c>
       <c r="L12" s="12" t="inlineStr">
         <is>
-          <t>EC-2020062114362300014612</t>
+          <t>EC-2020091017473600003993</t>
         </is>
       </c>
       <c r="M12" s="12" t="n"/>
       <c r="N12" s="12" t="inlineStr">
         <is>
-          <t>{'自由销售': 1000745, 'TCO': 1000757, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
+          <t>{'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
         </is>
       </c>
       <c r="O12" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.20'), 'free_sales_ratio': Decimal('0.50')}, '支付服务费二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.20'), 'free_sales_ratio': Decimal('0.50')}}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
         </is>
       </c>
       <c r="P12" s="12" t="inlineStr">
         <is>
-          <t>[1000656, 1000656, 1000656, 10, 10, 10, 10, 1000664, 10, 1000648, 1000647, 1000646, 10]</t>
+          <t>[1000656, 1000656, 1000656, 10, 10, 10, 10, 1000664, 10, 1000648, 1000647, 1000646, 1000794, 10]</t>
         </is>
       </c>
       <c r="Q12" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.30'), Decimal('10.00'), Decimal('0.10'), Decimal('0.30'), Decimal('-10.00'), Decimal('10.00'), Decimal('-0.10'), Decimal('0.06'), Decimal('0.01'), Decimal('0.01'), Decimal('0.02')]</t>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-1.00'), Decimal('0.60'), Decimal('0.10'), Decimal('0.07'), Decimal('0.03'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R12" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('999991488.56'), Decimal('999991498.56'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-0.10'), Decimal('999991488.46'), Decimal('999991488.56'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-0.30'), Decimal('138515.49'), Decimal('138515.79'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944205.89'), Decimal('101944195.89'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944205.99'), Decimal('101944205.89'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13862664.96'), Decimal('13862664.66'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944195.99'), Decimal('101944205.99'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('10.00'), Decimal('2537.80'), Decimal('2527.80'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-0.10'), Decimal('101944195.89'), Decimal('101944195.99'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000648, 2, 2, Decimal('0.06'), Decimal('765.53'), Decimal('765.47'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.01'), Decimal('334.35'), Decimal('334.34'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.01'), Decimal('825.63'), Decimal('825.62'), '易贝购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944195.91'), Decimal('101944195.89'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999981816.47'), Decimal('999981916.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999981815.47'), Decimal('999981816.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('168012.05'), Decimal('168015.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942018.58'), Decimal('101941918.58'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942019.58'), Decimal('101942018.58'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962747.82'), Decimal('13962744.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941919.58'), Decimal('101942019.58'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4097.80'), Decimal('3997.80'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941918.58'), Decimal('101941919.58'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000648, 2, 2, Decimal('0.60'), Decimal('102249.04'), Decimal('102248.44'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('511.03'), Decimal('510.93'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('864.11'), Decimal('864.04'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('16.41'), Decimal('16.38'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941918.78'), Decimal('101941918.58'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S12" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('999991488.56'), Decimal('999991498.56'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-0.10'), Decimal('999991488.46'), Decimal('999991488.56'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-0.30'), Decimal('138515.49'), Decimal('138515.79'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944205.89'), Decimal('101944195.89'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944205.99'), Decimal('101944205.89'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13862664.96'), Decimal('13862664.66'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944195.99'), Decimal('101944205.99'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('10.00'), Decimal('2537.80'), Decimal('2527.80'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-0.10'), Decimal('101944195.89'), Decimal('101944195.99'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000648, 2, 2, Decimal('0.06'), Decimal('765.53'), Decimal('765.47'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.01'), Decimal('334.35'), Decimal('334.34'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.01'), Decimal('825.63'), Decimal('825.62'), '易贝购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944195.91'), Decimal('101944195.89'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999981816.47'), Decimal('999981916.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999981815.47'), Decimal('999981816.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('168012.05'), Decimal('168015.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942018.58'), Decimal('101941918.58'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942019.58'), Decimal('101942018.58'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962747.82'), Decimal('13962744.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941919.58'), Decimal('101942019.58'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4097.80'), Decimal('3997.80'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941918.58'), Decimal('101941919.58'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000648, 2, 2, Decimal('0.60'), Decimal('102249.04'), Decimal('102248.44'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('511.03'), Decimal('510.93'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('864.11'), Decimal('864.04'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('16.41'), Decimal('16.38'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941918.78'), Decimal('101941918.58'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T12" s="12" t="inlineStr">
@@ -3312,10 +3390,14 @@
           <t>{"buyer_phone":17777777781,"seller_phone":17777777783,"买家":1000656,"卖家":1000664,"平台":10}</t>
         </is>
       </c>
-      <c r="I13" s="12" t="n"/>
+      <c r="I13" s="12" t="inlineStr">
+        <is>
+          <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
+        </is>
+      </c>
       <c r="J13" s="12" t="inlineStr">
         <is>
-          <t>{'区分佣比例': Decimal('0.60'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}</t>
+          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}</t>
         </is>
       </c>
       <c r="K13" s="12" t="inlineStr">
@@ -3325,18 +3407,18 @@
       </c>
       <c r="L13" s="12" t="inlineStr">
         <is>
-          <t>EC-2020062114534900014622</t>
+          <t>EC-2020091017474300003995</t>
         </is>
       </c>
       <c r="M13" s="12" t="n"/>
       <c r="N13" s="12" t="inlineStr">
         <is>
-          <t>{'自由销售': 1000745, 'TCO': 1000757, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
+          <t>{'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
         </is>
       </c>
       <c r="O13" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.20'), 'free_sales_ratio': Decimal('0.50')}, '支付服务费二级分佣比例': None}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': None}</t>
         </is>
       </c>
       <c r="P13" s="12" t="inlineStr">
@@ -3346,17 +3428,17 @@
       </c>
       <c r="Q13" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('10.00'), Decimal('-10.00'), Decimal('10.00')]</t>
+          <t>[Decimal('-100.00'), Decimal('100.00'), Decimal('-100.00'), Decimal('100.00')]</t>
         </is>
       </c>
       <c r="R13" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('1996656.00'), Decimal('1996666.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('10.00'), Decimal('101944205.95'), Decimal('101944195.95'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-10.00'), Decimal('101944195.95'), Decimal('101944205.95'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('10.00'), Decimal('2577.80'), Decimal('2567.80'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989566.00'), Decimal('1989666.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942018.78'), Decimal('101941918.78'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941918.78'), Decimal('101942018.78'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4197.80'), Decimal('4097.80'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1))</t>
         </is>
       </c>
       <c r="S13" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('1996656.00'), Decimal('1996666.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('10.00'), Decimal('101944205.95'), Decimal('101944195.95'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-10.00'), Decimal('101944195.95'), Decimal('101944205.95'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('10.00'), Decimal('2577.80'), Decimal('2567.80'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989566.00'), Decimal('1989666.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942018.78'), Decimal('101941918.78'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941918.78'), Decimal('101942018.78'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4197.80'), Decimal('4097.80'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1))</t>
         </is>
       </c>
       <c r="T13" s="12" t="inlineStr">
@@ -3412,51 +3494,55 @@
           <t>{"buyer_phone":"17777777781","seller_phone":17777777783,"disanfang_phone":13724765586,"买家":1000656,"出钱方":1000166,"卖家":1000664,"平台":10}</t>
         </is>
       </c>
-      <c r="I14" s="12" t="n"/>
+      <c r="I14" s="12" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
+        </is>
+      </c>
       <c r="J14" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'区分佣比例': Decimal('0.60'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
         </is>
       </c>
       <c r="K14" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': None}, {'市代理商': 103554, '区代理商': 1000029, '省代理商': 1000246}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
         </is>
       </c>
       <c r="L14" s="12" t="inlineStr">
         <is>
-          <t>EC-2020062114553800014624</t>
+          <t>EC-2020091017475000003997</t>
         </is>
       </c>
       <c r="M14" s="12" t="n"/>
       <c r="N14" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣对象': {'自由销售': 1000745, 'TCO': 1000757, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'自由销售': 1000763, 'TCO': 1000760, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
+          <t>{'储备金二级分佣对象': {'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
         </is>
       </c>
       <c r="O14" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.20'), 'free_sales_ratio': Decimal('0.50')}, '支付服务费二级分佣比例': {'agent_id': 1000029, 'sales_ratio': Decimal('0.40'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.60')}}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
         </is>
       </c>
       <c r="P14" s="12" t="inlineStr">
         <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000664, 10, 1000029, 1000760, 1000763, 103554]</t>
+          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000664, 10, 1001308, 103554, 1000246, 10]</t>
         </is>
       </c>
       <c r="Q14" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.30'), Decimal('10.00'), Decimal('0.10'), Decimal('0.30'), Decimal('-10.00'), Decimal('10.00'), Decimal('-0.10'), Decimal('0.02'), Decimal('0.01'), Decimal('0.03'), Decimal('0.01')]</t>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R14" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-10.00'), Decimal('1086748631.89'), Decimal('1086748641.89'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.10'), Decimal('1086748631.79'), Decimal('1086748631.89'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.30'), Decimal('9999698484.43'), Decimal('9999698484.73'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944205.95'), Decimal('101944195.95'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944206.05'), Decimal('101944205.95'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13862665.86'), Decimal('13862665.56'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944196.05'), Decimal('101944206.05'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('10.00'), Decimal('2587.80'), Decimal('2577.80'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-0.10'), Decimal('101944195.95'), Decimal('101944196.05'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000029, 2, 2, Decimal('0.02'), Decimal('99339.40'), Decimal('99339.38'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000760, 2, 11, Decimal('0.01'), Decimal('2.56'), Decimal('2.55'), 'TCO分佣金额（易贝）收入', 1), (1000763, 2, 11, Decimal('0.03'), Decimal('3.62'), Decimal('3.59'), '业务焕商分佣金额（易贝）收入', 1), (103554, 2, 2, Decimal('0.01'), Decimal('2239.45'), Decimal('2239.44'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.01'), Decimal('999897980266.96'), Decimal('999897980266.95'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944195.97'), Decimal('101944195.95'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895777.78'), Decimal('1086895877.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895776.78'), Decimal('1086895777.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698309.03'), Decimal('9999698312.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942018.78'), Decimal('101941918.78'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942019.78'), Decimal('101942018.78'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962750.82'), Decimal('13962747.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941919.78'), Decimal('101942019.78'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4297.80'), Decimal('4197.80'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941918.78'), Decimal('101941919.78'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.52'), Decimal('21.37'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19109.78'), Decimal('19109.23'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.11'), Decimal('999897982681.01'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941918.98'), Decimal('101941918.78'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S14" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-10.00'), Decimal('1086748631.89'), Decimal('1086748641.89'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.10'), Decimal('1086748631.79'), Decimal('1086748631.89'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.30'), Decimal('9999698484.43'), Decimal('9999698484.73'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944205.95'), Decimal('101944195.95'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944206.05'), Decimal('101944205.95'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13862665.86'), Decimal('13862665.56'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944196.05'), Decimal('101944206.05'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('10.00'), Decimal('2587.80'), Decimal('2577.80'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-0.10'), Decimal('101944195.95'), Decimal('101944196.05'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000029, 2, 2, Decimal('0.02'), Decimal('99339.40'), Decimal('99339.38'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000760, 2, 11, Decimal('0.01'), Decimal('2.56'), Decimal('2.55'), 'TCO分佣金额（易贝）收入', 1), (1000763, 2, 11, Decimal('0.03'), Decimal('3.62'), Decimal('3.59'), '业务焕商分佣金额（易贝）收入', 1), (103554, 2, 2, Decimal('0.01'), Decimal('2239.45'), Decimal('2239.44'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.01'), Decimal('999897980266.96'), Decimal('999897980266.95'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944195.97'), Decimal('101944195.95'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895777.78'), Decimal('1086895877.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895776.78'), Decimal('1086895777.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698309.03'), Decimal('9999698312.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942018.78'), Decimal('101941918.78'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942019.78'), Decimal('101942018.78'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962750.82'), Decimal('13962747.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941919.78'), Decimal('101942019.78'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4297.80'), Decimal('4197.80'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941918.78'), Decimal('101941919.78'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.52'), Decimal('21.37'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19109.78'), Decimal('19109.23'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.11'), Decimal('999897982681.01'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941918.98'), Decimal('101941918.78'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T14" s="12" t="inlineStr">
@@ -3512,51 +3598,55 @@
           <t>{"buyer_phone":"17777777781","seller_phone":17777777783,"disanfang_phone":13724765586,"买家":1000656,"出钱方":1000166,"卖家":1000664,"平台":10}</t>
         </is>
       </c>
-      <c r="I15" s="12" t="n"/>
+      <c r="I15" s="12" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
+        </is>
+      </c>
       <c r="J15" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'区分佣比例': Decimal('0.60'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
         </is>
       </c>
       <c r="K15" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': None}, {'市代理商': 103554, '区代理商': 1000029, '省代理商': 1000246}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
         </is>
       </c>
       <c r="L15" s="12" t="inlineStr">
         <is>
-          <t>EC-2020062115122900014634</t>
+          <t>EC-2020091017475700003999</t>
         </is>
       </c>
       <c r="M15" s="12" t="n"/>
       <c r="N15" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣对象': {'自由销售': 1000745, 'TCO': 1000757, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'自由销售': 1000763, 'TCO': 1000760, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
+          <t>{'储备金二级分佣对象': {'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
         </is>
       </c>
       <c r="O15" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.20'), 'free_sales_ratio': Decimal('0.50')}, '支付服务费二级分佣比例': {'agent_id': 1000029, 'sales_ratio': Decimal('0.40'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.60')}}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
         </is>
       </c>
       <c r="P15" s="12" t="inlineStr">
         <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000664, 10, 1000029, 1000760, 1000763, 103554]</t>
+          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000664, 10, 1001308, 103554, 1000246, 10]</t>
         </is>
       </c>
       <c r="Q15" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.30'), Decimal('10.00'), Decimal('0.10'), Decimal('0.30'), Decimal('-10.00'), Decimal('10.00'), Decimal('-0.10'), Decimal('0.02'), Decimal('0.01'), Decimal('0.03'), Decimal('0.01')]</t>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R15" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-10.00'), Decimal('1086748621.79'), Decimal('1086748631.79'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.10'), Decimal('1086748621.69'), Decimal('1086748621.79'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.30'), Decimal('9999698484.13'), Decimal('9999698484.43'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944209.97'), Decimal('101944199.97'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944210.07'), Decimal('101944209.97'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13862746.16'), Decimal('13862745.86'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944200.07'), Decimal('101944210.07'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('10.00'), Decimal('2597.80'), Decimal('2587.80'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-0.10'), Decimal('101944199.97'), Decimal('101944200.07'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1000029, 2, 2, Decimal('0.02'), Decimal('99339.42'), Decimal('99339.40'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000760, 2, 11, Decimal('0.01'), Decimal('2.57'), Decimal('2.56'), 'TCO分佣金额（易贝）收入', 1), (1000763, 2, 11, Decimal('0.03'), Decimal('3.65'), Decimal('3.62'), '业务焕商分佣金额（易贝）收入', 1), (103554, 2, 2, Decimal('0.01'), Decimal('2239.46'), Decimal('2239.45'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.01'), Decimal('999897980266.97'), Decimal('999897980266.96'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944199.99'), Decimal('101944199.97'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895676.78'), Decimal('1086895776.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895675.78'), Decimal('1086895676.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698306.03'), Decimal('9999698309.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942018.98'), Decimal('101941918.98'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942019.98'), Decimal('101942018.98'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962753.82'), Decimal('13962750.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941919.98'), Decimal('101942019.98'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4397.80'), Decimal('4297.80'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941918.98'), Decimal('101941919.98'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.67'), Decimal('21.52'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19110.33'), Decimal('19109.78'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.21'), Decimal('999897982681.11'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941919.18'), Decimal('101941918.98'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="S15" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-10.00'), Decimal('1086748621.79'), Decimal('1086748631.79'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.10'), Decimal('1086748621.69'), Decimal('1086748621.79'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.30'), Decimal('9999698484.13'), Decimal('9999698484.43'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944209.97'), Decimal('101944199.97'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944210.07'), Decimal('101944209.97'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13862746.16'), Decimal('13862745.86'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944200.07'), Decimal('101944210.07'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('10.00'), Decimal('2597.80'), Decimal('2587.80'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-0.10'), Decimal('101944199.97'), Decimal('101944200.07'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1000029, 2, 2, Decimal('0.02'), Decimal('99339.42'), Decimal('99339.40'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000760, 2, 11, Decimal('0.01'), Decimal('2.57'), Decimal('2.56'), 'TCO分佣金额（易贝）收入', 1), (1000763, 2, 11, Decimal('0.03'), Decimal('3.65'), Decimal('3.62'), '业务焕商分佣金额（易贝）收入', 1), (103554, 2, 2, Decimal('0.01'), Decimal('2239.46'), Decimal('2239.45'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.01'), Decimal('999897980266.97'), Decimal('999897980266.96'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944199.99'), Decimal('101944199.97'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895676.78'), Decimal('1086895776.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895675.78'), Decimal('1086895676.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698306.03'), Decimal('9999698309.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942018.98'), Decimal('101941918.98'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942019.98'), Decimal('101942018.98'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962753.82'), Decimal('13962750.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941919.98'), Decimal('101942019.98'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4397.80'), Decimal('4297.80'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941918.98'), Decimal('101941919.98'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.67'), Decimal('21.52'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19110.33'), Decimal('19109.78'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.21'), Decimal('999897982681.11'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941919.18'), Decimal('101941918.98'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="T15" s="12" t="inlineStr">
@@ -3612,10 +3702,14 @@
           <t>{"buyer_phone":"17777777781","seller_phone":17777777783,"买家":1000656,"卖家":1000664,"平台":10}</t>
         </is>
       </c>
-      <c r="I16" s="12" t="n"/>
+      <c r="I16" s="12" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
+        </is>
+      </c>
       <c r="J16" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'区分佣比例': Decimal('0.60'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}, '支付服务费分佣': {'区分佣比例': Decimal('0.60'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}}</t>
         </is>
       </c>
       <c r="K16" s="12" t="inlineStr">
@@ -3625,38 +3719,38 @@
       </c>
       <c r="L16" s="12" t="inlineStr">
         <is>
-          <t>EC-2020062115142200014636</t>
+          <t>EC-2020091017480500004001</t>
         </is>
       </c>
       <c r="M16" s="12" t="n"/>
       <c r="N16" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣对象': {'自由销售': 1000745, 'TCO': 1000757, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
+          <t>{'储备金二级分佣对象': {'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'业务焕商': 1000750, 'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
         </is>
       </c>
       <c r="O16" s="12" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.20'), 'free_sales_ratio': Decimal('0.50')}, '支付服务费二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.20'), 'free_sales_ratio': Decimal('0.50')}}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
         </is>
       </c>
       <c r="P16" s="12" t="inlineStr">
         <is>
-          <t>[1000656, 10, 10, 10, 1000664, 1000664, 10, 1000648, 1000647, 1000646, 10]</t>
+          <t>[1000656, 10, 10, 10, 1000664, 1000664, 10, 1000648, 1000794, 1000647, 1000646, 10]</t>
         </is>
       </c>
       <c r="Q16" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('9.00'), Decimal('1.00'), Decimal('-9.00'), Decimal('10.00'), Decimal('-1.00'), Decimal('-1.00'), Decimal('0.60'), Decimal('0.10'), Decimal('0.10'), Decimal('0.20')]</t>
+          <t>[Decimal('-100.00'), Decimal('90.00'), Decimal('10.00'), Decimal('-90.00'), Decimal('100.00'), Decimal('-10.00'), Decimal('-10.00'), Decimal('4.20'), Decimal('1.80'), Decimal('1.00'), Decimal('1.00'), Decimal('2.00')]</t>
         </is>
       </c>
       <c r="R16" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('999921679.00'), Decimal('999921689.00'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('9.00'), Decimal('999999316068692.69'), Decimal('999999316068683.69'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('1.00'), Decimal('999999316068693.69'), Decimal('999999316068692.69'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-9.00'), Decimal('999999316068684.69'), Decimal('999999316068693.69'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000664, 2, 3, Decimal('10.00'), Decimal('9824.00'), Decimal('9814.00'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000664, 2, 1, Decimal('-1.00'), Decimal('9823.00'), Decimal('9824.00'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (10, 2, 1, Decimal('-1.00'), Decimal('999999316068683.69'), Decimal('999999316068684.69'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('0.60'), Decimal('29320.48'), Decimal('29319.88'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000647, 2, 2, Decimal('0.10'), Decimal('26223.45'), Decimal('26223.35'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.10'), Decimal('9100.03'), Decimal('9099.93'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.20'), Decimal('999999316068683.89'), Decimal('999999316068683.69'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999889145.05'), Decimal('999889245.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('90.00'), Decimal('999999316171246.11'), Decimal('999999316171156.11'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('10.00'), Decimal('999999316171256.11'), Decimal('999999316171246.11'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-90.00'), Decimal('999999316171166.11'), Decimal('999999316171256.11'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000664, 2, 3, Decimal('100.00'), Decimal('10013.00'), Decimal('9913.00'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000664, 2, 1, Decimal('-10.00'), Decimal('10003.00'), Decimal('10013.00'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (10, 2, 1, Decimal('-10.00'), Decimal('999999316171156.11'), Decimal('999999316171166.11'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('4.20'), Decimal('115646.28'), Decimal('115642.08'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('1.80'), Decimal('5990.31'), Decimal('5988.51'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('1.00'), Decimal('53745.94'), Decimal('53744.94'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('1.00'), Decimal('19478.91'), Decimal('19477.91'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('2.00'), Decimal('999999316171158.11'), Decimal('999999316171156.11'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="S16" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('999921679.00'), Decimal('999921689.00'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('9.00'), Decimal('999999316068692.69'), Decimal('999999316068683.69'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('1.00'), Decimal('999999316068693.69'), Decimal('999999316068692.69'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-9.00'), Decimal('999999316068684.69'), Decimal('999999316068693.69'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000664, 2, 3, Decimal('10.00'), Decimal('9824.00'), Decimal('9814.00'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000664, 2, 1, Decimal('-1.00'), Decimal('9823.00'), Decimal('9824.00'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (10, 2, 1, Decimal('-1.00'), Decimal('999999316068683.69'), Decimal('999999316068684.69'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('0.60'), Decimal('29320.48'), Decimal('29319.88'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000647, 2, 2, Decimal('0.10'), Decimal('26223.45'), Decimal('26223.35'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.10'), Decimal('9100.03'), Decimal('9099.93'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.20'), Decimal('999999316068683.89'), Decimal('999999316068683.69'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999889145.05'), Decimal('999889245.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('90.00'), Decimal('999999316171246.11'), Decimal('999999316171156.11'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('10.00'), Decimal('999999316171256.11'), Decimal('999999316171246.11'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-90.00'), Decimal('999999316171166.11'), Decimal('999999316171256.11'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000664, 2, 3, Decimal('100.00'), Decimal('10013.00'), Decimal('9913.00'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000664, 2, 1, Decimal('-10.00'), Decimal('10003.00'), Decimal('10013.00'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (10, 2, 1, Decimal('-10.00'), Decimal('999999316171156.11'), Decimal('999999316171166.11'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('4.20'), Decimal('115646.28'), Decimal('115642.08'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('1.80'), Decimal('5990.31'), Decimal('5988.51'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('1.00'), Decimal('53745.94'), Decimal('53744.94'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('1.00'), Decimal('19478.91'), Decimal('19477.91'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('2.00'), Decimal('999999316171158.11'), Decimal('999999316171156.11'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="T16" s="12" t="inlineStr">
@@ -3712,10 +3806,14 @@
           <t>{"buyer_phone":17777777781,"seller_phone":17777777771,"bangding_phone":17777777778,"买家":1000656,"卖家":1000644,"平台":10}</t>
         </is>
       </c>
-      <c r="I17" s="14" t="n"/>
+      <c r="I17" s="12" t="inlineStr">
+        <is>
+          <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
+        </is>
+      </c>
       <c r="J17" s="12" t="inlineStr">
         <is>
-          <t>{'个人分佣比例': Decimal('0.30'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.40')}</t>
+          <t>{'个人分佣比例': Decimal('0.30'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60')}</t>
         </is>
       </c>
       <c r="K17" s="14" t="inlineStr">
@@ -3725,42 +3823,42 @@
       </c>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>EC-2020062118555000014670</t>
+          <t>EC-2020091017481500004005</t>
         </is>
       </c>
       <c r="M17" s="14" t="inlineStr">
         <is>
-          <t>{'charge_amount': Decimal('200'), 'reserve_fund': Decimal('120.00')}</t>
+          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
         </is>
       </c>
       <c r="N17" s="14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>{'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
         </is>
       </c>
       <c r="O17" s="14" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.20'), 'free_sales_ratio': Decimal('0.50')}, '支付服务费二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.20'), 'free_sales_ratio': Decimal('0.50')}}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
         </is>
       </c>
       <c r="P17" s="14" t="inlineStr">
         <is>
-          <t>[1000656, 1000656, 1000656, 10, 10, 10, 10, 1000644, 1000656, 1000651, 1000648, 1000647, 1000646, 10, 10, 1000651, 1000648, 1000647, 1000646, 10]</t>
+          <t>[1000656, 1000656, 1000656, 10, 10, 10, 10, 1000644, 1000656, 1000651, 1000648, 1000647, 1000646, 1000794, 10, 10, 1000651, 1000648, 1000647, 1000646, 1000794, 10]</t>
         </is>
       </c>
       <c r="Q17" s="14" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.30'), Decimal('10.00'), Decimal('0.10'), Decimal('0.30'), Decimal('-10.00'), Decimal('10.00'), Decimal('-120.00'), Decimal('60.00'), Decimal('24.00'), Decimal('18.00'), Decimal('6.00'), Decimal('12.00'), Decimal('-0.10'), Decimal('0.03'), Decimal('0.01'), Decimal('0.03'), Decimal('0.01'), Decimal('0.02')]</t>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('30.00'), Decimal('18.00'), Decimal('3.00'), Decimal('2.10'), Decimal('0.90'), Decimal('6.00'), Decimal('-1.00'), Decimal('0.30'), Decimal('0.30'), Decimal('0.10'), Decimal('0.07'), Decimal('0.03'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R17" s="14" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('999991135.06'), Decimal('999991145.06'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-0.10'), Decimal('999991134.96'), Decimal('999991135.06'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-0.30'), Decimal('139304.99'), Decimal('139305.29'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944220.59'), Decimal('101944210.59'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944220.69'), Decimal('101944220.59'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13862756.66'), Decimal('13862756.36'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944210.69'), Decimal('101944220.69'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('10.00'), Decimal('932.64'), Decimal('922.64'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-120.00'), Decimal('0.00'), Decimal('120.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('60.00'), Decimal('2551.20'), Decimal('2491.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('24.00'), Decimal('29516.48'), Decimal('29492.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('18.00'), Decimal('26335.45'), Decimal('26317.45'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('6.00'), Decimal('9144.03'), Decimal('9138.03'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('12.00'), Decimal('999999316069291.89'), Decimal('999999316069279.89'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('101944210.59'), Decimal('101944210.69'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000651, 2, 2, Decimal('0.03'), Decimal('30.61'), Decimal('30.58'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.01'), Decimal('778.00'), Decimal('777.99'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.03'), Decimal('336.79'), Decimal('336.76'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.01'), Decimal('827.92'), Decimal('827.91'), '易贝购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944210.61'), Decimal('101944210.59'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999981715.47'), Decimal('999981815.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999981714.47'), Decimal('999981715.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('168109.05'), Decimal('168112.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942019.18'), Decimal('101941919.18'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942020.18'), Decimal('101942019.18'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962756.82'), Decimal('13962753.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941920.18'), Decimal('101942020.18'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2232.64'), Decimal('2132.64'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3154.20'), Decimal('3124.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.00'), Decimal('115688.28'), Decimal('115670.28'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('53752.94'), Decimal('53749.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('2.10'), Decimal('19483.81'), Decimal('19481.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('0.90'), Decimal('5992.41'), Decimal('5991.51'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316171232.11'), Decimal('999999316171226.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941919.18'), Decimal('101941920.18'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000651, 2, 2, Decimal('0.30'), Decimal('34.30'), Decimal('34.00'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.30'), Decimal('102249.34'), Decimal('102249.04'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('511.13'), Decimal('511.03'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('864.18'), Decimal('864.11'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('16.44'), Decimal('16.41'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941919.38'), Decimal('101941919.18'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S17" s="14" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('999991135.06'), Decimal('999991145.06'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-0.10'), Decimal('999991134.96'), Decimal('999991135.06'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-0.30'), Decimal('139304.99'), Decimal('139305.29'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101944220.59'), Decimal('101944210.59'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101944220.69'), Decimal('101944220.59'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13862756.66'), Decimal('13862756.36'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101944210.69'), Decimal('101944220.69'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('10.00'), Decimal('932.64'), Decimal('922.64'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-120.00'), Decimal('0.00'), Decimal('120.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('60.00'), Decimal('2551.20'), Decimal('2491.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('24.00'), Decimal('29516.48'), Decimal('29492.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('18.00'), Decimal('26335.45'), Decimal('26317.45'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('6.00'), Decimal('9144.03'), Decimal('9138.03'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('12.00'), Decimal('999999316069291.89'), Decimal('999999316069279.89'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('101944210.59'), Decimal('101944210.69'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000651, 2, 2, Decimal('0.03'), Decimal('30.61'), Decimal('30.58'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.01'), Decimal('778.00'), Decimal('777.99'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.03'), Decimal('336.79'), Decimal('336.76'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.01'), Decimal('827.92'), Decimal('827.91'), '易贝购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.02'), Decimal('101944210.61'), Decimal('101944210.59'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999981715.47'), Decimal('999981815.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999981714.47'), Decimal('999981715.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('168109.05'), Decimal('168112.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942019.18'), Decimal('101941919.18'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942020.18'), Decimal('101942019.18'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962756.82'), Decimal('13962753.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941920.18'), Decimal('101942020.18'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2232.64'), Decimal('2132.64'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3154.20'), Decimal('3124.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.00'), Decimal('115688.28'), Decimal('115670.28'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('53752.94'), Decimal('53749.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('2.10'), Decimal('19483.81'), Decimal('19481.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('0.90'), Decimal('5992.41'), Decimal('5991.51'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316171232.11'), Decimal('999999316171226.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941919.18'), Decimal('101941920.18'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000651, 2, 2, Decimal('0.30'), Decimal('34.30'), Decimal('34.00'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.30'), Decimal('102249.34'), Decimal('102249.04'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('511.13'), Decimal('511.03'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('864.18'), Decimal('864.11'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('16.44'), Decimal('16.41'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941919.38'), Decimal('101941919.18'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T17" s="14" t="inlineStr">
@@ -3816,19 +3914,71 @@
           <t>{"buyer_phone":17777777781,"seller_phone":17777777771,"bangding_phone":17777777778,"买家":1000656,"卖家":1000644,"平台":10}</t>
         </is>
       </c>
-      <c r="I18" s="14" t="n"/>
-      <c r="J18" s="12" t="n"/>
-      <c r="K18" s="12" t="n"/>
-      <c r="L18" s="14" t="n"/>
-      <c r="M18" s="14" t="n"/>
-      <c r="N18" s="14" t="n"/>
-      <c r="O18" s="14" t="n"/>
-      <c r="P18" s="14" t="n"/>
-      <c r="Q18" s="14" t="n"/>
-      <c r="R18" s="14" t="n"/>
-      <c r="S18" s="14" t="n"/>
-      <c r="T18" s="14" t="n"/>
-      <c r="U18" s="14" t="n"/>
+      <c r="I18" s="12" t="inlineStr">
+        <is>
+          <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
+        </is>
+      </c>
+      <c r="J18" s="12" t="inlineStr">
+        <is>
+          <t>{'个人分佣比例': Decimal('0.30'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60')}</t>
+        </is>
+      </c>
+      <c r="K18" s="12" t="inlineStr">
+        <is>
+          <t>[{'个人焕商': 1000651}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
+        </is>
+      </c>
+      <c r="L18" s="14" t="inlineStr">
+        <is>
+          <t>EC-2020091017482400004009</t>
+        </is>
+      </c>
+      <c r="M18" s="14" t="inlineStr">
+        <is>
+          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
+        </is>
+      </c>
+      <c r="N18" s="14" t="inlineStr">
+        <is>
+          <t>{'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
+        </is>
+      </c>
+      <c r="O18" s="14" t="inlineStr">
+        <is>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': None}</t>
+        </is>
+      </c>
+      <c r="P18" s="14" t="inlineStr">
+        <is>
+          <t>[1000656, 10, 10, 1000644, 1000656, 1000651, 1000648, 1000647, 1000646, 1000794, 10]</t>
+        </is>
+      </c>
+      <c r="Q18" s="14" t="inlineStr">
+        <is>
+          <t>[Decimal('-100.00'), Decimal('100.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('30.00'), Decimal('18.00'), Decimal('3.00'), Decimal('2.10'), Decimal('0.90'), Decimal('6.00')]</t>
+        </is>
+      </c>
+      <c r="R18" s="14" t="inlineStr">
+        <is>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989466.00'), Decimal('1989566.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942019.38'), Decimal('101941919.38'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941919.38'), Decimal('101942019.38'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2332.64'), Decimal('2232.64'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3184.20'), Decimal('3154.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.00'), Decimal('115730.28'), Decimal('115712.28'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('53759.94'), Decimal('53756.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('2.10'), Decimal('19488.71'), Decimal('19486.61'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('0.90'), Decimal('5994.51'), Decimal('5993.61'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316171306.11'), Decimal('999999316171300.11'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+        </is>
+      </c>
+      <c r="S18" s="14" t="inlineStr">
+        <is>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989466.00'), Decimal('1989566.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942019.38'), Decimal('101941919.38'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941919.38'), Decimal('101942019.38'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2332.64'), Decimal('2232.64'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3184.20'), Decimal('3154.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.00'), Decimal('115730.28'), Decimal('115712.28'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('53759.94'), Decimal('53756.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('2.10'), Decimal('19488.71'), Decimal('19486.61'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('0.90'), Decimal('5994.51'), Decimal('5993.61'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316171306.11'), Decimal('999999316171300.11'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+        </is>
+      </c>
+      <c r="T18" s="14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="U18" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="108" customHeight="1" s="22">
       <c r="A19" s="12" t="n">
@@ -3872,19 +4022,71 @@
           <t>{"buyer_phone":17777777781,"seller_phone":17777777771,"disanfang_phone":13724765586,"bangding_phone":17777777778,"买家":1000656,"出钱方":1000166,"卖家":1000644,"平台":10}</t>
         </is>
       </c>
-      <c r="I19" s="14" t="n"/>
-      <c r="J19" s="12" t="n"/>
-      <c r="K19" s="14" t="n"/>
-      <c r="L19" s="14" t="n"/>
-      <c r="M19" s="14" t="n"/>
-      <c r="N19" s="14" t="n"/>
-      <c r="O19" s="14" t="n"/>
-      <c r="P19" s="14" t="n"/>
-      <c r="Q19" s="14" t="n"/>
-      <c r="R19" s="14" t="n"/>
-      <c r="S19" s="14" t="n"/>
-      <c r="T19" s="14" t="n"/>
-      <c r="U19" s="14" t="n"/>
+      <c r="I19" s="12" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
+        </is>
+      </c>
+      <c r="J19" s="12" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': {'个人分佣比例': Decimal('0.30'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
+        </is>
+      </c>
+      <c r="K19" s="14" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': [{'个人焕商': 1000651}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
+        </is>
+      </c>
+      <c r="L19" s="14" t="inlineStr">
+        <is>
+          <t>EC-2020091017483300004013</t>
+        </is>
+      </c>
+      <c r="M19" s="14" t="inlineStr">
+        <is>
+          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
+        </is>
+      </c>
+      <c r="N19" s="14" t="inlineStr">
+        <is>
+          <t>{'储备金二级分佣对象': {'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
+        </is>
+      </c>
+      <c r="O19" s="14" t="inlineStr">
+        <is>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
+        </is>
+      </c>
+      <c r="P19" s="14" t="inlineStr">
+        <is>
+          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000644, 1000656, 1000651, 1000648, 1000794, 1000647, 1000646, 10, 10, 1001308, 103554, 1000246, 10]</t>
+        </is>
+      </c>
+      <c r="Q19" s="14" t="inlineStr">
+        <is>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('30.00'), Decimal('12.60'), Decimal('5.40'), Decimal('3.00'), Decimal('3.00'), Decimal('6.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
+        </is>
+      </c>
+      <c r="R19" s="14" t="inlineStr">
+        <is>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895575.78'), Decimal('1086895675.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895574.78'), Decimal('1086895575.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698303.03'), Decimal('9999698306.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942019.38'), Decimal('101941919.38'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942020.38'), Decimal('101942019.38'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962759.82'), Decimal('13962756.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941920.38'), Decimal('101942020.38'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2432.64'), Decimal('2332.64'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3214.20'), Decimal('3184.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('115759.68'), Decimal('115747.08'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('6007.11'), Decimal('6001.71'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('53766.94'), Decimal('53763.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.00'), Decimal('19495.71'), Decimal('19492.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316171380.11'), Decimal('999999316171374.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941919.38'), Decimal('101941920.38'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.82'), Decimal('21.67'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19110.88'), Decimal('19110.33'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.31'), Decimal('999897982681.21'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941919.58'), Decimal('101941919.38'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+        </is>
+      </c>
+      <c r="S19" s="14" t="inlineStr">
+        <is>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895575.78'), Decimal('1086895675.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895574.78'), Decimal('1086895575.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698303.03'), Decimal('9999698306.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942019.38'), Decimal('101941919.38'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942020.38'), Decimal('101942019.38'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962759.82'), Decimal('13962756.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941920.38'), Decimal('101942020.38'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2432.64'), Decimal('2332.64'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3214.20'), Decimal('3184.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('115759.68'), Decimal('115747.08'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('6007.11'), Decimal('6001.71'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('53766.94'), Decimal('53763.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.00'), Decimal('19495.71'), Decimal('19492.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316171380.11'), Decimal('999999316171374.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941919.38'), Decimal('101941920.38'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.82'), Decimal('21.67'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19110.88'), Decimal('19110.33'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.31'), Decimal('999897982681.21'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941919.58'), Decimal('101941919.38'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+        </is>
+      </c>
+      <c r="T19" s="14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="U19" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="108" customHeight="1" s="22">
       <c r="A20" s="12" t="n">
@@ -3928,19 +4130,71 @@
           <t>{"buyer_phone":17777777781,"seller_phone":17777777771,"disanfang_phone":13724765586,"bangding_phone":17777777778,"买家":1000656,"出钱方":1000166,"卖家":1000644,"平台":10}</t>
         </is>
       </c>
-      <c r="I20" s="14" t="n"/>
-      <c r="J20" s="12" t="n"/>
-      <c r="K20" s="14" t="n"/>
-      <c r="L20" s="14" t="n"/>
-      <c r="M20" s="14" t="n"/>
-      <c r="N20" s="14" t="n"/>
-      <c r="O20" s="14" t="n"/>
-      <c r="P20" s="14" t="n"/>
-      <c r="Q20" s="14" t="n"/>
-      <c r="R20" s="14" t="n"/>
-      <c r="S20" s="14" t="n"/>
-      <c r="T20" s="14" t="n"/>
-      <c r="U20" s="14" t="n"/>
+      <c r="I20" s="12" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
+        </is>
+      </c>
+      <c r="J20" s="12" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': {'个人分佣比例': Decimal('0.30'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
+        </is>
+      </c>
+      <c r="K20" s="14" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': [{'个人焕商': 1000651}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
+        </is>
+      </c>
+      <c r="L20" s="14" t="inlineStr">
+        <is>
+          <t>EC-2020091017484300004017</t>
+        </is>
+      </c>
+      <c r="M20" s="14" t="inlineStr">
+        <is>
+          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
+        </is>
+      </c>
+      <c r="N20" s="14" t="inlineStr">
+        <is>
+          <t>{'储备金二级分佣对象': {'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
+        </is>
+      </c>
+      <c r="O20" s="14" t="inlineStr">
+        <is>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
+        </is>
+      </c>
+      <c r="P20" s="14" t="inlineStr">
+        <is>
+          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000644, 1000656, 1000651, 1000648, 1000794, 1000647, 1000646, 10, 10, 1001308, 103554, 1000246, 10]</t>
+        </is>
+      </c>
+      <c r="Q20" s="14" t="inlineStr">
+        <is>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('30.00'), Decimal('12.60'), Decimal('5.40'), Decimal('3.00'), Decimal('3.00'), Decimal('6.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
+        </is>
+      </c>
+      <c r="R20" s="14" t="inlineStr">
+        <is>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895474.78'), Decimal('1086895574.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895473.78'), Decimal('1086895474.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698300.03'), Decimal('9999698303.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942019.58'), Decimal('101941919.58'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942020.58'), Decimal('101942019.58'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962762.82'), Decimal('13962759.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941920.58'), Decimal('101942020.58'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2532.64'), Decimal('2432.64'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3244.20'), Decimal('3214.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('115789.08'), Decimal('115776.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('6019.71'), Decimal('6014.31'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('53773.94'), Decimal('53770.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.00'), Decimal('19502.71'), Decimal('19499.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316171454.11'), Decimal('999999316171448.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941919.58'), Decimal('101941920.58'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.97'), Decimal('21.82'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19111.43'), Decimal('19110.88'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.41'), Decimal('999897982681.31'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941919.78'), Decimal('101941919.58'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+        </is>
+      </c>
+      <c r="S20" s="14" t="inlineStr">
+        <is>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895474.78'), Decimal('1086895574.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895473.78'), Decimal('1086895474.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698300.03'), Decimal('9999698303.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942019.58'), Decimal('101941919.58'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942020.58'), Decimal('101942019.58'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962762.82'), Decimal('13962759.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941920.58'), Decimal('101942020.58'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2532.64'), Decimal('2432.64'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3244.20'), Decimal('3214.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('115789.08'), Decimal('115776.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('6019.71'), Decimal('6014.31'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('53773.94'), Decimal('53770.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.00'), Decimal('19502.71'), Decimal('19499.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316171454.11'), Decimal('999999316171448.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941919.58'), Decimal('101941920.58'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('21.97'), Decimal('21.82'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19111.43'), Decimal('19110.88'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.41'), Decimal('999897982681.31'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941919.78'), Decimal('101941919.58'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+        </is>
+      </c>
+      <c r="T20" s="14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="U20" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="108" customHeight="1" s="22">
       <c r="A21" s="12" t="n">
@@ -3984,19 +4238,71 @@
           <t>{"buyer_phone":17777777781,"seller_phone":17777777771,"bangding_phone":17777777778,"买家":1000656,"卖家":1000644,"平台":10}</t>
         </is>
       </c>
-      <c r="I21" s="14" t="n"/>
-      <c r="J21" s="12" t="n"/>
-      <c r="K21" s="14" t="n"/>
-      <c r="L21" s="14" t="n"/>
-      <c r="M21" s="14" t="n"/>
-      <c r="N21" s="14" t="n"/>
-      <c r="O21" s="14" t="n"/>
-      <c r="P21" s="14" t="n"/>
-      <c r="Q21" s="14" t="n"/>
-      <c r="R21" s="14" t="n"/>
-      <c r="S21" s="14" t="n"/>
-      <c r="T21" s="14" t="n"/>
-      <c r="U21" s="14" t="n"/>
+      <c r="I21" s="12" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
+        </is>
+      </c>
+      <c r="J21" s="12" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': {'个人分佣比例': Decimal('0.30'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60')}, '支付服务费分佣': {'个人分佣比例': Decimal('0.30'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60')}}</t>
+        </is>
+      </c>
+      <c r="K21" s="14" t="inlineStr">
+        <is>
+          <t>{'储备池分佣': [{'个人焕商': 1000651}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1000651}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]}</t>
+        </is>
+      </c>
+      <c r="L21" s="14" t="inlineStr">
+        <is>
+          <t>EC-2020091017485300004021</t>
+        </is>
+      </c>
+      <c r="M21" s="14" t="inlineStr">
+        <is>
+          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
+        </is>
+      </c>
+      <c r="N21" s="14" t="inlineStr">
+        <is>
+          <t>{'储备金二级分佣对象': {'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
+        </is>
+      </c>
+      <c r="O21" s="14" t="inlineStr">
+        <is>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
+        </is>
+      </c>
+      <c r="P21" s="14" t="inlineStr">
+        <is>
+          <t>[1000656, 10, 10, 10, 1000644, 1000644, 1000656, 1000651, 1000648, 1000794, 1000647, 1000646, 10, 10, 1000651, 1000648, 1000647, 1000646, 10]</t>
+        </is>
+      </c>
+      <c r="Q21" s="14" t="inlineStr">
+        <is>
+          <t>[Decimal('-100.00'), Decimal('90.00'), Decimal('10.00'), Decimal('-90.00'), Decimal('100.00'), Decimal('-10.00'), Decimal('-60.00'), Decimal('30.00'), Decimal('12.60'), Decimal('5.40'), Decimal('3.00'), Decimal('3.00'), Decimal('6.00'), Decimal('-10.00'), Decimal('3.00'), Decimal('3.00'), Decimal('1.00'), Decimal('1.00'), Decimal('2.00')]</t>
+        </is>
+      </c>
+      <c r="R21" s="14" t="inlineStr">
+        <is>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999888545.05'), Decimal('999888645.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('90.00'), Decimal('999999316171612.11'), Decimal('999999316171522.11'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('10.00'), Decimal('999999316171622.11'), Decimal('999999316171612.11'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-90.00'), Decimal('999999316171532.11'), Decimal('999999316171622.11'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000644, 2, 3, Decimal('100.00'), Decimal('926.46'), Decimal('826.46'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000644, 2, 1, Decimal('-10.00'), Decimal('916.46'), Decimal('926.46'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3274.20'), Decimal('3244.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('115818.48'), Decimal('115805.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('6032.31'), Decimal('6026.91'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('53780.94'), Decimal('53777.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.00'), Decimal('19509.71'), Decimal('19506.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316171538.11'), Decimal('999999316171532.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-10.00'), Decimal('999999316171528.11'), Decimal('999999316171538.11'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000651, 2, 2, Decimal('3.00'), Decimal('3277.20'), Decimal('3274.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('3.00'), Decimal('115821.48'), Decimal('115818.48'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000647, 2, 2, Decimal('1.00'), Decimal('53781.94'), Decimal('53780.94'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('1.00'), Decimal('19510.71'), Decimal('19509.71'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('2.00'), Decimal('999999316171530.11'), Decimal('999999316171528.11'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+        </is>
+      </c>
+      <c r="S21" s="14" t="inlineStr">
+        <is>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999888545.05'), Decimal('999888645.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('90.00'), Decimal('999999316171612.11'), Decimal('999999316171522.11'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('10.00'), Decimal('999999316171622.11'), Decimal('999999316171612.11'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-90.00'), Decimal('999999316171532.11'), Decimal('999999316171622.11'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000644, 2, 3, Decimal('100.00'), Decimal('926.46'), Decimal('826.46'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000644, 2, 1, Decimal('-10.00'), Decimal('916.46'), Decimal('926.46'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3274.20'), Decimal('3244.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('115818.48'), Decimal('115805.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('6032.31'), Decimal('6026.91'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('53780.94'), Decimal('53777.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.00'), Decimal('19509.71'), Decimal('19506.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316171538.11'), Decimal('999999316171532.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-10.00'), Decimal('999999316171528.11'), Decimal('999999316171538.11'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000651, 2, 2, Decimal('3.00'), Decimal('3277.20'), Decimal('3274.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('3.00'), Decimal('115821.48'), Decimal('115818.48'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000647, 2, 2, Decimal('1.00'), Decimal('53781.94'), Decimal('53780.94'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('1.00'), Decimal('19510.71'), Decimal('19509.71'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('2.00'), Decimal('999999316171530.11'), Decimal('999999316171528.11'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+        </is>
+      </c>
+      <c r="T21" s="14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="U21" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="202" customFormat="1" customHeight="1" s="21">
       <c r="A22" s="12" t="n">
@@ -4040,19 +4346,71 @@
           <t>{"buyer_phone":17777777781,"seller_phone":17777777776,"买家":1000656,"卖家":1000650,"平台":10}</t>
         </is>
       </c>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="12" t="n"/>
-      <c r="K22" s="12" t="n"/>
-      <c r="L22" s="12" t="n"/>
-      <c r="M22" s="12" t="n"/>
-      <c r="N22" s="12" t="n"/>
-      <c r="O22" s="12" t="n"/>
-      <c r="P22" s="12" t="n"/>
-      <c r="Q22" s="12" t="n"/>
-      <c r="R22" s="12" t="n"/>
-      <c r="S22" s="12" t="n"/>
-      <c r="T22" s="12" t="n"/>
-      <c r="U22" s="12" t="n"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
+        </is>
+      </c>
+      <c r="J22" s="12" t="inlineStr">
+        <is>
+          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}</t>
+        </is>
+      </c>
+      <c r="K22" s="12" t="inlineStr">
+        <is>
+          <t>[{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
+        </is>
+      </c>
+      <c r="L22" s="12" t="inlineStr">
+        <is>
+          <t>EC-2020091017491400004029</t>
+        </is>
+      </c>
+      <c r="M22" s="12" t="inlineStr">
+        <is>
+          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
+        </is>
+      </c>
+      <c r="N22" s="12" t="inlineStr">
+        <is>
+          <t>{'TCO': 1000794, '业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
+        </is>
+      </c>
+      <c r="O22" s="12" t="inlineStr">
+        <is>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
+        </is>
+      </c>
+      <c r="P22" s="12" t="inlineStr">
+        <is>
+          <t>[1000656, 1000656, 1000656, 10, 10, 10, 10, 1000650, 1000656, 1000650, 1000648, 1000647, 1000646, 1000794, 10, 10, 1000650, 1000648, 1000647, 1000646, 1000794, 10]</t>
+        </is>
+      </c>
+      <c r="Q22" s="12" t="inlineStr">
+        <is>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('27.00'), Decimal('4.50'), Decimal('3.15'), Decimal('1.35'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.45'), Decimal('0.10'), Decimal('0.07'), Decimal('0.03'), Decimal('0.20')]</t>
+        </is>
+      </c>
+      <c r="R22" s="12" t="inlineStr">
+        <is>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999981513.47'), Decimal('999981613.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999981512.47'), Decimal('999981513.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('168703.05'), Decimal('168706.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942019.98'), Decimal('101941919.98'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942020.98'), Decimal('101942019.98'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962768.82'), Decimal('13962765.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941920.98'), Decimal('101942020.98'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('27151.48'), Decimal('27051.48'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68053.73'), Decimal('68038.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('115923.48'), Decimal('115896.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('53798.94'), Decimal('53794.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19522.61'), Decimal('19519.46'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6037.41'), Decimal('6036.06'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316171684.11'), Decimal('999999316171675.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941919.98'), Decimal('101941920.98'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('27151.63'), Decimal('27151.48'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102250.24'), Decimal('102249.79'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('511.33'), Decimal('511.23'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('864.32'), Decimal('864.25'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('16.50'), Decimal('16.47'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941920.18'), Decimal('101941919.98'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+        </is>
+      </c>
+      <c r="S22" s="12" t="inlineStr">
+        <is>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999981513.47'), Decimal('999981613.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999981512.47'), Decimal('999981513.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('168703.05'), Decimal('168706.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942019.98'), Decimal('101941919.98'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942020.98'), Decimal('101942019.98'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962768.82'), Decimal('13962765.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941920.98'), Decimal('101942020.98'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('27151.48'), Decimal('27051.48'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68053.73'), Decimal('68038.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('115923.48'), Decimal('115896.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('53798.94'), Decimal('53794.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19522.61'), Decimal('19519.46'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6037.41'), Decimal('6036.06'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316171684.11'), Decimal('999999316171675.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941919.98'), Decimal('101941920.98'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('27151.63'), Decimal('27151.48'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102250.24'), Decimal('102249.79'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('511.33'), Decimal('511.23'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('864.32'), Decimal('864.25'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('16.50'), Decimal('16.47'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941920.18'), Decimal('101941919.98'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+        </is>
+      </c>
+      <c r="T22" s="12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="U22" s="12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="202" customFormat="1" customHeight="1" s="21">
       <c r="A23" s="12" t="n">
@@ -4088,7 +4446,7 @@
       </c>
       <c r="G23" s="12" t="inlineStr">
         <is>
-          <t>普通焕商商企服务</t>
+          <t>普通焕商本地生活</t>
         </is>
       </c>
       <c r="H23" s="12" t="inlineStr">
@@ -4096,7 +4454,11 @@
           <t>{"buyer_phone":17777777781,"seller_phone":17777777776,"买家":1000656,"卖家":1000650,"平台":10}</t>
         </is>
       </c>
-      <c r="I23" s="12" t="n"/>
+      <c r="I23" s="12" t="inlineStr">
+        <is>
+          <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
+        </is>
+      </c>
       <c r="J23" s="12" t="n"/>
       <c r="K23" s="12" t="n"/>
       <c r="L23" s="12" t="n"/>
@@ -4118,11 +4480,11 @@
     <dataValidation sqref="D22 D23 D1:D11 D12:D16 D17:D21 D24:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"公海用户,非公海用户"</formula1>
     </dataValidation>
+    <dataValidation sqref="F22 F23 F1:F11 F12:F16 F17:F21 F24:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
+    </dataValidation>
     <dataValidation sqref="E22 E23 E1:E11 E12:E16 E17:E21 E24:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F22 F23 F1:F11 F12:F16 F17:F21 F24:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4151,8 +4513,8 @@
     <col width="19.25" customWidth="1" style="16" min="7" max="7"/>
     <col width="21" customWidth="1" style="16" min="8" max="8"/>
     <col width="21.25" customWidth="1" style="16" min="9" max="9"/>
-    <col width="12.875" customWidth="1" style="16" min="10" max="10"/>
-    <col width="13.875" customWidth="1" style="16" min="11" max="11"/>
+    <col width="12.8833333333333" customWidth="1" style="16" min="10" max="10"/>
+    <col width="13.8833333333333" customWidth="1" style="16" min="11" max="11"/>
     <col width="12.8833333333333" customWidth="1" style="16" min="12" max="12"/>
     <col width="12.5" customWidth="1" style="16" min="13" max="13"/>
     <col width="12" customWidth="1" style="16" min="14" max="14"/>
@@ -5303,22 +5665,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="27.625" customWidth="1" style="22" min="2" max="2"/>
-    <col width="12.375" customWidth="1" style="22" min="3" max="3"/>
-    <col width="13.125" customWidth="1" style="22" min="4" max="4"/>
+    <col width="27.6333333333333" customWidth="1" style="22" min="2" max="2"/>
+    <col width="12.3833333333333" customWidth="1" style="22" min="3" max="3"/>
+    <col width="13.1333333333333" customWidth="1" style="22" min="4" max="4"/>
     <col width="13.5" customWidth="1" style="22" min="5" max="5"/>
-    <col width="13.375" customWidth="1" style="22" min="7" max="7"/>
-    <col width="30.625" customWidth="1" style="22" min="8" max="8"/>
-    <col width="43.375" customWidth="1" style="23" min="9" max="9"/>
-    <col width="34.375" customWidth="1" style="22" min="10" max="10"/>
+    <col width="13.3833333333333" customWidth="1" style="22" min="7" max="7"/>
+    <col width="30.6333333333333" customWidth="1" style="22" min="8" max="8"/>
+    <col width="43.3833333333333" customWidth="1" style="23" min="9" max="9"/>
+    <col width="34.3833333333333" customWidth="1" style="22" min="10" max="10"/>
     <col width="32" customWidth="1" style="22" min="11" max="11"/>
-    <col width="26.375" customWidth="1" style="22" min="12" max="12"/>
-    <col width="17.875" customWidth="1" style="22" min="13" max="13"/>
+    <col width="26.3833333333333" customWidth="1" style="22" min="12" max="12"/>
+    <col width="17.8833333333333" customWidth="1" style="22" min="13" max="13"/>
     <col width="19.5" customWidth="1" style="22" min="14" max="14"/>
     <col width="19.25" customWidth="1" style="22" min="15" max="15"/>
     <col width="19.75" customWidth="1" style="22" min="16" max="16"/>
-    <col width="21.375" customWidth="1" style="22" min="17" max="17"/>
-    <col width="20.375" customWidth="1" style="22" min="18" max="18"/>
+    <col width="21.3833333333333" customWidth="1" style="22" min="17" max="17"/>
+    <col width="20.3833333333333" customWidth="1" style="22" min="18" max="18"/>
     <col width="20" customWidth="1" style="22" min="19" max="19"/>
   </cols>
   <sheetData>
@@ -7373,11 +7735,11 @@
     <dataValidation sqref="D1 D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"公海用户,非公海用户"</formula1>
     </dataValidation>
+    <dataValidation sqref="F1 F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
+    </dataValidation>
     <dataValidation sqref="E1 E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F1 F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7402,13 +7764,13 @@
     <col width="12.6333333333333" customWidth="1" style="1" min="2" max="3"/>
     <col width="24.3833333333333" customWidth="1" style="1" min="4" max="4"/>
     <col width="12.5" customWidth="1" style="1" min="5" max="5"/>
-    <col width="14.375" customWidth="1" style="1" min="6" max="6"/>
+    <col width="14.3833333333333" customWidth="1" style="1" min="6" max="6"/>
     <col width="19.5" customWidth="1" style="1" min="7" max="7"/>
-    <col width="14.125" customWidth="1" style="1" min="8" max="8"/>
-    <col width="12.875" customWidth="1" style="1" min="9" max="9"/>
+    <col width="14.1333333333333" customWidth="1" style="1" min="8" max="8"/>
+    <col width="12.8833333333333" customWidth="1" style="1" min="9" max="9"/>
     <col width="9" customWidth="1" style="1" min="10" max="10"/>
     <col width="12.8833333333333" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.875" customWidth="1" style="1" min="12" max="12"/>
+    <col width="19.8833333333333" customWidth="1" style="1" min="12" max="12"/>
     <col width="9" customWidth="1" style="1" min="13" max="16384"/>
   </cols>
   <sheetData>
@@ -8778,20 +9140,20 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="9" customWidth="1" style="10" min="1" max="1"/>
-    <col width="40.375" customWidth="1" style="10" min="2" max="2"/>
+    <col width="40.3833333333333" customWidth="1" style="10" min="2" max="2"/>
     <col width="9.25" customWidth="1" style="10" min="3" max="3"/>
     <col width="9" customWidth="1" style="10" min="4" max="7"/>
     <col width="28.5" customWidth="1" style="10" min="8" max="8"/>
     <col width="34.25" customWidth="1" style="10" min="9" max="9"/>
     <col width="23.5" customWidth="1" style="10" min="10" max="10"/>
-    <col width="26.375" customWidth="1" style="10" min="11" max="11"/>
-    <col width="20.625" customWidth="1" style="10" min="12" max="12"/>
-    <col width="19.875" customWidth="1" style="10" min="13" max="13"/>
-    <col width="20.125" customWidth="1" style="10" min="14" max="14"/>
+    <col width="26.3833333333333" customWidth="1" style="10" min="11" max="11"/>
+    <col width="20.6333333333333" customWidth="1" style="10" min="12" max="12"/>
+    <col width="19.8833333333333" customWidth="1" style="10" min="13" max="13"/>
+    <col width="20.1333333333333" customWidth="1" style="10" min="14" max="14"/>
     <col width="20.5" customWidth="1" style="10" min="15" max="15"/>
     <col width="20.75" customWidth="1" style="10" min="16" max="16"/>
     <col width="32" customWidth="1" style="10" min="17" max="17"/>
-    <col width="31.625" customWidth="1" style="10" min="18" max="18"/>
+    <col width="31.6333333333333" customWidth="1" style="10" min="18" max="18"/>
     <col width="9" customWidth="1" style="10" min="19" max="16384"/>
   </cols>
   <sheetData>
@@ -10245,11 +10607,11 @@
     <dataValidation sqref="D1:D11 D12:D16 D17:D21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"公海用户,非公海用户"</formula1>
     </dataValidation>
+    <dataValidation sqref="F1:F11 F12:F16 F17:F21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
+    </dataValidation>
     <dataValidation sqref="E1:E11 E12:E16 E17:E21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F1:F11 F12:F16 F17:F21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10278,9 +10640,8 @@
     <col width="19.5" customWidth="1" style="1" min="7" max="7"/>
     <col width="9" customWidth="1" style="1" min="8" max="8"/>
     <col width="10.8833333333333" customWidth="1" style="1" min="9" max="9"/>
-    <col width="12.875" customWidth="1" style="1" min="10" max="11"/>
-    <col width="12.8833333333333" customWidth="1" style="1" min="12" max="12"/>
-    <col width="19.875" customWidth="1" style="1" min="13" max="13"/>
+    <col width="12.8833333333333" customWidth="1" style="1" min="10" max="12"/>
+    <col width="19.8833333333333" customWidth="1" style="1" min="13" max="13"/>
     <col width="9" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>

--- a/Hobay/TestData/fenyong_data.xlsx
+++ b/Hobay/TestData/fenyong_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="430" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="430" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="解释" sheetId="1" state="visible" r:id="rId1"/>
@@ -68,6 +68,60 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -75,7 +129,21 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -92,35 +160,29 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -137,69 +199,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,7 +237,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,13 +345,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,49 +375,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,73 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,25 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,21 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -546,6 +531,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -561,22 +557,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,17 +581,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -653,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2051,8 +2051,8 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5"/>
@@ -2236,17 +2236,17 @@
       </c>
       <c r="J2" s="13" t="inlineStr">
         <is>
-          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}</t>
+          <t>{'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}</t>
         </is>
       </c>
       <c r="K2" s="13" t="inlineStr">
         <is>
-          <t>[{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
+          <t>[{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
         </is>
       </c>
       <c r="L2" s="13" t="inlineStr">
         <is>
-          <t>EC-2020091114052100004149</t>
+          <t>EC-2020102915143500000409</t>
         </is>
       </c>
       <c r="M2" s="13" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="N2" s="13" t="inlineStr">
         <is>
-          <t>{'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
+          <t>{'买家上级的上级id': None, '买家上级的上级身份': None}</t>
         </is>
       </c>
       <c r="O2" s="13" t="inlineStr">
@@ -2668,17 +2668,17 @@
       </c>
       <c r="J6" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15'), '省分佣比例': Decimal('0.80')}}</t>
         </is>
       </c>
       <c r="K6" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001259}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001259}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]}</t>
         </is>
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>EC-2020091114060100004165</t>
+          <t>EC-2020102916054800000427</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="N6" s="13" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣对象': {'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'业务焕商': 1000750, 'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
+          <t>{'储备金二级分佣对象': {'买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'买家上级的上级id': None, '买家上级的上级身份': None}}</t>
         </is>
       </c>
       <c r="O6" s="13" t="inlineStr">
@@ -4528,11 +4528,11 @@
     <dataValidation sqref="C22 C23 C1:C11 C12:C16 C17:C21 C24:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"普通会员,白银会员,黄金会员,铂金会员,钻石会员"</formula1>
     </dataValidation>
+    <dataValidation sqref="E22 E23 E1:E11 E12:E16 E17:E21 E24:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
+    </dataValidation>
     <dataValidation sqref="D22 D23 D1:D11 D12:D16 D17:D21 D24:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"公海用户,非公海用户"</formula1>
-    </dataValidation>
-    <dataValidation sqref="E22 E23 E1:E11 E12:E16 E17:E21 E24:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
     </dataValidation>
     <dataValidation sqref="F22 F23 F1:F11 F12:F16 F17:F21 F24:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
@@ -7783,11 +7783,11 @@
     <dataValidation sqref="C1 C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"普通会员,白银会员,黄金会员,铂金会员,钻石会员"</formula1>
     </dataValidation>
+    <dataValidation sqref="E1 E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
+    </dataValidation>
     <dataValidation sqref="D1 D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"公海用户,非公海用户"</formula1>
-    </dataValidation>
-    <dataValidation sqref="E1 E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
     </dataValidation>
     <dataValidation sqref="F1 F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
@@ -9184,8 +9184,8 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="361" customHeight="1" s="23">
+    <row r="3" ht="168" customHeight="1" s="23">
       <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
@@ -11225,11 +11225,11 @@
     <dataValidation sqref="C1:C11 C12:C16 C17:C21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"普通会员,白银会员,黄金会员,铂金会员,钻石会员"</formula1>
     </dataValidation>
+    <dataValidation sqref="E1:E11 E12:E16 E17:E21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
+    </dataValidation>
     <dataValidation sqref="D1:D11 D12:D16 D17:D21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"公海用户,非公海用户"</formula1>
-    </dataValidation>
-    <dataValidation sqref="E1:E11 E12:E16 E17:E21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
     </dataValidation>
     <dataValidation sqref="F1:F11 F12:F16 F17:F21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>

--- a/Hobay/TestData/fenyong_data.xlsx
+++ b/Hobay/TestData/fenyong_data.xlsx
@@ -68,7 +68,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -83,9 +98,61 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,8 +173,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -122,90 +204,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -237,31 +237,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,13 +297,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,85 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,37 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,9 +509,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,32 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,8 +569,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,15 +601,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -653,137 +653,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="13" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="14" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,9 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1314,11 +1311,11 @@
           <t>参数</t>
         </is>
       </c>
-      <c r="C1" s="29" t="n"/>
-      <c r="D1" s="29" t="n"/>
-      <c r="E1" s="29" t="n"/>
-      <c r="F1" s="29" t="n"/>
-      <c r="G1" s="30" t="n"/>
+      <c r="C1" s="28" t="n"/>
+      <c r="D1" s="28" t="n"/>
+      <c r="E1" s="28" t="n"/>
+      <c r="F1" s="28" t="n"/>
+      <c r="G1" s="29" t="n"/>
       <c r="H1" s="16" t="inlineStr">
         <is>
           <t>是否需填</t>
@@ -1349,27 +1346,27 @@
           <t>其一</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
+      <c r="C2" s="30" t="inlineStr">
         <is>
           <t>钻石会员</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="D2" s="30" t="inlineStr">
         <is>
           <t>铂金会员</t>
         </is>
       </c>
-      <c r="E2" s="31" t="inlineStr">
+      <c r="E2" s="30" t="inlineStr">
         <is>
           <t>黄金会员</t>
         </is>
       </c>
-      <c r="F2" s="31" t="inlineStr">
+      <c r="F2" s="30" t="inlineStr">
         <is>
           <t>白银会员</t>
         </is>
       </c>
-      <c r="G2" s="31" t="inlineStr">
+      <c r="G2" s="30" t="inlineStr">
         <is>
           <t>普通会员</t>
         </is>
@@ -1409,14 +1406,14 @@
           <t>公海用户</t>
         </is>
       </c>
-      <c r="D3" s="30" t="n"/>
+      <c r="D3" s="29" t="n"/>
       <c r="E3" s="8" t="inlineStr">
         <is>
           <t>非公海用户</t>
         </is>
       </c>
-      <c r="F3" s="29" t="n"/>
-      <c r="G3" s="30" t="n"/>
+      <c r="F3" s="28" t="n"/>
+      <c r="G3" s="29" t="n"/>
       <c r="H3" s="8" t="inlineStr">
         <is>
           <t>需</t>
@@ -1447,27 +1444,27 @@
           <t>其一</t>
         </is>
       </c>
-      <c r="C4" s="32" t="inlineStr">
+      <c r="C4" s="31" t="inlineStr">
         <is>
           <t>个人焕商</t>
         </is>
       </c>
-      <c r="D4" s="32" t="inlineStr">
+      <c r="D4" s="31" t="inlineStr">
         <is>
           <t>区域焕商</t>
         </is>
       </c>
-      <c r="E4" s="32" t="inlineStr">
+      <c r="E4" s="31" t="inlineStr">
         <is>
           <t>非焕商未绑定个人焕商</t>
         </is>
       </c>
-      <c r="F4" s="32" t="inlineStr">
+      <c r="F4" s="31" t="inlineStr">
         <is>
           <t>非焕商且已绑定个人焕商</t>
         </is>
       </c>
-      <c r="G4" s="33" t="n"/>
+      <c r="G4" s="32" t="n"/>
       <c r="H4" s="8" t="inlineStr">
         <is>
           <t>需</t>
@@ -1558,10 +1555,10 @@
           <t>普通焕商实物商品</t>
         </is>
       </c>
-      <c r="D6" s="29" t="n"/>
-      <c r="E6" s="29" t="n"/>
-      <c r="F6" s="29" t="n"/>
-      <c r="G6" s="30" t="n"/>
+      <c r="D6" s="28" t="n"/>
+      <c r="E6" s="28" t="n"/>
+      <c r="F6" s="28" t="n"/>
+      <c r="G6" s="29" t="n"/>
       <c r="H6" s="8" t="inlineStr">
         <is>
           <t>需</t>
@@ -1597,18 +1594,18 @@
           <t>{"buyer_phone":17777777781,"seller_phone":17777777776,"买家":1000656,"卖家":1000650,"平台":10}</t>
         </is>
       </c>
-      <c r="D7" s="30" t="n"/>
+      <c r="D7" s="29" t="n"/>
       <c r="E7" s="8" t="inlineStr">
         <is>
           <t>{"buyer_phone":"17777777781","seller_phone":17777777776,"disanfang_phone":13724765586,"买家":1000656,"出钱方":1000166,"卖家":1000650,"平台":10}</t>
         </is>
       </c>
-      <c r="F7" s="34" t="inlineStr">
+      <c r="F7" s="33" t="inlineStr">
         <is>
           <t>{"buyer_phone":17777777781,"seller_phone":17777777783,"bangding_phone":17777777776,"买家":1000656,"卖家":1000664,"平台":10}</t>
         </is>
       </c>
-      <c r="G7" s="30" t="n"/>
+      <c r="G7" s="29" t="n"/>
       <c r="H7" s="8" t="inlineStr">
         <is>
           <t>需</t>
@@ -1631,7 +1628,7 @@
       <c r="Q7" s="0" t="n"/>
     </row>
     <row r="8" ht="96" customHeight="1" s="23">
-      <c r="A8" s="35" t="inlineStr">
+      <c r="A8" s="34" t="inlineStr">
         <is>
           <t>proportion</t>
         </is>
@@ -1646,14 +1643,14 @@
           <t>{'省分佣比例': 0.8, '市分佣比例': 0.7, '区分佣比例': 0.6,'个人分佣比例': 0.15}</t>
         </is>
       </c>
-      <c r="D8" s="30" t="n"/>
+      <c r="D8" s="29" t="n"/>
       <c r="E8" s="8" t="inlineStr">
         <is>
           <t>{'储备池分佣': [{'个人分佣比例': 0.15}, {'省分佣比例': 0.8, '市分佣比例': 0.7, '区分佣比例': 0.6}], '支付服务费分佣': [{'个人分佣比例': None}, {'市分佣比例': 0.7, '区分佣比例': 0.6, '省分佣比例': 0.8}]}</t>
         </is>
       </c>
-      <c r="F8" s="29" t="n"/>
-      <c r="G8" s="30" t="n"/>
+      <c r="F8" s="28" t="n"/>
+      <c r="G8" s="29" t="n"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
           <t>自动写入</t>
@@ -1666,7 +1663,7 @@
       </c>
     </row>
     <row r="9" ht="93" customHeight="1" s="23">
-      <c r="A9" s="35" t="inlineStr">
+      <c r="A9" s="34" t="inlineStr">
         <is>
           <t>superior</t>
         </is>
@@ -1681,14 +1678,14 @@
           <t>[{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
         </is>
       </c>
-      <c r="D9" s="30" t="n"/>
+      <c r="D9" s="29" t="n"/>
       <c r="E9" s="8" t="inlineStr">
         <is>
           <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': None}, {'市代理商': 103554, '区代理商': 1000029, '省代理商': 1000246}]}</t>
         </is>
       </c>
-      <c r="F9" s="29" t="n"/>
-      <c r="G9" s="30" t="n"/>
+      <c r="F9" s="28" t="n"/>
+      <c r="G9" s="29" t="n"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
           <t>自动写入</t>
@@ -1701,7 +1698,7 @@
       </c>
     </row>
     <row r="10" ht="23" customHeight="1" s="23">
-      <c r="A10" s="35" t="inlineStr">
+      <c r="A10" s="34" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -1716,10 +1713,10 @@
           <t>EC-2020051913425900011936</t>
         </is>
       </c>
-      <c r="D10" s="29" t="n"/>
-      <c r="E10" s="29" t="n"/>
-      <c r="F10" s="29" t="n"/>
-      <c r="G10" s="30" t="n"/>
+      <c r="D10" s="28" t="n"/>
+      <c r="E10" s="28" t="n"/>
+      <c r="F10" s="28" t="n"/>
+      <c r="G10" s="29" t="n"/>
       <c r="H10" s="8" t="inlineStr">
         <is>
           <t>自动写入</t>
@@ -1732,7 +1729,7 @@
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" s="23">
-      <c r="A11" s="35" t="inlineStr">
+      <c r="A11" s="34" t="inlineStr">
         <is>
           <t>reserve_fund</t>
         </is>
@@ -1747,10 +1744,10 @@
           <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
         </is>
       </c>
-      <c r="D11" s="29" t="n"/>
-      <c r="E11" s="29" t="n"/>
-      <c r="F11" s="29" t="n"/>
-      <c r="G11" s="30" t="n"/>
+      <c r="D11" s="28" t="n"/>
+      <c r="E11" s="28" t="n"/>
+      <c r="F11" s="28" t="n"/>
+      <c r="G11" s="29" t="n"/>
       <c r="H11" s="8" t="inlineStr">
         <is>
           <t>自动写入</t>
@@ -1763,7 +1760,7 @@
       </c>
     </row>
     <row r="12" ht="85" customHeight="1" s="23">
-      <c r="A12" s="35" t="inlineStr">
+      <c r="A12" s="34" t="inlineStr">
         <is>
           <t>bind_relationship_data</t>
         </is>
@@ -1778,14 +1775,14 @@
           <t>{'自由销售': 1000745, 'TCO': 1000757, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
         </is>
       </c>
-      <c r="D12" s="30" t="n"/>
+      <c r="D12" s="29" t="n"/>
       <c r="E12" s="8" t="inlineStr">
         <is>
           <t>{'储备金二级分佣对象': {'自由销售': 1000745, 'TCO': 1000757, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'自由销售': 1000763, 'TCO': 1000760, '销售': None, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
         </is>
       </c>
-      <c r="F12" s="29" t="n"/>
-      <c r="G12" s="30" t="n"/>
+      <c r="F12" s="28" t="n"/>
+      <c r="G12" s="29" t="n"/>
       <c r="H12" s="8" t="inlineStr">
         <is>
           <t>自动写入</t>
@@ -1798,7 +1795,7 @@
       </c>
     </row>
     <row r="13" ht="84" customHeight="1" s="23">
-      <c r="A13" s="35" t="inlineStr">
+      <c r="A13" s="34" t="inlineStr">
         <is>
           <t>second_payagent_ratio</t>
         </is>
@@ -1813,10 +1810,10 @@
           <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.20'), 'free_sales_ratio': Decimal('0.50')}, '支付服务费二级分佣比例': None}</t>
         </is>
       </c>
-      <c r="D13" s="29" t="n"/>
-      <c r="E13" s="29" t="n"/>
-      <c r="F13" s="29" t="n"/>
-      <c r="G13" s="30" t="n"/>
+      <c r="D13" s="28" t="n"/>
+      <c r="E13" s="28" t="n"/>
+      <c r="F13" s="28" t="n"/>
+      <c r="G13" s="29" t="n"/>
       <c r="H13" s="8" t="inlineStr">
         <is>
           <t>自动写入</t>
@@ -1829,7 +1826,7 @@
       </c>
     </row>
     <row r="14" ht="81" customHeight="1" s="23">
-      <c r="A14" s="35" t="inlineStr">
+      <c r="A14" s="34" t="inlineStr">
         <is>
           <t>actual_userid</t>
         </is>
@@ -1844,10 +1841,10 @@
           <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.30'), Decimal('10.00'), Decimal('0.10'), Decimal('0.30'), Decimal('-10.00'), Decimal('10.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('27.00'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-0.10'), Decimal('0.02'), Decimal('0.05'), Decimal('0.01'), Decimal('0.01'), Decimal('0.01')]</t>
         </is>
       </c>
-      <c r="D14" s="29" t="n"/>
-      <c r="E14" s="29" t="n"/>
-      <c r="F14" s="29" t="n"/>
-      <c r="G14" s="30" t="n"/>
+      <c r="D14" s="28" t="n"/>
+      <c r="E14" s="28" t="n"/>
+      <c r="F14" s="28" t="n"/>
+      <c r="G14" s="29" t="n"/>
       <c r="H14" s="8" t="inlineStr">
         <is>
           <t>自动写入</t>
@@ -1860,7 +1857,7 @@
       </c>
     </row>
     <row r="15" ht="63" customHeight="1" s="23">
-      <c r="A15" s="35" t="inlineStr">
+      <c r="A15" s="34" t="inlineStr">
         <is>
           <t>actual_changes</t>
         </is>
@@ -1875,10 +1872,10 @@
           <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.30'), Decimal('10.00'), Decimal('0.10'), Decimal('0.30'), Decimal('-10.00'), Decimal('10.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('27.00'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-0.10'), Decimal('0.02'), Decimal('0.05'), Decimal('0.01'), Decimal('0.01'), Decimal('0.01')]</t>
         </is>
       </c>
-      <c r="D15" s="29" t="n"/>
-      <c r="E15" s="29" t="n"/>
-      <c r="F15" s="29" t="n"/>
-      <c r="G15" s="30" t="n"/>
+      <c r="D15" s="28" t="n"/>
+      <c r="E15" s="28" t="n"/>
+      <c r="F15" s="28" t="n"/>
+      <c r="G15" s="29" t="n"/>
       <c r="H15" s="8" t="inlineStr">
         <is>
           <t>自动写入</t>
@@ -1891,7 +1888,7 @@
       </c>
     </row>
     <row r="16" ht="61" customHeight="1" s="23">
-      <c r="A16" s="35" t="inlineStr">
+      <c r="A16" s="34" t="inlineStr">
         <is>
           <t>expected_result</t>
         </is>
@@ -1906,10 +1903,10 @@
           <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('999995641.68'), Decimal('999995651.68'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-0.10'), Decimal('999995641.58'), Decimal('999995641.68'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-0.30'), Decimal('119738.85'), Decimal('119739.15'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101941003.93'), Decimal('101940993.93'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101941004.03'), Decimal('101941003.93'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13860292.52'), Decimal('13860292.22'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101940994.03'), Decimal('101941004.03'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('10.00'), Decimal('6652.05'), Decimal('6642.05'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('59082.07'), Decimal('59067.07'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('24158.48'), Decimal('24131.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('24585.95'), Decimal('24581.45'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('7271.38'), Decimal('7266.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316036320.62'), Decimal('999999316036311.62'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('101940993.93'), Decimal('101940994.03'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.02'), Decimal('6652.07'), Decimal('6652.05'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.05'), Decimal('529.21'), Decimal('529.16'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.01'), Decimal('313.58'), Decimal('313.57'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.01'), Decimal('805.35'), Decimal('805.34'), '易贝购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.01'), Decimal('101940993.94'), Decimal('101940993.93'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
-      <c r="D16" s="29" t="n"/>
-      <c r="E16" s="29" t="n"/>
-      <c r="F16" s="29" t="n"/>
-      <c r="G16" s="30" t="n"/>
+      <c r="D16" s="28" t="n"/>
+      <c r="E16" s="28" t="n"/>
+      <c r="F16" s="28" t="n"/>
+      <c r="G16" s="29" t="n"/>
       <c r="H16" s="8" t="inlineStr">
         <is>
           <t>自动写入</t>
@@ -1922,7 +1919,7 @@
       </c>
     </row>
     <row r="17" ht="63" customHeight="1" s="23">
-      <c r="A17" s="35" t="inlineStr">
+      <c r="A17" s="34" t="inlineStr">
         <is>
           <t>actual_result</t>
         </is>
@@ -1937,10 +1934,10 @@
           <t>((1000656, 2, 3, Decimal('-10.00'), Decimal('999995974.98'), Decimal('999995984.98'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-0.10'), Decimal('999995974.88'), Decimal('999995974.98'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-0.30'), Decimal('111248.75'), Decimal('111249.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('101942363.48'), Decimal('101942353.48'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('101942363.58'), Decimal('101942363.48'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('13860299.45'), Decimal('13860299.15'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('101942353.58'), Decimal('101942363.58'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('10.00'), Decimal('6331.63'), Decimal('6321.63'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('58637.47'), Decimal('58622.47'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('20525.84'), Decimal('20498.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('23894.31'), Decimal('23889.81'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('6579.74'), Decimal('6575.24'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316030654.32'), Decimal('999999316030645.32'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('101942353.48'), Decimal('101942353.58'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.02'), Decimal('6331.65'), Decimal('6331.63'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.05'), Decimal('457.44'), Decimal('457.39'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.01'), Decimal('313.21'), Decimal('313.20'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.01'), Decimal('804.98'), Decimal('804.97'), '易贝购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.01'), Decimal('101942353.49'), Decimal('101942353.48'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
-      <c r="D17" s="29" t="n"/>
-      <c r="E17" s="29" t="n"/>
-      <c r="F17" s="29" t="n"/>
-      <c r="G17" s="30" t="n"/>
+      <c r="D17" s="28" t="n"/>
+      <c r="E17" s="28" t="n"/>
+      <c r="F17" s="28" t="n"/>
+      <c r="G17" s="29" t="n"/>
       <c r="H17" s="8" t="inlineStr">
         <is>
           <t>自动写入</t>
@@ -1953,7 +1950,7 @@
       </c>
     </row>
     <row r="18" ht="33" customHeight="1" s="23">
-      <c r="A18" s="35" t="inlineStr">
+      <c r="A18" s="34" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
@@ -1968,10 +1965,10 @@
           <t>Pass</t>
         </is>
       </c>
-      <c r="D18" s="29" t="n"/>
-      <c r="E18" s="29" t="n"/>
-      <c r="F18" s="29" t="n"/>
-      <c r="G18" s="30" t="n"/>
+      <c r="D18" s="28" t="n"/>
+      <c r="E18" s="28" t="n"/>
+      <c r="F18" s="28" t="n"/>
+      <c r="G18" s="29" t="n"/>
       <c r="H18" s="8" t="inlineStr">
         <is>
           <t>自动写入</t>
@@ -1984,7 +1981,7 @@
       </c>
     </row>
     <row r="19" ht="38" customHeight="1" s="23">
-      <c r="A19" s="35" t="inlineStr">
+      <c r="A19" s="34" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
@@ -1999,10 +1996,10 @@
           <t>None</t>
         </is>
       </c>
-      <c r="D19" s="29" t="n"/>
-      <c r="E19" s="29" t="n"/>
-      <c r="F19" s="29" t="n"/>
-      <c r="G19" s="30" t="n"/>
+      <c r="D19" s="28" t="n"/>
+      <c r="E19" s="28" t="n"/>
+      <c r="F19" s="28" t="n"/>
+      <c r="G19" s="29" t="n"/>
       <c r="H19" s="8" t="inlineStr">
         <is>
           <t>自动写入</t>
@@ -2049,10 +2046,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5"/>
@@ -2221,7 +2218,7 @@
       </c>
       <c r="G2" s="13" t="inlineStr">
         <is>
-          <t>普通焕商本地生活</t>
+          <t>普通焕商实物商品</t>
         </is>
       </c>
       <c r="H2" s="13" t="inlineStr">
@@ -2236,17 +2233,17 @@
       </c>
       <c r="J2" s="13" t="inlineStr">
         <is>
-          <t>{'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}</t>
+          <t>{'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}</t>
         </is>
       </c>
       <c r="K2" s="13" t="inlineStr">
         <is>
-          <t>[{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
+          <t>[{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
         </is>
       </c>
       <c r="L2" s="13" t="inlineStr">
         <is>
-          <t>EC-2020102915143500000409</t>
+          <t>EC-2020103014502600000508</t>
         </is>
       </c>
       <c r="M2" s="13" t="inlineStr">
@@ -2256,7 +2253,7 @@
       </c>
       <c r="N2" s="13" t="inlineStr">
         <is>
-          <t>{'买家上级的上级id': None, '买家上级的上级身份': None}</t>
+          <t>{'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
         </is>
       </c>
       <c r="O2" s="13" t="inlineStr">
@@ -2271,17 +2268,17 @@
       </c>
       <c r="Q2" s="13" t="inlineStr">
         <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('27.00'), Decimal('4.50'), Decimal('3.15'), Decimal('1.35'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.45'), Decimal('0.10'), Decimal('0.07'), Decimal('0.03'), Decimal('0.20')]</t>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-2.00'), Decimal('100.00'), Decimal('1.00'), Decimal('2.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('27.00'), Decimal('4.50'), Decimal('3.15'), Decimal('1.35'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.45'), Decimal('0.10'), Decimal('0.07'), Decimal('0.03'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R2" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999978887.47'), Decimal('999978987.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999978886.47'), Decimal('999978887.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('171625.05'), Decimal('171628.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942025.08'), Decimal('101941925.08'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942026.08'), Decimal('101942025.08'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962852.82'), Decimal('13962849.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941926.08'), Decimal('101942026.08'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('30055.38'), Decimal('29955.38'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68599.73'), Decimal('68584.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('117408.84'), Decimal('117381.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54054.34'), Decimal('54049.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19709.16'), Decimal('19706.01'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6152.70'), Decimal('6151.35'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316173994.91'), Decimal('999999316173985.91'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941925.08'), Decimal('101941926.08'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('30055.53'), Decimal('30055.38'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102261.94'), Decimal('102261.49'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('513.93'), Decimal('513.83'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('866.14'), Decimal('866.07'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.28'), Decimal('17.25'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941925.28'), Decimal('101941925.08'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999999089.99'), Decimal('999999189.99'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999999088.99'), Decimal('999999089.99'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-2.00'), Decimal('100001381.98'), Decimal('100001383.98'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323691.04'), Decimal('112323591.04'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323692.04'), Decimal('112323691.04'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963168.51'), Decimal('19963166.51'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323592.04'), Decimal('112323692.04'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1000.75'), Decimal('900.75'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69158.23'), Decimal('69143.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('118921.62'), Decimal('118894.62'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54316.04'), Decimal('54311.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19914.01'), Decimal('19910.86'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6337.17'), Decimal('6335.82'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935065.88'), Decimal('999999224935056.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323591.04'), Decimal('112323592.04'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('1000.90'), Decimal('1000.75'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102671.69'), Decimal('102671.24'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('515.95'), Decimal('515.85'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('867.59'), Decimal('867.52'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.85'), Decimal('17.82'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323591.24'), Decimal('112323591.04'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S2" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999978887.47'), Decimal('999978987.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999978886.47'), Decimal('999978887.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('171625.05'), Decimal('171628.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942025.08'), Decimal('101941925.08'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942026.08'), Decimal('101942025.08'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962852.82'), Decimal('13962849.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941926.08'), Decimal('101942026.08'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('30055.38'), Decimal('29955.38'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68599.73'), Decimal('68584.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('117408.84'), Decimal('117381.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54054.34'), Decimal('54049.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19709.16'), Decimal('19706.01'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6152.70'), Decimal('6151.35'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316173994.91'), Decimal('999999316173985.91'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941925.08'), Decimal('101941926.08'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('30055.53'), Decimal('30055.38'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102261.94'), Decimal('102261.49'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('513.93'), Decimal('513.83'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('866.14'), Decimal('866.07'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.28'), Decimal('17.25'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941925.28'), Decimal('101941925.08'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999999089.99'), Decimal('999999189.99'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999999088.99'), Decimal('999999089.99'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-2.00'), Decimal('100001381.98'), Decimal('100001383.98'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323691.04'), Decimal('112323591.04'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323692.04'), Decimal('112323691.04'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963168.51'), Decimal('19963166.51'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323592.04'), Decimal('112323692.04'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1000.75'), Decimal('900.75'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69158.23'), Decimal('69143.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('118921.62'), Decimal('118894.62'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54316.04'), Decimal('54311.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19914.01'), Decimal('19910.86'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6337.17'), Decimal('6335.82'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935065.88'), Decimal('999999224935056.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323591.04'), Decimal('112323592.04'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('1000.90'), Decimal('1000.75'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102671.69'), Decimal('102671.24'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('515.95'), Decimal('515.85'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('867.59'), Decimal('867.52'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.85'), Decimal('17.82'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323591.24'), Decimal('112323591.04'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T2" s="13" t="inlineStr">
@@ -2329,7 +2326,7 @@
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
-          <t>普通焕商本地生活</t>
+          <t>普通焕商实物商品</t>
         </is>
       </c>
       <c r="H3" s="13" t="inlineStr">
@@ -2344,7 +2341,7 @@
       </c>
       <c r="J3" s="13" t="inlineStr">
         <is>
-          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}</t>
+          <t>{'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}</t>
         </is>
       </c>
       <c r="K3" s="13" t="inlineStr">
@@ -2354,7 +2351,7 @@
       </c>
       <c r="L3" s="13" t="inlineStr">
         <is>
-          <t>EC-2020091114053400004153</t>
+          <t>EC-2020103014503400000512</t>
         </is>
       </c>
       <c r="M3" s="13" t="inlineStr">
@@ -2384,12 +2381,12 @@
       </c>
       <c r="R3" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989266.00'), Decimal('1989366.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942025.28'), Decimal('101941925.28'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941925.28'), Decimal('101942025.28'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('30155.53'), Decimal('30055.53'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68614.73'), Decimal('68599.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('117459.84'), Decimal('117432.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54062.84'), Decimal('54058.34'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19715.11'), Decimal('19711.96'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6155.25'), Decimal('6153.90'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316174071.91'), Decimal('999999316174062.91'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1988656.00'), Decimal('1988756.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('112323691.24'), Decimal('112323591.24'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('112323591.24'), Decimal('112323691.24'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1100.90'), Decimal('1000.90'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69173.23'), Decimal('69158.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('118972.62'), Decimal('118945.62'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54324.54'), Decimal('54320.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19919.96'), Decimal('19916.81'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6339.72'), Decimal('6338.37'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935142.88'), Decimal('999999224935133.88'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
         </is>
       </c>
       <c r="S3" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989266.00'), Decimal('1989366.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942025.28'), Decimal('101941925.28'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941925.28'), Decimal('101942025.28'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('30155.53'), Decimal('30055.53'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68614.73'), Decimal('68599.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('117459.84'), Decimal('117432.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54062.84'), Decimal('54058.34'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19715.11'), Decimal('19711.96'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6155.25'), Decimal('6153.90'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316174071.91'), Decimal('999999316174062.91'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1988656.00'), Decimal('1988756.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('112323691.24'), Decimal('112323591.24'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('112323591.24'), Decimal('112323691.24'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1100.90'), Decimal('1000.90'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69173.23'), Decimal('69158.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('118972.62'), Decimal('118945.62'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54324.54'), Decimal('54320.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19919.96'), Decimal('19916.81'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6339.72'), Decimal('6338.37'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935142.88'), Decimal('999999224935133.88'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
         </is>
       </c>
       <c r="T3" s="13" t="inlineStr">
@@ -2437,7 +2434,7 @@
       </c>
       <c r="G4" s="13" t="inlineStr">
         <is>
-          <t>普通焕商本地生活</t>
+          <t>普通焕商实物商品</t>
         </is>
       </c>
       <c r="H4" s="13" t="inlineStr">
@@ -2452,17 +2449,17 @@
       </c>
       <c r="J4" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': Decimal('0.50')}}</t>
         </is>
       </c>
       <c r="K4" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '区代理商': 1000029, '省代理商': 1000246}]}</t>
         </is>
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>EC-2020091114054200004157</t>
+          <t>EC-2020103014504400000516</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -2477,27 +2474,27 @@
       </c>
       <c r="O4" s="13" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000029, 'sales_ratio': Decimal('0.40'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.60')}}</t>
         </is>
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000650, 1000656, 1000650, 1000648, 1000794, 1000647, 1000646, 10, 10, 1001308, 103554, 1000246, 10]</t>
+          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000650, 1000656, 1000650, 1000648, 1000794, 1000647, 1000646, 10, 10, 1001308, 1000029, 103554, 1000246, 10]</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
         <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-2.00'), Decimal('100.00'), Decimal('1.00'), Decimal('2.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.35'), Decimal('0.20'), Decimal('0.10'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R4" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895171.78'), Decimal('1086895271.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895170.78'), Decimal('1086895171.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698291.03'), Decimal('9999698294.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942025.28'), Decimal('101941925.28'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942026.28'), Decimal('101942025.28'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962855.82'), Decimal('13962852.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941926.28'), Decimal('101942026.28'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('30255.53'), Decimal('30155.53'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68629.73'), Decimal('68614.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('117495.54'), Decimal('117476.64'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6170.55'), Decimal('6162.45'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54071.34'), Decimal('54066.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19723.61'), Decimal('19719.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316174148.91'), Decimal('999999316174139.91'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941925.28'), Decimal('101941926.28'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('22.42'), Decimal('22.27'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19113.08'), Decimal('19112.53'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.71'), Decimal('999897982681.61'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941925.48'), Decimal('101941925.28'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894788.80'), Decimal('884894888.80'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894787.80'), Decimal('884894788.80'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698279.09'), Decimal('9993698281.09'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323691.24'), Decimal('112323591.24'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323692.24'), Decimal('112323691.24'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963170.51'), Decimal('19963168.51'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323592.24'), Decimal('112323692.24'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1200.90'), Decimal('1100.90'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69188.23'), Decimal('69173.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119008.32'), Decimal('118989.42'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6355.02'), Decimal('6346.92'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54333.04'), Decimal('54328.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19928.46'), Decimal('19923.96'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935219.88'), Decimal('999999224935210.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323591.24'), Decimal('112323592.24'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.15'), Decimal('100.00'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123452.41'), Decimal('123452.06'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119127.01'), Decimal('1119126.81'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182687.75'), Decimal('999898182687.65'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323591.44'), Decimal('112323591.24'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895171.78'), Decimal('1086895271.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895170.78'), Decimal('1086895171.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698291.03'), Decimal('9999698294.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942025.28'), Decimal('101941925.28'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942026.28'), Decimal('101942025.28'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962855.82'), Decimal('13962852.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941926.28'), Decimal('101942026.28'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('30255.53'), Decimal('30155.53'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68629.73'), Decimal('68614.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('117495.54'), Decimal('117476.64'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6170.55'), Decimal('6162.45'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54071.34'), Decimal('54066.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19723.61'), Decimal('19719.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316174148.91'), Decimal('999999316174139.91'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941925.28'), Decimal('101941926.28'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('22.42'), Decimal('22.27'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19113.08'), Decimal('19112.53'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.71'), Decimal('999897982681.61'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941925.48'), Decimal('101941925.28'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894788.80'), Decimal('884894888.80'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894787.80'), Decimal('884894788.80'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698279.09'), Decimal('9993698281.09'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323691.24'), Decimal('112323591.24'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323692.24'), Decimal('112323691.24'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963170.51'), Decimal('19963168.51'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323592.24'), Decimal('112323692.24'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1200.90'), Decimal('1100.90'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69188.23'), Decimal('69173.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119008.32'), Decimal('118989.42'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6355.02'), Decimal('6346.92'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54333.04'), Decimal('54328.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19928.46'), Decimal('19923.96'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935219.88'), Decimal('999999224935210.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323591.24'), Decimal('112323592.24'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.15'), Decimal('100.00'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123452.41'), Decimal('123452.06'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119127.01'), Decimal('1119126.81'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182687.75'), Decimal('999898182687.65'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323591.44'), Decimal('112323591.24'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -2545,7 +2542,7 @@
       </c>
       <c r="G5" s="13" t="inlineStr">
         <is>
-          <t>普通焕商本地生活</t>
+          <t>普通焕商实物商品</t>
         </is>
       </c>
       <c r="H5" s="13" t="inlineStr">
@@ -2560,17 +2557,17 @@
       </c>
       <c r="J5" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': Decimal('0.50')}}</t>
         </is>
       </c>
       <c r="K5" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '区代理商': 1000029, '省代理商': 1000246}]}</t>
         </is>
       </c>
       <c r="L5" s="13" t="inlineStr">
         <is>
-          <t>EC-2020091114055100004161</t>
+          <t>EC-2020103014505300000522</t>
         </is>
       </c>
       <c r="M5" s="13" t="inlineStr">
@@ -2585,27 +2582,27 @@
       </c>
       <c r="O5" s="13" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
+          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000029, 'sales_ratio': Decimal('0.40'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.60')}}</t>
         </is>
       </c>
       <c r="P5" s="13" t="inlineStr">
         <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000650, 1000656, 1000650, 1000648, 1000794, 1000647, 1000646, 10, 10, 1001308, 103554, 1000246, 10]</t>
+          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000650, 1000656, 1000650, 1000648, 1000794, 1000647, 1000646, 10, 10, 1001308, 1000029, 103554, 1000246, 10]</t>
         </is>
       </c>
       <c r="Q5" s="13" t="inlineStr">
         <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
+          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-2.00'), Decimal('100.00'), Decimal('1.00'), Decimal('2.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.35'), Decimal('0.20'), Decimal('0.10'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R5" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895070.78'), Decimal('1086895170.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895069.78'), Decimal('1086895070.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698288.03'), Decimal('9999698291.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942025.48'), Decimal('101941925.48'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942026.48'), Decimal('101942025.48'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962858.82'), Decimal('13962855.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941926.48'), Decimal('101942026.48'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('30355.53'), Decimal('30255.53'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68644.73'), Decimal('68629.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('117531.24'), Decimal('117512.34'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6185.85'), Decimal('6177.75'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54079.84'), Decimal('54075.34'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19732.11'), Decimal('19727.61'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316174225.91'), Decimal('999999316174216.91'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941925.48'), Decimal('101941926.48'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('22.57'), Decimal('22.42'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19113.63'), Decimal('19113.08'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.81'), Decimal('999897982681.71'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941925.68'), Decimal('101941925.48'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894687.80'), Decimal('884894787.80'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894686.80'), Decimal('884894687.80'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698277.09'), Decimal('9993698279.09'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323691.44'), Decimal('112323591.44'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323692.44'), Decimal('112323691.44'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963172.51'), Decimal('19963170.51'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323592.44'), Decimal('112323692.44'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1300.90'), Decimal('1200.90'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69203.23'), Decimal('69188.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119044.02'), Decimal('119025.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6370.32'), Decimal('6362.22'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54341.54'), Decimal('54337.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19936.96'), Decimal('19932.46'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935296.88'), Decimal('999999224935287.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323591.44'), Decimal('112323592.44'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.30'), Decimal('100.15'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123452.76'), Decimal('123452.41'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119127.21'), Decimal('1119127.01'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182687.85'), Decimal('999898182687.75'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323591.64'), Decimal('112323591.44'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="S5" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086895070.78'), Decimal('1086895170.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086895069.78'), Decimal('1086895070.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698288.03'), Decimal('9999698291.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942025.48'), Decimal('101941925.48'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942026.48'), Decimal('101942025.48'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962858.82'), Decimal('13962855.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941926.48'), Decimal('101942026.48'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('30355.53'), Decimal('30255.53'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68644.73'), Decimal('68629.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('117531.24'), Decimal('117512.34'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6185.85'), Decimal('6177.75'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54079.84'), Decimal('54075.34'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19732.11'), Decimal('19727.61'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316174225.91'), Decimal('999999316174216.91'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941925.48'), Decimal('101941926.48'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('22.57'), Decimal('22.42'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19113.63'), Decimal('19113.08'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.81'), Decimal('999897982681.71'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941925.68'), Decimal('101941925.48'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894687.80'), Decimal('884894787.80'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894686.80'), Decimal('884894687.80'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698277.09'), Decimal('9993698279.09'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323691.44'), Decimal('112323591.44'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323692.44'), Decimal('112323691.44'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963172.51'), Decimal('19963170.51'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323592.44'), Decimal('112323692.44'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1300.90'), Decimal('1200.90'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69203.23'), Decimal('69188.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119044.02'), Decimal('119025.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6370.32'), Decimal('6362.22'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54341.54'), Decimal('54337.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19936.96'), Decimal('19932.46'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935296.88'), Decimal('999999224935287.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323591.44'), Decimal('112323592.44'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.30'), Decimal('100.15'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123452.76'), Decimal('123452.41'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119127.21'), Decimal('1119127.01'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182687.85'), Decimal('999898182687.75'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323591.64'), Decimal('112323591.44'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="T5" s="13" t="inlineStr">
@@ -2653,7 +2650,7 @@
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
-          <t>普通焕商本地生活</t>
+          <t>普通焕商实物商品</t>
         </is>
       </c>
       <c r="H6" s="13" t="inlineStr">
@@ -2668,17 +2665,17 @@
       </c>
       <c r="J6" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15'), '省分佣比例': Decimal('0.80')}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15'), '省分佣比例': Decimal('0.80')}}</t>
         </is>
       </c>
       <c r="K6" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001259}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001259}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]}</t>
         </is>
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>EC-2020102916054800000427</t>
+          <t>EC-2020103014510300000526</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -2688,7 +2685,7 @@
       </c>
       <c r="N6" s="13" t="inlineStr">
         <is>
-          <t>{'储备金二级分佣对象': {'买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'买家上级的上级id': None, '买家上级的上级身份': None}}</t>
+          <t>{'储备金二级分佣对象': {'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
         </is>
       </c>
       <c r="O6" s="13" t="inlineStr">
@@ -2708,22 +2705,30 @@
       </c>
       <c r="R6" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999884745.05'), Decimal('999884845.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999316174389.91'), Decimal('999999316174293.91'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999316174393.91'), Decimal('999999316174389.91'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999316174297.91'), Decimal('999999316174393.91'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('68744.73'), Decimal('68644.73'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('68740.73'), Decimal('68744.73'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68755.73'), Decimal('68740.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('117566.94'), Decimal('117548.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6201.15'), Decimal('6193.05'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54088.34'), Decimal('54083.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19740.61'), Decimal('19736.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316174306.91'), Decimal('999999316174297.91'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999316174302.91'), Decimal('999999316174306.91'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.60'), Decimal('106677.00'), Decimal('106676.40'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('1.26'), Decimal('117568.20'), Decimal('117566.94'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.54'), Decimal('6201.69'), Decimal('6201.15'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.40'), Decimal('54088.74'), Decimal('54088.34'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('19741.01'), Decimal('19740.61'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999316174303.71'), Decimal('999999316174302.91'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('989881242.05'), Decimal('989881342.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('93.00'), Decimal('999999224935457.88'), Decimal('999999224935364.88'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('7.00'), Decimal('999999224935467.88'), Decimal('999999224935460.88'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-93.00'), Decimal('999999224935371.88'), Decimal('999999224935464.88'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('69303.23'), Decimal('69203.23'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-7.00'), Decimal('69296.23'), Decimal('69303.23'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69314.23'), Decimal('69299.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119079.72'), Decimal('119060.82'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6385.62'), Decimal('6377.52'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54350.04'), Decimal('54345.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19945.46'), Decimal('19940.96'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935377.88'), Decimal('999999224935368.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-7.00'), Decimal('999999224935370.88'), Decimal('999999224935377.88'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('1.05'), Decimal('106726.25'), Decimal('106725.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('2.21'), Decimal('119081.93'), Decimal('119079.72'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.94'), Decimal('6386.56'), Decimal('6385.62'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.70'), Decimal('54350.74'), Decimal('54350.04'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.70'), Decimal('19946.16'), Decimal('19945.46'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('1.40'), Decimal('999999224935375.28'), Decimal('999999224935373.88'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999884745.05'), Decimal('999884845.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999316174389.91'), Decimal('999999316174293.91'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999316174393.91'), Decimal('999999316174389.91'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999316174297.91'), Decimal('999999316174393.91'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('68744.73'), Decimal('68644.73'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('68740.73'), Decimal('68744.73'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68755.73'), Decimal('68740.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('117566.94'), Decimal('117548.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6201.15'), Decimal('6193.05'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54088.34'), Decimal('54083.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19740.61'), Decimal('19736.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316174306.91'), Decimal('999999316174297.91'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999316174302.91'), Decimal('999999316174306.91'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.60'), Decimal('106677.00'), Decimal('106676.40'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('1.26'), Decimal('117568.20'), Decimal('117566.94'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.54'), Decimal('6201.69'), Decimal('6201.15'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.40'), Decimal('54088.74'), Decimal('54088.34'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('19741.01'), Decimal('19740.61'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999316174303.71'), Decimal('999999316174302.91'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('989881242.05'), Decimal('989881342.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999224935460.88'), Decimal('999999224935364.88'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999224935464.88'), Decimal('999999224935460.88'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999224935368.88'), Decimal('999999224935464.88'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('69303.23'), Decimal('69203.23'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('69299.23'), Decimal('69303.23'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69314.23'), Decimal('69299.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119079.72'), Decimal('119060.82'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6385.62'), Decimal('6377.52'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54350.04'), Decimal('54345.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19945.46'), Decimal('19940.96'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935377.88'), Decimal('999999224935368.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999224935373.88'), Decimal('999999224935377.88'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.60'), Decimal('106725.80'), Decimal('106725.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('1.26'), Decimal('119080.98'), Decimal('119079.72'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.54'), Decimal('6386.16'), Decimal('6385.62'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.40'), Decimal('54350.44'), Decimal('54350.04'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('19945.86'), Decimal('19945.46'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999224935374.68'), Decimal('999999224935373.88'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>用例错误！错误原因是：第2行，assert (10, 2, 3, De...364.88'), ...) == (10, 2, 3, Dec...364.88'), ...)
+  At index 3 diff: Decimal('93.00') != Decimal('96.00')
+  Full diff:
+  (10,
+  2,
+  3,
+  -  Decimal('93.00'),
+  ?            ^...
+  ...Full output truncated (10 lines hidden), use '-vv' to show：</t>
         </is>
       </c>
     </row>
@@ -2774,62 +2779,18 @@
           <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
         </is>
       </c>
-      <c r="J7" s="13" t="inlineStr">
-        <is>
-          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}</t>
-        </is>
-      </c>
-      <c r="K7" s="13" t="inlineStr">
-        <is>
-          <t>[{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
-        </is>
-      </c>
-      <c r="L7" s="13" t="inlineStr">
-        <is>
-          <t>EC-2020091114060800004167</t>
-        </is>
-      </c>
+      <c r="J7" s="13" t="n"/>
+      <c r="K7" s="13" t="n"/>
+      <c r="L7" s="13" t="n"/>
       <c r="M7" s="13" t="n"/>
-      <c r="N7" s="13" t="inlineStr">
-        <is>
-          <t>{'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
-        </is>
-      </c>
-      <c r="O7" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
-        </is>
-      </c>
-      <c r="P7" s="13" t="inlineStr">
-        <is>
-          <t>[1000656, 1000656, 1000656, 10, 10, 10, 10, 1000648, 10, 1000648, 1000647, 1000646, 1000794, 10]</t>
-        </is>
-      </c>
-      <c r="Q7" s="13" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-1.00'), Decimal('0.60'), Decimal('0.10'), Decimal('0.07'), Decimal('0.03'), Decimal('0.20')]</t>
-        </is>
-      </c>
-      <c r="R7" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999978786.47'), Decimal('999978886.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999978785.47'), Decimal('999978786.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('172022.05'), Decimal('172025.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942025.68'), Decimal('101941925.68'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942026.68'), Decimal('101942025.68'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962861.82'), Decimal('13962858.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941926.68'), Decimal('101942026.68'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102361.94'), Decimal('102261.94'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941925.68'), Decimal('101941926.68'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000648, 2, 2, Decimal('0.60'), Decimal('102362.54'), Decimal('102361.94'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('514.03'), Decimal('513.93'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('866.21'), Decimal('866.14'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.31'), Decimal('17.28'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941925.88'), Decimal('101941925.68'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="S7" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999978786.47'), Decimal('999978886.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999978785.47'), Decimal('999978786.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('172022.05'), Decimal('172025.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942025.68'), Decimal('101941925.68'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942026.68'), Decimal('101942025.68'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962861.82'), Decimal('13962858.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941926.68'), Decimal('101942026.68'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102361.94'), Decimal('102261.94'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941925.68'), Decimal('101941926.68'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000648, 2, 2, Decimal('0.60'), Decimal('102362.54'), Decimal('102361.94'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('514.03'), Decimal('513.93'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('866.21'), Decimal('866.14'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.31'), Decimal('17.28'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941925.88'), Decimal('101941925.68'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="T7" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U7" s="13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="N7" s="13" t="n"/>
+      <c r="O7" s="13" t="n"/>
+      <c r="P7" s="13" t="n"/>
+      <c r="Q7" s="13" t="n"/>
+      <c r="R7" s="13" t="n"/>
+      <c r="S7" s="13" t="n"/>
+      <c r="T7" s="13" t="n"/>
+      <c r="U7" s="13" t="n"/>
     </row>
     <row r="8" ht="142" customHeight="1" s="23">
       <c r="A8" s="13" t="n">
@@ -2878,62 +2839,18 @@
           <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
         </is>
       </c>
-      <c r="J8" s="13" t="inlineStr">
-        <is>
-          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}</t>
-        </is>
-      </c>
-      <c r="K8" s="13" t="inlineStr">
-        <is>
-          <t>[{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
-        </is>
-      </c>
-      <c r="L8" s="13" t="inlineStr">
-        <is>
-          <t>EC-2020091114061600004169</t>
-        </is>
-      </c>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="13" t="n"/>
+      <c r="L8" s="13" t="n"/>
       <c r="M8" s="13" t="n"/>
-      <c r="N8" s="13" t="inlineStr">
-        <is>
-          <t>{'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
-        </is>
-      </c>
-      <c r="O8" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': None}</t>
-        </is>
-      </c>
-      <c r="P8" s="13" t="inlineStr">
-        <is>
-          <t>[1000656, 10, 10, 1000648]</t>
-        </is>
-      </c>
-      <c r="Q8" s="13" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('100.00'), Decimal('-100.00'), Decimal('100.00')]</t>
-        </is>
-      </c>
-      <c r="R8" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989166.00'), Decimal('1989266.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942025.88'), Decimal('101941925.88'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941925.88'), Decimal('101942025.88'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102462.54'), Decimal('102362.54'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1))</t>
-        </is>
-      </c>
-      <c r="S8" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989166.00'), Decimal('1989266.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942025.88'), Decimal('101941925.88'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941925.88'), Decimal('101942025.88'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102462.54'), Decimal('102362.54'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1))</t>
-        </is>
-      </c>
-      <c r="T8" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U8" s="13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="N8" s="13" t="n"/>
+      <c r="O8" s="13" t="n"/>
+      <c r="P8" s="13" t="n"/>
+      <c r="Q8" s="13" t="n"/>
+      <c r="R8" s="13" t="n"/>
+      <c r="S8" s="13" t="n"/>
+      <c r="T8" s="13" t="n"/>
+      <c r="U8" s="13" t="n"/>
     </row>
     <row r="9" ht="192" customHeight="1" s="23">
       <c r="A9" s="13" t="n">
@@ -2982,62 +2899,18 @@
           <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
         </is>
       </c>
-      <c r="J9" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
-        </is>
-      </c>
-      <c r="K9" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
-        </is>
-      </c>
-      <c r="L9" s="13" t="inlineStr">
-        <is>
-          <t>EC-2020091114062300004171</t>
-        </is>
-      </c>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="13" t="n"/>
+      <c r="L9" s="13" t="n"/>
       <c r="M9" s="13" t="n"/>
-      <c r="N9" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣对象': {'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
-        </is>
-      </c>
-      <c r="O9" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
-        </is>
-      </c>
-      <c r="P9" s="13" t="inlineStr">
-        <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000648, 10, 1001308, 103554, 1000246, 10]</t>
-        </is>
-      </c>
-      <c r="Q9" s="13" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
-        </is>
-      </c>
-      <c r="R9" s="13" t="inlineStr">
-        <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086894969.78'), Decimal('1086895069.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086894968.78'), Decimal('1086894969.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698285.03'), Decimal('9999698288.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942025.88'), Decimal('101941925.88'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942026.88'), Decimal('101942025.88'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962864.82'), Decimal('13962861.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941926.88'), Decimal('101942026.88'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102562.54'), Decimal('102462.54'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941925.88'), Decimal('101941926.88'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('22.72'), Decimal('22.57'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19114.18'), Decimal('19113.63'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.91'), Decimal('999897982681.81'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941926.08'), Decimal('101941925.88'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="S9" s="13" t="inlineStr">
-        <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086894969.78'), Decimal('1086895069.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086894968.78'), Decimal('1086894969.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698285.03'), Decimal('9999698288.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942025.88'), Decimal('101941925.88'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942026.88'), Decimal('101942025.88'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962864.82'), Decimal('13962861.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941926.88'), Decimal('101942026.88'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102562.54'), Decimal('102462.54'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941925.88'), Decimal('101941926.88'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('22.72'), Decimal('22.57'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19114.18'), Decimal('19113.63'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982681.91'), Decimal('999897982681.81'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941926.08'), Decimal('101941925.88'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="T9" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U9" s="13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="N9" s="13" t="n"/>
+      <c r="O9" s="13" t="n"/>
+      <c r="P9" s="13" t="n"/>
+      <c r="Q9" s="13" t="n"/>
+      <c r="R9" s="13" t="n"/>
+      <c r="S9" s="13" t="n"/>
+      <c r="T9" s="13" t="n"/>
+      <c r="U9" s="13" t="n"/>
     </row>
     <row r="10" ht="207" customHeight="1" s="23">
       <c r="A10" s="13" t="n">
@@ -3086,62 +2959,18 @@
           <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
         </is>
       </c>
-      <c r="J10" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
-        </is>
-      </c>
-      <c r="K10" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
-        </is>
-      </c>
-      <c r="L10" s="13" t="inlineStr">
-        <is>
-          <t>EC-2020091114063000004173</t>
-        </is>
-      </c>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="13" t="n"/>
+      <c r="L10" s="13" t="n"/>
       <c r="M10" s="13" t="n"/>
-      <c r="N10" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣对象': {'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
-        </is>
-      </c>
-      <c r="O10" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
-        </is>
-      </c>
-      <c r="P10" s="13" t="inlineStr">
-        <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000648, 10, 1001308, 103554, 1000246, 10]</t>
-        </is>
-      </c>
-      <c r="Q10" s="13" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
-        </is>
-      </c>
-      <c r="R10" s="13" t="inlineStr">
-        <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086894868.78'), Decimal('1086894968.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086894867.78'), Decimal('1086894868.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698282.03'), Decimal('9999698285.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942026.08'), Decimal('101941926.08'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942027.08'), Decimal('101942026.08'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962867.82'), Decimal('13962864.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941927.08'), Decimal('101942027.08'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102662.54'), Decimal('102562.54'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941926.08'), Decimal('101941927.08'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('22.87'), Decimal('22.72'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19114.73'), Decimal('19114.18'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982682.01'), Decimal('999897982681.91'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941926.28'), Decimal('101941926.08'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
-        </is>
-      </c>
-      <c r="S10" s="13" t="inlineStr">
-        <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086894868.78'), Decimal('1086894968.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086894867.78'), Decimal('1086894868.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698282.03'), Decimal('9999698285.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942026.08'), Decimal('101941926.08'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942027.08'), Decimal('101942026.08'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962867.82'), Decimal('13962864.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941927.08'), Decimal('101942027.08'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000648, 2, 3, Decimal('100.00'), Decimal('102662.54'), Decimal('102562.54'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941926.08'), Decimal('101941927.08'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('22.87'), Decimal('22.72'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19114.73'), Decimal('19114.18'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982682.01'), Decimal('999897982681.91'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941926.28'), Decimal('101941926.08'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
-        </is>
-      </c>
-      <c r="T10" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U10" s="13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="N10" s="13" t="n"/>
+      <c r="O10" s="13" t="n"/>
+      <c r="P10" s="13" t="n"/>
+      <c r="Q10" s="13" t="n"/>
+      <c r="R10" s="13" t="n"/>
+      <c r="S10" s="13" t="n"/>
+      <c r="T10" s="13" t="n"/>
+      <c r="U10" s="13" t="n"/>
     </row>
     <row r="11" ht="174" customHeight="1" s="23">
       <c r="A11" s="13" t="n">
@@ -3190,62 +3019,18 @@
           <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
         </is>
       </c>
-      <c r="J11" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}}</t>
-        </is>
-      </c>
-      <c r="K11" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]}</t>
-        </is>
-      </c>
-      <c r="L11" s="13" t="inlineStr">
-        <is>
-          <t>EC-2020091114063700004175</t>
-        </is>
-      </c>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="13" t="n"/>
+      <c r="L11" s="13" t="n"/>
       <c r="M11" s="13" t="n"/>
-      <c r="N11" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣对象': {'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'业务焕商': 1000750, 'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
-        </is>
-      </c>
-      <c r="O11" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
-        </is>
-      </c>
-      <c r="P11" s="13" t="inlineStr">
-        <is>
-          <t>[1000656, 10, 10, 10, 1000648, 1000648, 10, 1000648, 1000794, 1000647, 1000646, 10]</t>
-        </is>
-      </c>
-      <c r="Q11" s="13" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('90.00'), Decimal('10.00'), Decimal('-90.00'), Decimal('100.00'), Decimal('-10.00'), Decimal('-10.00'), Decimal('4.20'), Decimal('1.80'), Decimal('1.00'), Decimal('1.00'), Decimal('2.00')]</t>
-        </is>
-      </c>
-      <c r="R11" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999884645.05'), Decimal('999884745.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('90.00'), Decimal('999999316174393.71'), Decimal('999999316174303.71'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('10.00'), Decimal('999999316174403.71'), Decimal('999999316174393.71'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-90.00'), Decimal('999999316174313.71'), Decimal('999999316174403.71'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000648, 2, 3, Decimal('100.00'), Decimal('117668.20'), Decimal('117568.20'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000648, 2, 1, Decimal('-10.00'), Decimal('117658.20'), Decimal('117668.20'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (10, 2, 1, Decimal('-10.00'), Decimal('999999316174303.71'), Decimal('999999316174313.71'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('4.20'), Decimal('117662.40'), Decimal('117658.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('1.80'), Decimal('6203.49'), Decimal('6201.69'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('1.00'), Decimal('54089.74'), Decimal('54088.74'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('1.00'), Decimal('19742.01'), Decimal('19741.01'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('2.00'), Decimal('999999316174305.71'), Decimal('999999316174303.71'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
-        </is>
-      </c>
-      <c r="S11" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999884645.05'), Decimal('999884745.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('90.00'), Decimal('999999316174393.71'), Decimal('999999316174303.71'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('10.00'), Decimal('999999316174403.71'), Decimal('999999316174393.71'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-90.00'), Decimal('999999316174313.71'), Decimal('999999316174403.71'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000648, 2, 3, Decimal('100.00'), Decimal('117668.20'), Decimal('117568.20'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000648, 2, 1, Decimal('-10.00'), Decimal('117658.20'), Decimal('117668.20'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (10, 2, 1, Decimal('-10.00'), Decimal('999999316174303.71'), Decimal('999999316174313.71'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('4.20'), Decimal('117662.40'), Decimal('117658.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('1.80'), Decimal('6203.49'), Decimal('6201.69'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('1.00'), Decimal('54089.74'), Decimal('54088.74'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('1.00'), Decimal('19742.01'), Decimal('19741.01'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('2.00'), Decimal('999999316174305.71'), Decimal('999999316174303.71'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
-        </is>
-      </c>
-      <c r="T11" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U11" s="13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="N11" s="13" t="n"/>
+      <c r="O11" s="13" t="n"/>
+      <c r="P11" s="13" t="n"/>
+      <c r="Q11" s="13" t="n"/>
+      <c r="R11" s="13" t="n"/>
+      <c r="S11" s="13" t="n"/>
+      <c r="T11" s="13" t="n"/>
+      <c r="U11" s="13" t="n"/>
     </row>
     <row r="12" ht="108" customHeight="1" s="23">
       <c r="A12" s="13" t="n">
@@ -3294,62 +3079,18 @@
           <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
         </is>
       </c>
-      <c r="J12" s="13" t="inlineStr">
-        <is>
-          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}</t>
-        </is>
-      </c>
-      <c r="K12" s="13" t="inlineStr">
-        <is>
-          <t>[{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
-        </is>
-      </c>
-      <c r="L12" s="13" t="inlineStr">
-        <is>
-          <t>EC-2020091114064400004177</t>
-        </is>
-      </c>
+      <c r="J12" s="13" t="n"/>
+      <c r="K12" s="13" t="n"/>
+      <c r="L12" s="13" t="n"/>
       <c r="M12" s="13" t="n"/>
-      <c r="N12" s="13" t="inlineStr">
-        <is>
-          <t>{'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
-        </is>
-      </c>
-      <c r="O12" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
-        </is>
-      </c>
-      <c r="P12" s="13" t="inlineStr">
-        <is>
-          <t>[1000656, 1000656, 1000656, 10, 10, 10, 10, 1000664, 10, 1000648, 1000647, 1000646, 1000794, 10]</t>
-        </is>
-      </c>
-      <c r="Q12" s="13" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-1.00'), Decimal('0.60'), Decimal('0.10'), Decimal('0.07'), Decimal('0.03'), Decimal('0.20')]</t>
-        </is>
-      </c>
-      <c r="R12" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999978685.47'), Decimal('999978785.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999978684.47'), Decimal('999978685.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('172019.05'), Decimal('172022.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942026.28'), Decimal('101941926.28'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942027.28'), Decimal('101942026.28'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962870.82'), Decimal('13962867.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941927.28'), Decimal('101942027.28'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4497.80'), Decimal('4397.80'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941926.28'), Decimal('101941927.28'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000648, 2, 2, Decimal('0.60'), Decimal('102663.14'), Decimal('102662.54'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('514.13'), Decimal('514.03'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('866.28'), Decimal('866.21'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.34'), Decimal('17.31'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941926.48'), Decimal('101941926.28'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="S12" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999978685.47'), Decimal('999978785.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999978684.47'), Decimal('999978685.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('172019.05'), Decimal('172022.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942026.28'), Decimal('101941926.28'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942027.28'), Decimal('101942026.28'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962870.82'), Decimal('13962867.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941927.28'), Decimal('101942027.28'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4497.80'), Decimal('4397.80'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941926.28'), Decimal('101941927.28'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000648, 2, 2, Decimal('0.60'), Decimal('102663.14'), Decimal('102662.54'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('514.13'), Decimal('514.03'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('866.28'), Decimal('866.21'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.34'), Decimal('17.31'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941926.48'), Decimal('101941926.28'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="T12" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U12" s="13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="N12" s="13" t="n"/>
+      <c r="O12" s="13" t="n"/>
+      <c r="P12" s="13" t="n"/>
+      <c r="Q12" s="13" t="n"/>
+      <c r="R12" s="13" t="n"/>
+      <c r="S12" s="13" t="n"/>
+      <c r="T12" s="13" t="n"/>
+      <c r="U12" s="13" t="n"/>
     </row>
     <row r="13" ht="108" customHeight="1" s="23">
       <c r="A13" s="13" t="n">
@@ -3398,62 +3139,18 @@
           <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
         </is>
       </c>
-      <c r="J13" s="13" t="inlineStr">
-        <is>
-          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}</t>
-        </is>
-      </c>
-      <c r="K13" s="13" t="inlineStr">
-        <is>
-          <t>[{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
-        </is>
-      </c>
-      <c r="L13" s="13" t="inlineStr">
-        <is>
-          <t>EC-2020091114065100004179</t>
-        </is>
-      </c>
+      <c r="J13" s="13" t="n"/>
+      <c r="K13" s="13" t="n"/>
+      <c r="L13" s="13" t="n"/>
       <c r="M13" s="13" t="n"/>
-      <c r="N13" s="13" t="inlineStr">
-        <is>
-          <t>{'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
-        </is>
-      </c>
-      <c r="O13" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': None}</t>
-        </is>
-      </c>
-      <c r="P13" s="13" t="inlineStr">
-        <is>
-          <t>[1000656, 10, 10, 1000664]</t>
-        </is>
-      </c>
-      <c r="Q13" s="13" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('100.00'), Decimal('-100.00'), Decimal('100.00')]</t>
-        </is>
-      </c>
-      <c r="R13" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989066.00'), Decimal('1989166.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942026.48'), Decimal('101941926.48'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941926.48'), Decimal('101942026.48'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4597.80'), Decimal('4497.80'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1))</t>
-        </is>
-      </c>
-      <c r="S13" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1989066.00'), Decimal('1989166.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942026.48'), Decimal('101941926.48'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941926.48'), Decimal('101942026.48'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4597.80'), Decimal('4497.80'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1))</t>
-        </is>
-      </c>
-      <c r="T13" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U13" s="13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="N13" s="13" t="n"/>
+      <c r="O13" s="13" t="n"/>
+      <c r="P13" s="13" t="n"/>
+      <c r="Q13" s="13" t="n"/>
+      <c r="R13" s="13" t="n"/>
+      <c r="S13" s="13" t="n"/>
+      <c r="T13" s="13" t="n"/>
+      <c r="U13" s="13" t="n"/>
     </row>
     <row r="14" ht="122" customHeight="1" s="23">
       <c r="A14" s="13" t="n">
@@ -3502,62 +3199,18 @@
           <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
         </is>
       </c>
-      <c r="J14" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
-        </is>
-      </c>
-      <c r="K14" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
-        </is>
-      </c>
-      <c r="L14" s="13" t="inlineStr">
-        <is>
-          <t>EC-2020091114065900004181</t>
-        </is>
-      </c>
+      <c r="J14" s="13" t="n"/>
+      <c r="K14" s="13" t="n"/>
+      <c r="L14" s="13" t="n"/>
       <c r="M14" s="13" t="n"/>
-      <c r="N14" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣对象': {'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
-        </is>
-      </c>
-      <c r="O14" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
-        </is>
-      </c>
-      <c r="P14" s="13" t="inlineStr">
-        <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000664, 10, 1001308, 103554, 1000246, 10]</t>
-        </is>
-      </c>
-      <c r="Q14" s="13" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
-        </is>
-      </c>
-      <c r="R14" s="13" t="inlineStr">
-        <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086894767.78'), Decimal('1086894867.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086894766.78'), Decimal('1086894767.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698279.03'), Decimal('9999698282.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942026.48'), Decimal('101941926.48'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942027.48'), Decimal('101942026.48'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962873.82'), Decimal('13962870.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941927.48'), Decimal('101942027.48'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4697.80'), Decimal('4597.80'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941926.48'), Decimal('101941927.48'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('23.02'), Decimal('22.87'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19115.28'), Decimal('19114.73'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982682.11'), Decimal('999897982682.01'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941926.68'), Decimal('101941926.48'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="S14" s="13" t="inlineStr">
-        <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086894767.78'), Decimal('1086894867.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086894766.78'), Decimal('1086894767.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698279.03'), Decimal('9999698282.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942026.48'), Decimal('101941926.48'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942027.48'), Decimal('101942026.48'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962873.82'), Decimal('13962870.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941927.48'), Decimal('101942027.48'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4697.80'), Decimal('4597.80'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941926.48'), Decimal('101941927.48'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('23.02'), Decimal('22.87'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19115.28'), Decimal('19114.73'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982682.11'), Decimal('999897982682.01'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941926.68'), Decimal('101941926.48'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="T14" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U14" s="13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="N14" s="13" t="n"/>
+      <c r="O14" s="13" t="n"/>
+      <c r="P14" s="13" t="n"/>
+      <c r="Q14" s="13" t="n"/>
+      <c r="R14" s="13" t="n"/>
+      <c r="S14" s="13" t="n"/>
+      <c r="T14" s="13" t="n"/>
+      <c r="U14" s="13" t="n"/>
     </row>
     <row r="15" ht="108" customHeight="1" s="23">
       <c r="A15" s="13" t="n">
@@ -3606,62 +3259,18 @@
           <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
         </is>
       </c>
-      <c r="J15" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
-        </is>
-      </c>
-      <c r="K15" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
-        </is>
-      </c>
-      <c r="L15" s="13" t="inlineStr">
-        <is>
-          <t>EC-2020091114070600004183</t>
-        </is>
-      </c>
+      <c r="J15" s="13" t="n"/>
+      <c r="K15" s="13" t="n"/>
+      <c r="L15" s="13" t="n"/>
       <c r="M15" s="13" t="n"/>
-      <c r="N15" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣对象': {'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
-        </is>
-      </c>
-      <c r="O15" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
-        </is>
-      </c>
-      <c r="P15" s="13" t="inlineStr">
-        <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000664, 10, 1001308, 103554, 1000246, 10]</t>
-        </is>
-      </c>
-      <c r="Q15" s="13" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
-        </is>
-      </c>
-      <c r="R15" s="13" t="inlineStr">
-        <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086894666.78'), Decimal('1086894766.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086894665.78'), Decimal('1086894666.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698276.03'), Decimal('9999698279.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942026.68'), Decimal('101941926.68'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942027.68'), Decimal('101942026.68'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962876.82'), Decimal('13962873.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941927.68'), Decimal('101942027.68'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4797.80'), Decimal('4697.80'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941926.68'), Decimal('101941927.68'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('23.17'), Decimal('23.02'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19115.83'), Decimal('19115.28'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982682.21'), Decimal('999897982682.11'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941926.88'), Decimal('101941926.68'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
-        </is>
-      </c>
-      <c r="S15" s="13" t="inlineStr">
-        <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086894666.78'), Decimal('1086894766.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086894665.78'), Decimal('1086894666.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698276.03'), Decimal('9999698279.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942026.68'), Decimal('101941926.68'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942027.68'), Decimal('101942026.68'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962876.82'), Decimal('13962873.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941927.68'), Decimal('101942027.68'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000664, 2, 3, Decimal('100.00'), Decimal('4797.80'), Decimal('4697.80'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (10, 2, 1, Decimal('-1.00'), Decimal('101941926.68'), Decimal('101941927.68'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('23.17'), Decimal('23.02'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19115.83'), Decimal('19115.28'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982682.21'), Decimal('999897982682.11'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941926.88'), Decimal('101941926.68'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
-        </is>
-      </c>
-      <c r="T15" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U15" s="13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="N15" s="13" t="n"/>
+      <c r="O15" s="13" t="n"/>
+      <c r="P15" s="13" t="n"/>
+      <c r="Q15" s="13" t="n"/>
+      <c r="R15" s="13" t="n"/>
+      <c r="S15" s="13" t="n"/>
+      <c r="T15" s="13" t="n"/>
+      <c r="U15" s="13" t="n"/>
     </row>
     <row r="16" ht="108" customHeight="1" s="23">
       <c r="A16" s="13" t="n">
@@ -3710,62 +3319,18 @@
           <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
         </is>
       </c>
-      <c r="J16" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}}</t>
-        </is>
-      </c>
-      <c r="K16" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]}</t>
-        </is>
-      </c>
-      <c r="L16" s="13" t="inlineStr">
-        <is>
-          <t>EC-2020091114071300004185</t>
-        </is>
-      </c>
+      <c r="J16" s="13" t="n"/>
+      <c r="K16" s="13" t="n"/>
+      <c r="L16" s="13" t="n"/>
       <c r="M16" s="13" t="n"/>
-      <c r="N16" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣对象': {'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'业务焕商': 1000750, 'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
-        </is>
-      </c>
-      <c r="O16" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
-        </is>
-      </c>
-      <c r="P16" s="13" t="inlineStr">
-        <is>
-          <t>[1000656, 10, 10, 10, 1000664, 1000664, 10, 1000648, 1000794, 1000647, 1000646, 10]</t>
-        </is>
-      </c>
-      <c r="Q16" s="13" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('90.00'), Decimal('10.00'), Decimal('-90.00'), Decimal('100.00'), Decimal('-10.00'), Decimal('-10.00'), Decimal('4.20'), Decimal('1.80'), Decimal('1.00'), Decimal('1.00'), Decimal('2.00')]</t>
-        </is>
-      </c>
-      <c r="R16" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999884545.05'), Decimal('999884645.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('90.00'), Decimal('999999316174395.71'), Decimal('999999316174305.71'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('10.00'), Decimal('999999316174405.71'), Decimal('999999316174395.71'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-90.00'), Decimal('999999316174315.71'), Decimal('999999316174405.71'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000664, 2, 3, Decimal('100.00'), Decimal('10103.00'), Decimal('10003.00'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000664, 2, 1, Decimal('-10.00'), Decimal('10093.00'), Decimal('10103.00'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (10, 2, 1, Decimal('-10.00'), Decimal('999999316174305.71'), Decimal('999999316174315.71'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('4.20'), Decimal('117666.60'), Decimal('117662.40'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('1.80'), Decimal('6205.29'), Decimal('6203.49'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('1.00'), Decimal('54090.74'), Decimal('54089.74'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('1.00'), Decimal('19743.01'), Decimal('19742.01'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('2.00'), Decimal('999999316174307.71'), Decimal('999999316174305.71'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
-        </is>
-      </c>
-      <c r="S16" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999884545.05'), Decimal('999884645.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('90.00'), Decimal('999999316174395.71'), Decimal('999999316174305.71'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('10.00'), Decimal('999999316174405.71'), Decimal('999999316174395.71'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-90.00'), Decimal('999999316174315.71'), Decimal('999999316174405.71'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000664, 2, 3, Decimal('100.00'), Decimal('10103.00'), Decimal('10003.00'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000664, 2, 1, Decimal('-10.00'), Decimal('10093.00'), Decimal('10103.00'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (10, 2, 1, Decimal('-10.00'), Decimal('999999316174305.71'), Decimal('999999316174315.71'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000648, 2, 2, Decimal('4.20'), Decimal('117666.60'), Decimal('117662.40'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('1.80'), Decimal('6205.29'), Decimal('6203.49'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('1.00'), Decimal('54090.74'), Decimal('54089.74'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('1.00'), Decimal('19743.01'), Decimal('19742.01'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('2.00'), Decimal('999999316174307.71'), Decimal('999999316174305.71'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
-        </is>
-      </c>
-      <c r="T16" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U16" s="13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="N16" s="13" t="n"/>
+      <c r="O16" s="13" t="n"/>
+      <c r="P16" s="13" t="n"/>
+      <c r="Q16" s="13" t="n"/>
+      <c r="R16" s="13" t="n"/>
+      <c r="S16" s="13" t="n"/>
+      <c r="T16" s="13" t="n"/>
+      <c r="U16" s="13" t="n"/>
     </row>
     <row r="17" ht="108" customHeight="1" s="23">
       <c r="A17" s="13" t="n">
@@ -3814,66 +3379,18 @@
           <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
         </is>
       </c>
-      <c r="J17" s="13" t="inlineStr">
-        <is>
-          <t>{'个人分佣比例': Decimal('0.30'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60')}</t>
-        </is>
-      </c>
-      <c r="K17" s="15" t="inlineStr">
-        <is>
-          <t>[{'个人焕商': 1000651}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
-        </is>
-      </c>
-      <c r="L17" s="15" t="inlineStr">
-        <is>
-          <t>EC-2020091114072200004189</t>
-        </is>
-      </c>
-      <c r="M17" s="15" t="inlineStr">
-        <is>
-          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
-        </is>
-      </c>
-      <c r="N17" s="15" t="inlineStr">
-        <is>
-          <t>{'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
-        </is>
-      </c>
-      <c r="O17" s="15" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
-        </is>
-      </c>
-      <c r="P17" s="15" t="inlineStr">
-        <is>
-          <t>[1000656, 1000656, 1000656, 10, 10, 10, 10, 1000644, 1000656, 1000651, 1000648, 1000647, 1000646, 1000794, 10, 10, 1000651, 1000648, 1000647, 1000646, 1000794, 10]</t>
-        </is>
-      </c>
-      <c r="Q17" s="15" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('30.00'), Decimal('18.00'), Decimal('3.00'), Decimal('2.10'), Decimal('0.90'), Decimal('6.00'), Decimal('-1.00'), Decimal('0.30'), Decimal('0.30'), Decimal('0.10'), Decimal('0.07'), Decimal('0.03'), Decimal('0.20')]</t>
-        </is>
-      </c>
-      <c r="R17" s="15" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999978584.47'), Decimal('999978684.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999978583.47'), Decimal('999978584.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('172116.05'), Decimal('172119.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942026.88'), Decimal('101941926.88'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942027.88'), Decimal('101942026.88'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962879.82'), Decimal('13962876.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941927.88'), Decimal('101942027.88'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2632.64'), Decimal('2532.64'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3307.20'), Decimal('3277.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.00'), Decimal('117708.60'), Decimal('117690.60'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('54097.74'), Decimal('54094.74'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('2.10'), Decimal('19747.91'), Decimal('19745.81'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('0.90'), Decimal('6207.39'), Decimal('6206.49'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316174381.71'), Decimal('999999316174375.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941926.88'), Decimal('101941927.88'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000651, 2, 2, Decimal('0.30'), Decimal('34.60'), Decimal('34.30'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.30'), Decimal('102663.44'), Decimal('102663.14'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('514.23'), Decimal('514.13'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('866.35'), Decimal('866.28'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.37'), Decimal('17.34'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941927.08'), Decimal('101941926.88'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="S17" s="15" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999978584.47'), Decimal('999978684.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999978583.47'), Decimal('999978584.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('172116.05'), Decimal('172119.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942026.88'), Decimal('101941926.88'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942027.88'), Decimal('101942026.88'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962879.82'), Decimal('13962876.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941927.88'), Decimal('101942027.88'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2632.64'), Decimal('2532.64'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3307.20'), Decimal('3277.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.00'), Decimal('117708.60'), Decimal('117690.60'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('54097.74'), Decimal('54094.74'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('2.10'), Decimal('19747.91'), Decimal('19745.81'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('0.90'), Decimal('6207.39'), Decimal('6206.49'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316174381.71'), Decimal('999999316174375.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941926.88'), Decimal('101941927.88'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000651, 2, 2, Decimal('0.30'), Decimal('34.60'), Decimal('34.30'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.30'), Decimal('102663.44'), Decimal('102663.14'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('514.23'), Decimal('514.13'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('866.35'), Decimal('866.28'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.37'), Decimal('17.34'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941927.08'), Decimal('101941926.88'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="T17" s="15" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U17" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="J17" s="13" t="n"/>
+      <c r="K17" s="15" t="n"/>
+      <c r="L17" s="15" t="n"/>
+      <c r="M17" s="15" t="n"/>
+      <c r="N17" s="15" t="n"/>
+      <c r="O17" s="15" t="n"/>
+      <c r="P17" s="15" t="n"/>
+      <c r="Q17" s="15" t="n"/>
+      <c r="R17" s="15" t="n"/>
+      <c r="S17" s="15" t="n"/>
+      <c r="T17" s="15" t="n"/>
+      <c r="U17" s="15" t="n"/>
     </row>
     <row r="18" ht="108" customHeight="1" s="23">
       <c r="A18" s="13" t="n">
@@ -3922,66 +3439,18 @@
           <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
         </is>
       </c>
-      <c r="J18" s="13" t="inlineStr">
-        <is>
-          <t>{'个人分佣比例': Decimal('0.30'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60')}</t>
-        </is>
-      </c>
-      <c r="K18" s="13" t="inlineStr">
-        <is>
-          <t>[{'个人焕商': 1000651}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
-        </is>
-      </c>
-      <c r="L18" s="15" t="inlineStr">
-        <is>
-          <t>EC-2020091114073100004193</t>
-        </is>
-      </c>
-      <c r="M18" s="15" t="inlineStr">
-        <is>
-          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
-        </is>
-      </c>
-      <c r="N18" s="15" t="inlineStr">
-        <is>
-          <t>{'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
-        </is>
-      </c>
-      <c r="O18" s="15" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': None}</t>
-        </is>
-      </c>
-      <c r="P18" s="15" t="inlineStr">
-        <is>
-          <t>[1000656, 10, 10, 1000644, 1000656, 1000651, 1000648, 1000647, 1000646, 1000794, 10]</t>
-        </is>
-      </c>
-      <c r="Q18" s="15" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('100.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('30.00'), Decimal('18.00'), Decimal('3.00'), Decimal('2.10'), Decimal('0.90'), Decimal('6.00')]</t>
-        </is>
-      </c>
-      <c r="R18" s="15" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1988966.00'), Decimal('1989066.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942027.08'), Decimal('101941927.08'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941927.08'), Decimal('101942027.08'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2732.64'), Decimal('2632.64'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3337.20'), Decimal('3307.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.00'), Decimal('117750.60'), Decimal('117732.60'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('54104.74'), Decimal('54101.74'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('2.10'), Decimal('19752.81'), Decimal('19750.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('0.90'), Decimal('6209.49'), Decimal('6208.59'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316174455.71'), Decimal('999999316174449.71'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
-        </is>
-      </c>
-      <c r="S18" s="15" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1988966.00'), Decimal('1989066.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942027.08'), Decimal('101941927.08'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941927.08'), Decimal('101942027.08'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2732.64'), Decimal('2632.64'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3337.20'), Decimal('3307.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.00'), Decimal('117750.60'), Decimal('117732.60'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('54104.74'), Decimal('54101.74'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('2.10'), Decimal('19752.81'), Decimal('19750.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('0.90'), Decimal('6209.49'), Decimal('6208.59'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316174455.71'), Decimal('999999316174449.71'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
-        </is>
-      </c>
-      <c r="T18" s="15" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U18" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="J18" s="13" t="n"/>
+      <c r="K18" s="13" t="n"/>
+      <c r="L18" s="15" t="n"/>
+      <c r="M18" s="15" t="n"/>
+      <c r="N18" s="15" t="n"/>
+      <c r="O18" s="15" t="n"/>
+      <c r="P18" s="15" t="n"/>
+      <c r="Q18" s="15" t="n"/>
+      <c r="R18" s="15" t="n"/>
+      <c r="S18" s="15" t="n"/>
+      <c r="T18" s="15" t="n"/>
+      <c r="U18" s="15" t="n"/>
     </row>
     <row r="19" ht="108" customHeight="1" s="23">
       <c r="A19" s="13" t="n">
@@ -4030,66 +3499,18 @@
           <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
         </is>
       </c>
-      <c r="J19" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': {'个人分佣比例': Decimal('0.30'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
-        </is>
-      </c>
-      <c r="K19" s="15" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': [{'个人焕商': 1000651}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
-        </is>
-      </c>
-      <c r="L19" s="15" t="inlineStr">
-        <is>
-          <t>EC-2020091114074000004197</t>
-        </is>
-      </c>
-      <c r="M19" s="15" t="inlineStr">
-        <is>
-          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
-        </is>
-      </c>
-      <c r="N19" s="15" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣对象': {'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
-        </is>
-      </c>
-      <c r="O19" s="15" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
-        </is>
-      </c>
-      <c r="P19" s="15" t="inlineStr">
-        <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000644, 1000656, 1000651, 1000648, 1000794, 1000647, 1000646, 10, 10, 1001308, 103554, 1000246, 10]</t>
-        </is>
-      </c>
-      <c r="Q19" s="15" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('30.00'), Decimal('12.60'), Decimal('5.40'), Decimal('3.00'), Decimal('3.00'), Decimal('6.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
-        </is>
-      </c>
-      <c r="R19" s="15" t="inlineStr">
-        <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086894565.78'), Decimal('1086894665.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086894564.78'), Decimal('1086894565.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698273.03'), Decimal('9999698276.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942027.08'), Decimal('101941927.08'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942028.08'), Decimal('101942027.08'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962882.82'), Decimal('13962879.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941928.08'), Decimal('101942028.08'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2832.64'), Decimal('2732.64'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3367.20'), Decimal('3337.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('117780.00'), Decimal('117767.40'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('6222.09'), Decimal('6216.69'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('54111.74'), Decimal('54108.74'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.00'), Decimal('19759.81'), Decimal('19756.81'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316174529.71'), Decimal('999999316174523.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941927.08'), Decimal('101941928.08'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('23.32'), Decimal('23.17'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19116.38'), Decimal('19115.83'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982682.31'), Decimal('999897982682.21'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941927.28'), Decimal('101941927.08'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="S19" s="15" t="inlineStr">
-        <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086894565.78'), Decimal('1086894665.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086894564.78'), Decimal('1086894565.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698273.03'), Decimal('9999698276.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942027.08'), Decimal('101941927.08'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942028.08'), Decimal('101942027.08'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962882.82'), Decimal('13962879.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941928.08'), Decimal('101942028.08'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2832.64'), Decimal('2732.64'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3367.20'), Decimal('3337.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('117780.00'), Decimal('117767.40'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('6222.09'), Decimal('6216.69'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('54111.74'), Decimal('54108.74'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.00'), Decimal('19759.81'), Decimal('19756.81'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316174529.71'), Decimal('999999316174523.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941927.08'), Decimal('101941928.08'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('23.32'), Decimal('23.17'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19116.38'), Decimal('19115.83'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982682.31'), Decimal('999897982682.21'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941927.28'), Decimal('101941927.08'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="T19" s="15" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U19" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="J19" s="13" t="n"/>
+      <c r="K19" s="15" t="n"/>
+      <c r="L19" s="15" t="n"/>
+      <c r="M19" s="15" t="n"/>
+      <c r="N19" s="15" t="n"/>
+      <c r="O19" s="15" t="n"/>
+      <c r="P19" s="15" t="n"/>
+      <c r="Q19" s="15" t="n"/>
+      <c r="R19" s="15" t="n"/>
+      <c r="S19" s="15" t="n"/>
+      <c r="T19" s="15" t="n"/>
+      <c r="U19" s="15" t="n"/>
     </row>
     <row r="20" ht="108" customHeight="1" s="23">
       <c r="A20" s="13" t="n">
@@ -4138,66 +3559,18 @@
           <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
         </is>
       </c>
-      <c r="J20" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': {'个人分佣比例': Decimal('0.30'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
-        </is>
-      </c>
-      <c r="K20" s="15" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': [{'个人焕商': 1000651}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
-        </is>
-      </c>
-      <c r="L20" s="15" t="inlineStr">
-        <is>
-          <t>EC-2020091114074900004201</t>
-        </is>
-      </c>
-      <c r="M20" s="15" t="inlineStr">
-        <is>
-          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
-        </is>
-      </c>
-      <c r="N20" s="15" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣对象': {'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': None}</t>
-        </is>
-      </c>
-      <c r="O20" s="15" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000246, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
-        </is>
-      </c>
-      <c r="P20" s="15" t="inlineStr">
-        <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000644, 1000656, 1000651, 1000648, 1000794, 1000647, 1000646, 10, 10, 1001308, 103554, 1000246, 10]</t>
-        </is>
-      </c>
-      <c r="Q20" s="15" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('30.00'), Decimal('12.60'), Decimal('5.40'), Decimal('3.00'), Decimal('3.00'), Decimal('6.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.55'), Decimal('0.10'), Decimal('0.20')]</t>
-        </is>
-      </c>
-      <c r="R20" s="15" t="inlineStr">
-        <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086894464.78'), Decimal('1086894564.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086894463.78'), Decimal('1086894464.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698270.03'), Decimal('9999698273.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942027.28'), Decimal('101941927.28'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942028.28'), Decimal('101942027.28'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962885.82'), Decimal('13962882.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941928.28'), Decimal('101942028.28'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2932.64'), Decimal('2832.64'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3397.20'), Decimal('3367.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('117809.40'), Decimal('117796.80'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('6234.69'), Decimal('6229.29'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('54118.74'), Decimal('54115.74'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.00'), Decimal('19766.81'), Decimal('19763.81'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316174603.71'), Decimal('999999316174597.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941927.28'), Decimal('101941928.28'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('23.47'), Decimal('23.32'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19116.93'), Decimal('19116.38'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982682.41'), Decimal('999897982682.31'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941927.48'), Decimal('101941927.28'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
-        </is>
-      </c>
-      <c r="S20" s="15" t="inlineStr">
-        <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086894464.78'), Decimal('1086894564.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086894463.78'), Decimal('1086894464.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698270.03'), Decimal('9999698273.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942027.28'), Decimal('101941927.28'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942028.28'), Decimal('101942027.28'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962885.82'), Decimal('13962882.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941928.28'), Decimal('101942028.28'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000644, 2, 3, Decimal('100.00'), Decimal('2932.64'), Decimal('2832.64'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3397.20'), Decimal('3367.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('117809.40'), Decimal('117796.80'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('6234.69'), Decimal('6229.29'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('54118.74'), Decimal('54115.74'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.00'), Decimal('19766.81'), Decimal('19763.81'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316174603.71'), Decimal('999999316174597.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941927.28'), Decimal('101941928.28'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('23.47'), Decimal('23.32'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19116.93'), Decimal('19116.38'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982682.41'), Decimal('999897982682.31'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941927.48'), Decimal('101941927.28'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
-        </is>
-      </c>
-      <c r="T20" s="15" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U20" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="J20" s="13" t="n"/>
+      <c r="K20" s="15" t="n"/>
+      <c r="L20" s="15" t="n"/>
+      <c r="M20" s="15" t="n"/>
+      <c r="N20" s="15" t="n"/>
+      <c r="O20" s="15" t="n"/>
+      <c r="P20" s="15" t="n"/>
+      <c r="Q20" s="15" t="n"/>
+      <c r="R20" s="15" t="n"/>
+      <c r="S20" s="15" t="n"/>
+      <c r="T20" s="15" t="n"/>
+      <c r="U20" s="15" t="n"/>
     </row>
     <row r="21" ht="108" customHeight="1" s="23">
       <c r="A21" s="13" t="n">
@@ -4246,295 +3619,31 @@
           <t>{'储备池分佣': {'省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}, '支付服务费分佣': {'市代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '区代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}, '省代理商': {'销售':0.3,'业务焕商':0,'TCO':0.3}}}</t>
         </is>
       </c>
-      <c r="J21" s="13" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': {'个人分佣比例': Decimal('0.30'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60')}, '支付服务费分佣': {'个人分佣比例': Decimal('0.30'), '市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60')}}</t>
-        </is>
-      </c>
-      <c r="K21" s="15" t="inlineStr">
-        <is>
-          <t>{'储备池分佣': [{'个人焕商': 1000651}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1000651}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]}</t>
-        </is>
-      </c>
-      <c r="L21" s="15" t="inlineStr">
-        <is>
-          <t>EC-2020091114075800004205</t>
-        </is>
-      </c>
-      <c r="M21" s="15" t="inlineStr">
-        <is>
-          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
-        </is>
-      </c>
-      <c r="N21" s="15" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣对象': {'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}, '支付服务费二级分佣对象': {'业务焕商': 1000750, '买家上级的上级id': None, '买家上级的上级身份': None}}</t>
-        </is>
-      </c>
-      <c r="O21" s="15" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000648, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
-        </is>
-      </c>
-      <c r="P21" s="15" t="inlineStr">
-        <is>
-          <t>[1000656, 10, 10, 10, 1000644, 1000644, 1000656, 1000651, 1000648, 1000794, 1000647, 1000646, 10, 10, 1000651, 1000648, 1000647, 1000646, 10]</t>
-        </is>
-      </c>
-      <c r="Q21" s="15" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('90.00'), Decimal('10.00'), Decimal('-90.00'), Decimal('100.00'), Decimal('-10.00'), Decimal('-60.00'), Decimal('30.00'), Decimal('12.60'), Decimal('5.40'), Decimal('3.00'), Decimal('3.00'), Decimal('6.00'), Decimal('-10.00'), Decimal('3.00'), Decimal('3.00'), Decimal('1.00'), Decimal('1.00'), Decimal('2.00')]</t>
-        </is>
-      </c>
-      <c r="R21" s="15" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999883945.05'), Decimal('999884045.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('90.00'), Decimal('999999316174761.71'), Decimal('999999316174671.71'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('10.00'), Decimal('999999316174771.71'), Decimal('999999316174761.71'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-90.00'), Decimal('999999316174681.71'), Decimal('999999316174771.71'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000644, 2, 3, Decimal('100.00'), Decimal('1016.46'), Decimal('916.46'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000644, 2, 1, Decimal('-10.00'), Decimal('1006.46'), Decimal('1016.46'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3427.20'), Decimal('3397.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('117838.80'), Decimal('117826.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('6247.29'), Decimal('6241.89'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('54125.74'), Decimal('54122.74'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.00'), Decimal('19773.81'), Decimal('19770.81'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316174687.71'), Decimal('999999316174681.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-10.00'), Decimal('999999316174677.71'), Decimal('999999316174687.71'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000651, 2, 2, Decimal('3.00'), Decimal('3430.20'), Decimal('3427.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('3.00'), Decimal('117841.80'), Decimal('117838.80'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000647, 2, 2, Decimal('1.00'), Decimal('54126.74'), Decimal('54125.74'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('1.00'), Decimal('19774.81'), Decimal('19773.81'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('2.00'), Decimal('999999316174679.71'), Decimal('999999316174677.71'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
-        </is>
-      </c>
-      <c r="S21" s="15" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999883945.05'), Decimal('999884045.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('90.00'), Decimal('999999316174761.71'), Decimal('999999316174671.71'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('10.00'), Decimal('999999316174771.71'), Decimal('999999316174761.71'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-90.00'), Decimal('999999316174681.71'), Decimal('999999316174771.71'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000644, 2, 3, Decimal('100.00'), Decimal('1016.46'), Decimal('916.46'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000644, 2, 1, Decimal('-10.00'), Decimal('1006.46'), Decimal('1016.46'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000651, 2, 10, Decimal('30.00'), Decimal('3427.20'), Decimal('3397.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('12.60'), Decimal('117838.80'), Decimal('117826.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('5.40'), Decimal('6247.29'), Decimal('6241.89'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('3.00'), Decimal('54125.74'), Decimal('54122.74'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.00'), Decimal('19773.81'), Decimal('19770.81'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('6.00'), Decimal('999999316174687.71'), Decimal('999999316174681.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-10.00'), Decimal('999999316174677.71'), Decimal('999999316174687.71'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1000651, 2, 2, Decimal('3.00'), Decimal('3430.20'), Decimal('3427.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('3.00'), Decimal('117841.80'), Decimal('117838.80'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000647, 2, 2, Decimal('1.00'), Decimal('54126.74'), Decimal('54125.74'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('1.00'), Decimal('19774.81'), Decimal('19773.81'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('2.00'), Decimal('999999316174679.71'), Decimal('999999316174677.71'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
-        </is>
-      </c>
-      <c r="T21" s="15" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U21" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="99" customFormat="1" customHeight="1" s="22">
-      <c r="A22" s="13" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12" t="inlineStr">
-        <is>
-          <t>目的：
-买家为（公海用户）且绑定省代，市代，区代
-卖家为（个人焕商）且绑定个人焕商，省代，市代，区代
-使用（易贝）支付，确定核销，买家和卖家绑定关系，易贝和现金服务费分佣</t>
-        </is>
-      </c>
-      <c r="C22" s="13" t="inlineStr">
-        <is>
-          <t>钻石会员</t>
-        </is>
-      </c>
-      <c r="D22" s="13" t="inlineStr">
-        <is>
-          <t>公海用户</t>
-        </is>
-      </c>
-      <c r="E22" s="13" t="inlineStr">
-        <is>
-          <t>个人焕商</t>
-        </is>
-      </c>
-      <c r="F22" s="13" t="inlineStr">
-        <is>
-          <t>易贝</t>
-        </is>
-      </c>
-      <c r="G22" s="13" t="inlineStr">
-        <is>
-          <t>普通焕商本地生活</t>
-        </is>
-      </c>
-      <c r="H22" s="13" t="inlineStr">
-        <is>
-          <t>{"buyer_phone":17777777781,"seller_phone":17777777776,"买家":1000656,"卖家":1000650,"平台":10}</t>
-        </is>
-      </c>
-      <c r="I22" s="13" t="inlineStr">
-        <is>
-          <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
-        </is>
-      </c>
-      <c r="J22" s="13" t="inlineStr">
-        <is>
-          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}</t>
-        </is>
-      </c>
-      <c r="K22" s="13" t="inlineStr">
-        <is>
-          <t>[{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
-        </is>
-      </c>
-      <c r="L22" s="13" t="inlineStr">
-        <is>
-          <t>EC-2020091114195900004233</t>
-        </is>
-      </c>
-      <c r="M22" s="13" t="inlineStr">
-        <is>
-          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
-        </is>
-      </c>
-      <c r="N22" s="13" t="inlineStr">
-        <is>
-          <t>{'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
-        </is>
-      </c>
-      <c r="O22" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}}</t>
-        </is>
-      </c>
-      <c r="P22" s="13" t="inlineStr">
-        <is>
-          <t>[1000656, 1000656, 1000656, 10, 10, 10, 10, 1000650, 1000656, 1000650, 1000648, 1000647, 1000646, 1000794, 10, 10, 1000650, 1000648, 1000647, 1000646, 1000794, 10]</t>
-        </is>
-      </c>
-      <c r="Q22" s="13" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-3.00'), Decimal('100.00'), Decimal('1.00'), Decimal('3.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('27.00'), Decimal('4.50'), Decimal('3.15'), Decimal('1.35'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.45'), Decimal('0.10'), Decimal('0.07'), Decimal('0.03'), Decimal('0.20')]</t>
-        </is>
-      </c>
-      <c r="R22" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999977877.47'), Decimal('999977977.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999977876.47'), Decimal('999977877.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('173195.05'), Decimal('173198.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942028.68'), Decimal('101941928.68'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942029.68'), Decimal('101942028.68'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962906.82'), Decimal('13962903.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941929.68'), Decimal('101942029.68'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('31056.43'), Decimal('30956.43'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68860.73'), Decimal('68845.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('118198.80'), Decimal('118171.80'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54186.24'), Decimal('54181.74'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19816.46'), Decimal('19813.31'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6265.14'), Decimal('6263.79'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316175218.71'), Decimal('999999316175209.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941928.68'), Decimal('101941929.68'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('31056.58'), Decimal('31056.43'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102666.59'), Decimal('102666.14'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('514.93'), Decimal('514.83'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('866.84'), Decimal('866.77'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.58'), Decimal('17.55'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941928.88'), Decimal('101941928.68'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="S22" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999977877.47'), Decimal('999977977.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999977876.47'), Decimal('999977877.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('173195.05'), Decimal('173198.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942028.68'), Decimal('101941928.68'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942029.68'), Decimal('101942028.68'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962906.82'), Decimal('13962903.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101941929.68'), Decimal('101942029.68'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('31056.43'), Decimal('30956.43'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68860.73'), Decimal('68845.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('118198.80'), Decimal('118171.80'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54186.24'), Decimal('54181.74'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19816.46'), Decimal('19813.31'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6265.14'), Decimal('6263.79'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316175218.71'), Decimal('999999316175209.71'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101941928.68'), Decimal('101941929.68'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('31056.58'), Decimal('31056.43'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102666.59'), Decimal('102666.14'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('514.93'), Decimal('514.83'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('866.84'), Decimal('866.77'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.58'), Decimal('17.55'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101941928.88'), Decimal('101941928.68'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
-        </is>
-      </c>
-      <c r="T22" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U22" s="13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="108" customHeight="1" s="23">
-      <c r="A23" s="13" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12" t="inlineStr">
-        <is>
-          <t>目的：
-买家为（公海用户）且绑定省代，市代，区代
-卖家为（个人焕商）且绑定个人焕商，省代，市代，区代
-使用（易贝）支付，确定核销，买家和卖家绑定关系，易贝和现金服务费分佣</t>
-        </is>
-      </c>
-      <c r="C23" s="13" t="inlineStr">
-        <is>
-          <t>钻石会员</t>
-        </is>
-      </c>
-      <c r="D23" s="13" t="inlineStr">
-        <is>
-          <t>公海用户</t>
-        </is>
-      </c>
-      <c r="E23" s="13" t="inlineStr">
-        <is>
-          <t>个人焕商</t>
-        </is>
-      </c>
-      <c r="F23" s="13" t="inlineStr">
-        <is>
-          <t>易贝券</t>
-        </is>
-      </c>
-      <c r="G23" s="13" t="inlineStr">
-        <is>
-          <t>普通焕商商企服务</t>
-        </is>
-      </c>
-      <c r="H23" s="13" t="inlineStr">
-        <is>
-          <t>{"buyer_phone":17777777781,"seller_phone":17777777776,"买家":1000656,"卖家":1000650,"平台":10}</t>
-        </is>
-      </c>
-      <c r="I23" s="13" t="inlineStr">
-        <is>
-          <t>{'省代理商':{'销售':0.3,'业务焕商':0,'TCO':0.3},'市代理商':'未设置','区代理商':'未设置'}</t>
-        </is>
-      </c>
-      <c r="J23" s="13" t="inlineStr">
-        <is>
-          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}</t>
-        </is>
-      </c>
-      <c r="K23" s="13" t="inlineStr">
-        <is>
-          <t>[{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
-        </is>
-      </c>
-      <c r="L23" s="13" t="inlineStr">
-        <is>
-          <t>EC-2020091114235800004237</t>
-        </is>
-      </c>
-      <c r="M23" s="13" t="inlineStr">
-        <is>
-          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
-        </is>
-      </c>
-      <c r="N23" s="13" t="inlineStr">
-        <is>
-          <t>{'TCO': 1000794, '买家上级的上级id': None, '买家上级的上级身份': None}</t>
-        </is>
-      </c>
-      <c r="O23" s="13" t="inlineStr">
-        <is>
-          <t>{'储备金二级分佣比例': {'agent_id': 1000646, 'sales_ratio': Decimal('0.30'), 'tco_ratio': Decimal('0.30'), 'free_sales_ratio': Decimal('0.00')}, '支付服务费二级分佣比例': None}</t>
-        </is>
-      </c>
-      <c r="P23" s="13" t="inlineStr">
-        <is>
-          <t>[1000656, 10, 10, 1000650, 1000656, 1000650, 1000648, 1000647, 1000646, 1000794, 10]</t>
-        </is>
-      </c>
-      <c r="Q23" s="13" t="inlineStr">
-        <is>
-          <t>[Decimal('-100.00'), Decimal('100.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('27.00'), Decimal('4.50'), Decimal('3.15'), Decimal('1.35'), Decimal('9.00')]</t>
-        </is>
-      </c>
-      <c r="R23" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1988866.00'), Decimal('1988966.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942028.88'), Decimal('101941928.88'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941928.88'), Decimal('101942028.88'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('31156.58'), Decimal('31056.58'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68875.73'), Decimal('68860.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('118249.80'), Decimal('118222.80'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54194.74'), Decimal('54190.24'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19822.41'), Decimal('19819.26'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6267.69'), Decimal('6266.34'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316175295.71'), Decimal('999999316175286.71'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
-        </is>
-      </c>
-      <c r="S23" s="13" t="inlineStr">
-        <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1988866.00'), Decimal('1988966.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942028.88'), Decimal('101941928.88'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101941928.88'), Decimal('101942028.88'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('31156.58'), Decimal('31056.58'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('68875.73'), Decimal('68860.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('118249.80'), Decimal('118222.80'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54194.74'), Decimal('54190.24'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19822.41'), Decimal('19819.26'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6267.69'), Decimal('6266.34'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316175295.71'), Decimal('999999316175286.71'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
-        </is>
-      </c>
-      <c r="T23" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U23" s="28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="J21" s="13" t="n"/>
+      <c r="K21" s="15" t="n"/>
+      <c r="L21" s="15" t="n"/>
+      <c r="M21" s="15" t="n"/>
+      <c r="N21" s="15" t="n"/>
+      <c r="O21" s="15" t="n"/>
+      <c r="P21" s="15" t="n"/>
+      <c r="Q21" s="15" t="n"/>
+      <c r="R21" s="15" t="n"/>
+      <c r="S21" s="15" t="n"/>
+      <c r="T21" s="15" t="n"/>
+      <c r="U21" s="15" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation sqref="C22 C23 C1:C11 C12:C16 C17:C21 C24:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C1:C11 C12:C16 C17:C21 C22:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"普通会员,白银会员,黄金会员,铂金会员,钻石会员"</formula1>
     </dataValidation>
-    <dataValidation sqref="E22 E23 E1:E11 E12:E16 E17:E21 E24:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E1:E11 E12:E16 E17:E21 E22:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
     </dataValidation>
-    <dataValidation sqref="D22 D23 D1:D11 D12:D16 D17:D21 D24:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D1:D11 D12:D16 D17:D21 D22:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"公海用户,非公海用户"</formula1>
     </dataValidation>
-    <dataValidation sqref="F22 F23 F1:F11 F12:F16 F17:F21 F24:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F1:F11 F12:F16 F17:F21 F22:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Hobay/TestData/fenyong_data.xlsx
+++ b/Hobay/TestData/fenyong_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="430" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="430" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="解释" sheetId="1" state="visible" r:id="rId1"/>
@@ -75,6 +75,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -82,8 +89,29 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -105,21 +133,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -166,13 +181,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -181,7 +189,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -199,14 +207,6 @@
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -243,13 +243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,25 +261,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,109 +285,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +309,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,13 +507,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,9 +542,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,21 +586,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -653,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="14" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="13" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="14" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2048,7 +2048,7 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="L2" s="13" t="inlineStr">
         <is>
-          <t>EC-2020103014502600000508</t>
+          <t>EC-2020103017203900000556</t>
         </is>
       </c>
       <c r="M2" s="13" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="R2" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999999089.99'), Decimal('999999189.99'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999999088.99'), Decimal('999999089.99'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-2.00'), Decimal('100001381.98'), Decimal('100001383.98'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323691.04'), Decimal('112323591.04'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323692.04'), Decimal('112323691.04'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963168.51'), Decimal('19963166.51'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323592.04'), Decimal('112323692.04'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1000.75'), Decimal('900.75'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69158.23'), Decimal('69143.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('118921.62'), Decimal('118894.62'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54316.04'), Decimal('54311.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19914.01'), Decimal('19910.86'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6337.17'), Decimal('6335.82'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935065.88'), Decimal('999999224935056.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323591.04'), Decimal('112323592.04'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('1000.90'), Decimal('1000.75'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102671.69'), Decimal('102671.24'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('515.95'), Decimal('515.85'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('867.59'), Decimal('867.52'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.85'), Decimal('17.82'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323591.24'), Decimal('112323591.04'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999998887.99'), Decimal('999998987.99'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999998886.99'), Decimal('999998887.99'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-2.00'), Decimal('100002277.98'), Decimal('100002279.98'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323290.85'), Decimal('112323190.85'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323291.85'), Decimal('112323290.85'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963175.11'), Decimal('19963173.11'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323191.85'), Decimal('112323291.85'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1801.05'), Decimal('1701.05'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69389.23'), Decimal('69374.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('119305.38'), Decimal('119278.38'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54392.94'), Decimal('54388.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19980.71'), Decimal('19977.56'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6424.41'), Decimal('6423.06'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936679.68'), Decimal('999999224936670.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323190.85'), Decimal('112323191.85'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('1801.20'), Decimal('1801.05'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102672.59'), Decimal('102672.14'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('516.15'), Decimal('516.05'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('867.73'), Decimal('867.66'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.91'), Decimal('17.88'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323191.05'), Decimal('112323190.85'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S2" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999999089.99'), Decimal('999999189.99'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999999088.99'), Decimal('999999089.99'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-2.00'), Decimal('100001381.98'), Decimal('100001383.98'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323691.04'), Decimal('112323591.04'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323692.04'), Decimal('112323691.04'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963168.51'), Decimal('19963166.51'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323592.04'), Decimal('112323692.04'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1000.75'), Decimal('900.75'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69158.23'), Decimal('69143.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('118921.62'), Decimal('118894.62'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54316.04'), Decimal('54311.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19914.01'), Decimal('19910.86'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6337.17'), Decimal('6335.82'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935065.88'), Decimal('999999224935056.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323591.04'), Decimal('112323592.04'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('1000.90'), Decimal('1000.75'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102671.69'), Decimal('102671.24'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('515.95'), Decimal('515.85'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('867.59'), Decimal('867.52'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.85'), Decimal('17.82'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323591.24'), Decimal('112323591.04'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999998887.99'), Decimal('999998987.99'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999998886.99'), Decimal('999998887.99'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-2.00'), Decimal('100002277.98'), Decimal('100002279.98'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323290.85'), Decimal('112323190.85'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323291.85'), Decimal('112323290.85'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963175.11'), Decimal('19963173.11'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323191.85'), Decimal('112323291.85'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1801.05'), Decimal('1701.05'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69389.23'), Decimal('69374.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('119305.38'), Decimal('119278.38'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54392.94'), Decimal('54388.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19980.71'), Decimal('19977.56'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6424.41'), Decimal('6423.06'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936679.68'), Decimal('999999224936670.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323190.85'), Decimal('112323191.85'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('1801.20'), Decimal('1801.05'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102672.59'), Decimal('102672.14'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('516.15'), Decimal('516.05'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('867.73'), Decimal('867.66'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.91'), Decimal('17.88'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323191.05'), Decimal('112323190.85'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T2" s="13" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="L3" s="13" t="inlineStr">
         <is>
-          <t>EC-2020103014503400000512</t>
+          <t>EC-2020103017204900000560</t>
         </is>
       </c>
       <c r="M3" s="13" t="inlineStr">
@@ -2381,12 +2381,12 @@
       </c>
       <c r="R3" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1988656.00'), Decimal('1988756.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('112323691.24'), Decimal('112323591.24'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('112323591.24'), Decimal('112323691.24'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1100.90'), Decimal('1000.90'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69173.23'), Decimal('69158.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('118972.62'), Decimal('118945.62'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54324.54'), Decimal('54320.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19919.96'), Decimal('19916.81'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6339.72'), Decimal('6338.37'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935142.88'), Decimal('999999224935133.88'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1988456.00'), Decimal('1988556.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('112323291.05'), Decimal('112323191.05'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('112323191.05'), Decimal('112323291.05'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1901.20'), Decimal('1801.20'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69404.23'), Decimal('69389.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('119356.38'), Decimal('119329.38'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54401.44'), Decimal('54396.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19986.66'), Decimal('19983.51'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6426.96'), Decimal('6425.61'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936756.68'), Decimal('999999224936747.68'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
         </is>
       </c>
       <c r="S3" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1988656.00'), Decimal('1988756.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('112323691.24'), Decimal('112323591.24'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('112323591.24'), Decimal('112323691.24'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1100.90'), Decimal('1000.90'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69173.23'), Decimal('69158.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('118972.62'), Decimal('118945.62'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54324.54'), Decimal('54320.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19919.96'), Decimal('19916.81'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6339.72'), Decimal('6338.37'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935142.88'), Decimal('999999224935133.88'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1988456.00'), Decimal('1988556.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('112323291.05'), Decimal('112323191.05'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('112323191.05'), Decimal('112323291.05'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1901.20'), Decimal('1801.20'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69404.23'), Decimal('69389.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('119356.38'), Decimal('119329.38'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54401.44'), Decimal('54396.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19986.66'), Decimal('19983.51'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6426.96'), Decimal('6425.61'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936756.68'), Decimal('999999224936747.68'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
         </is>
       </c>
       <c r="T3" s="13" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="J4" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': Decimal('0.50')}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'个人分佣比例': Decimal('0.15'), '省分佣比例': Decimal('0.80'), '市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.50')}}</t>
         </is>
       </c>
       <c r="K4" s="13" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>EC-2020103014504400000516</t>
+          <t>EC-2020103017205800000564</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -2489,12 +2489,12 @@
       </c>
       <c r="R4" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894788.80'), Decimal('884894888.80'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894787.80'), Decimal('884894788.80'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698279.09'), Decimal('9993698281.09'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323691.24'), Decimal('112323591.24'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323692.24'), Decimal('112323691.24'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963170.51'), Decimal('19963168.51'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323592.24'), Decimal('112323692.24'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1200.90'), Decimal('1100.90'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69188.23'), Decimal('69173.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119008.32'), Decimal('118989.42'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6355.02'), Decimal('6346.92'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54333.04'), Decimal('54328.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19928.46'), Decimal('19923.96'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935219.88'), Decimal('999999224935210.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323591.24'), Decimal('112323592.24'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.15'), Decimal('100.00'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123452.41'), Decimal('123452.06'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119127.01'), Decimal('1119126.81'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182687.75'), Decimal('999898182687.65'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323591.44'), Decimal('112323591.24'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894384.80'), Decimal('884894484.80'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894383.80'), Decimal('884894384.80'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698271.09'), Decimal('9993698273.09'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323291.05'), Decimal('112323191.05'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323292.05'), Decimal('112323291.05'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963177.11'), Decimal('19963175.11'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323192.05'), Decimal('112323292.05'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('2001.20'), Decimal('1901.20'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69419.23'), Decimal('69404.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119392.08'), Decimal('119373.18'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6442.26'), Decimal('6434.16'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54409.94'), Decimal('54405.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19995.16'), Decimal('19990.66'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936833.68'), Decimal('999999224936824.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323191.05'), Decimal('112323192.05'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.75'), Decimal('100.60'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123453.80'), Decimal('123453.45'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119127.81'), Decimal('1119127.61'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182688.15'), Decimal('999898182688.05'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323191.25'), Decimal('112323191.05'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894788.80'), Decimal('884894888.80'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894787.80'), Decimal('884894788.80'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698279.09'), Decimal('9993698281.09'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323691.24'), Decimal('112323591.24'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323692.24'), Decimal('112323691.24'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963170.51'), Decimal('19963168.51'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323592.24'), Decimal('112323692.24'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1200.90'), Decimal('1100.90'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69188.23'), Decimal('69173.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119008.32'), Decimal('118989.42'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6355.02'), Decimal('6346.92'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54333.04'), Decimal('54328.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19928.46'), Decimal('19923.96'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935219.88'), Decimal('999999224935210.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323591.24'), Decimal('112323592.24'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.15'), Decimal('100.00'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123452.41'), Decimal('123452.06'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119127.01'), Decimal('1119126.81'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182687.75'), Decimal('999898182687.65'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323591.44'), Decimal('112323591.24'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894384.80'), Decimal('884894484.80'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894383.80'), Decimal('884894384.80'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698271.09'), Decimal('9993698273.09'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323291.05'), Decimal('112323191.05'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323292.05'), Decimal('112323291.05'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963177.11'), Decimal('19963175.11'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323192.05'), Decimal('112323292.05'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('2001.20'), Decimal('1901.20'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69419.23'), Decimal('69404.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119392.08'), Decimal('119373.18'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6442.26'), Decimal('6434.16'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54409.94'), Decimal('54405.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19995.16'), Decimal('19990.66'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936833.68'), Decimal('999999224936824.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323191.05'), Decimal('112323192.05'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.75'), Decimal('100.60'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123453.80'), Decimal('123453.45'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119127.81'), Decimal('1119127.61'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182688.15'), Decimal('999898182688.05'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323191.25'), Decimal('112323191.05'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J5" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': Decimal('0.50')}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'个人分佣比例': Decimal('0.15'), '省分佣比例': Decimal('0.80'), '市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.50')}}</t>
         </is>
       </c>
       <c r="K5" s="13" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="L5" s="13" t="inlineStr">
         <is>
-          <t>EC-2020103014505300000522</t>
+          <t>EC-2020103017210800000568</t>
         </is>
       </c>
       <c r="M5" s="13" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="R5" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894687.80'), Decimal('884894787.80'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894686.80'), Decimal('884894687.80'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698277.09'), Decimal('9993698279.09'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323691.44'), Decimal('112323591.44'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323692.44'), Decimal('112323691.44'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963172.51'), Decimal('19963170.51'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323592.44'), Decimal('112323692.44'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1300.90'), Decimal('1200.90'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69203.23'), Decimal('69188.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119044.02'), Decimal('119025.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6370.32'), Decimal('6362.22'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54341.54'), Decimal('54337.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19936.96'), Decimal('19932.46'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935296.88'), Decimal('999999224935287.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323591.44'), Decimal('112323592.44'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.30'), Decimal('100.15'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123452.76'), Decimal('123452.41'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119127.21'), Decimal('1119127.01'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182687.85'), Decimal('999898182687.75'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323591.64'), Decimal('112323591.44'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894283.80'), Decimal('884894383.80'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894282.80'), Decimal('884894283.80'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698269.09'), Decimal('9993698271.09'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323291.25'), Decimal('112323191.25'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323292.25'), Decimal('112323291.25'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963179.11'), Decimal('19963177.11'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323192.25'), Decimal('112323292.25'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('2101.20'), Decimal('2001.20'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69434.23'), Decimal('69419.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119427.78'), Decimal('119408.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6457.56'), Decimal('6449.46'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54418.44'), Decimal('54413.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20003.66'), Decimal('19999.16'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936910.68'), Decimal('999999224936901.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323191.25'), Decimal('112323192.25'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.90'), Decimal('100.75'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123454.15'), Decimal('123453.80'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119128.01'), Decimal('1119127.81'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182688.25'), Decimal('999898182688.15'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323191.45'), Decimal('112323191.25'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="S5" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894687.80'), Decimal('884894787.80'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894686.80'), Decimal('884894687.80'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698277.09'), Decimal('9993698279.09'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323691.44'), Decimal('112323591.44'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323692.44'), Decimal('112323691.44'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963172.51'), Decimal('19963170.51'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323592.44'), Decimal('112323692.44'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1300.90'), Decimal('1200.90'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69203.23'), Decimal('69188.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119044.02'), Decimal('119025.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6370.32'), Decimal('6362.22'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54341.54'), Decimal('54337.04'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19936.96'), Decimal('19932.46'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935296.88'), Decimal('999999224935287.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323591.44'), Decimal('112323592.44'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.30'), Decimal('100.15'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123452.76'), Decimal('123452.41'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119127.21'), Decimal('1119127.01'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182687.85'), Decimal('999898182687.75'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323591.64'), Decimal('112323591.44'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894283.80'), Decimal('884894383.80'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894282.80'), Decimal('884894283.80'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698269.09'), Decimal('9993698271.09'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323291.25'), Decimal('112323191.25'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323292.25'), Decimal('112323291.25'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963179.11'), Decimal('19963177.11'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323192.25'), Decimal('112323292.25'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('2101.20'), Decimal('2001.20'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69434.23'), Decimal('69419.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119427.78'), Decimal('119408.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6457.56'), Decimal('6449.46'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54418.44'), Decimal('54413.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20003.66'), Decimal('19999.16'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936910.68'), Decimal('999999224936901.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323191.25'), Decimal('112323192.25'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.90'), Decimal('100.75'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123454.15'), Decimal('123453.80'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119128.01'), Decimal('1119127.81'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182688.25'), Decimal('999898182688.15'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323191.45'), Decimal('112323191.25'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="T5" s="13" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>EC-2020103014510300000526</t>
+          <t>EC-2020103017211800000572</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -2705,12 +2705,12 @@
       </c>
       <c r="R6" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('989881242.05'), Decimal('989881342.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('93.00'), Decimal('999999224935457.88'), Decimal('999999224935364.88'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('7.00'), Decimal('999999224935467.88'), Decimal('999999224935460.88'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-93.00'), Decimal('999999224935371.88'), Decimal('999999224935464.88'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('69303.23'), Decimal('69203.23'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-7.00'), Decimal('69296.23'), Decimal('69303.23'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69314.23'), Decimal('69299.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119079.72'), Decimal('119060.82'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6385.62'), Decimal('6377.52'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54350.04'), Decimal('54345.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19945.46'), Decimal('19940.96'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935377.88'), Decimal('999999224935368.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-7.00'), Decimal('999999224935370.88'), Decimal('999999224935377.88'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('1.05'), Decimal('106726.25'), Decimal('106725.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('2.21'), Decimal('119081.93'), Decimal('119079.72'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.94'), Decimal('6386.56'), Decimal('6385.62'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.70'), Decimal('54350.74'), Decimal('54350.04'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.70'), Decimal('19946.16'), Decimal('19945.46'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('1.40'), Decimal('999999224935375.28'), Decimal('999999224935373.88'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('989880242.05'), Decimal('989880342.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('93.00'), Decimal('999999224937071.68'), Decimal('999999224936978.68'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('7.00'), Decimal('999999224937081.68'), Decimal('999999224937074.68'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-93.00'), Decimal('999999224936985.68'), Decimal('999999224937078.68'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('69534.23'), Decimal('69434.23'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-7.00'), Decimal('69527.23'), Decimal('69534.23'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69545.23'), Decimal('69530.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119463.48'), Decimal('119444.58'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6472.86'), Decimal('6464.76'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54426.94'), Decimal('54422.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20012.16'), Decimal('20007.66'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936991.68'), Decimal('999999224936982.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-7.00'), Decimal('999999224936984.68'), Decimal('999999224936991.68'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('1.05'), Decimal('106726.85'), Decimal('106725.80'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('2.21'), Decimal('119465.69'), Decimal('119463.48'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.94'), Decimal('6473.80'), Decimal('6472.86'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.70'), Decimal('54427.64'), Decimal('54426.94'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.70'), Decimal('20012.86'), Decimal('20012.16'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('1.40'), Decimal('999999224936989.08'), Decimal('999999224936987.68'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('989881242.05'), Decimal('989881342.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999224935460.88'), Decimal('999999224935364.88'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999224935464.88'), Decimal('999999224935460.88'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999224935368.88'), Decimal('999999224935464.88'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('69303.23'), Decimal('69203.23'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('69299.23'), Decimal('69303.23'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69314.23'), Decimal('69299.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119079.72'), Decimal('119060.82'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6385.62'), Decimal('6377.52'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54350.04'), Decimal('54345.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19945.46'), Decimal('19940.96'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224935377.88'), Decimal('999999224935368.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999224935373.88'), Decimal('999999224935377.88'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.60'), Decimal('106725.80'), Decimal('106725.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('1.26'), Decimal('119080.98'), Decimal('119079.72'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.54'), Decimal('6386.16'), Decimal('6385.62'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.40'), Decimal('54350.44'), Decimal('54350.04'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('19945.86'), Decimal('19945.46'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999224935374.68'), Decimal('999999224935373.88'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('989880242.05'), Decimal('989880342.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999224937074.68'), Decimal('999999224936978.68'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999224937078.68'), Decimal('999999224937074.68'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999224936982.68'), Decimal('999999224937078.68'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('69534.23'), Decimal('69434.23'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('69530.23'), Decimal('69534.23'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69545.23'), Decimal('69530.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119463.48'), Decimal('119444.58'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6472.86'), Decimal('6464.76'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54426.94'), Decimal('54422.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20012.16'), Decimal('20007.66'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936991.68'), Decimal('999999224936982.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999224936987.68'), Decimal('999999224936991.68'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.60'), Decimal('106726.40'), Decimal('106725.80'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('1.26'), Decimal('119464.74'), Decimal('119463.48'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.54'), Decimal('6473.40'), Decimal('6472.86'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.40'), Decimal('54427.34'), Decimal('54426.94'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('20012.56'), Decimal('20012.16'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999224936988.48'), Decimal('999999224936987.68'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="T6" s="13" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="U6" s="13" t="inlineStr">
         <is>
-          <t>用例错误！错误原因是：第2行，assert (10, 2, 3, De...364.88'), ...) == (10, 2, 3, Dec...364.88'), ...)
+          <t>用例错误！错误原因是：第2行，assert (10, 2, 3, De...978.68'), ...) == (10, 2, 3, Dec...978.68'), ...)
   At index 3 diff: Decimal('93.00') != Decimal('96.00')
   Full diff:
   (10,
@@ -3637,14 +3637,14 @@
     <dataValidation sqref="C1:C11 C12:C16 C17:C21 C22:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"普通会员,白银会员,黄金会员,铂金会员,钻石会员"</formula1>
     </dataValidation>
-    <dataValidation sqref="E1:E11 E12:E16 E17:E21 E22:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
-    </dataValidation>
     <dataValidation sqref="D1:D11 D12:D16 D17:D21 D22:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"公海用户,非公海用户"</formula1>
     </dataValidation>
     <dataValidation sqref="F1:F11 F12:F16 F17:F21 F22:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E1:E11 E12:E16 E17:E21 E22:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6892,14 +6892,14 @@
     <dataValidation sqref="C1 C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"普通会员,白银会员,黄金会员,铂金会员,钻石会员"</formula1>
     </dataValidation>
-    <dataValidation sqref="E1 E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
-    </dataValidation>
     <dataValidation sqref="D1 D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"公海用户,非公海用户"</formula1>
     </dataValidation>
     <dataValidation sqref="F1 F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E1 E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8293,10 +8293,10 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8486,7 +8486,7 @@
       </c>
       <c r="L2" s="13" t="inlineStr">
         <is>
-          <t>EC-2020102213360400009074</t>
+          <t>EC-2020103017192600009196</t>
         </is>
       </c>
       <c r="M2" s="13" t="inlineStr">
@@ -8511,17 +8511,17 @@
       </c>
       <c r="Q2" s="13" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.30'), Decimal('10.00'), Decimal('0.10'), Decimal('0.30'), Decimal('-10.00'), Decimal('10.00'), Decimal('-65.00'), Decimal('15.00'), Decimal('35.00'), Decimal('2.00'), Decimal('1.50'), Decimal('1.50'), Decimal('10.00'), Decimal('-0.10'), Decimal('0.02'), Decimal('0.06'), Decimal('0.01'), Decimal('0.01')]</t>
+          <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.20'), Decimal('10.00'), Decimal('0.10'), Decimal('0.20'), Decimal('-10.00'), Decimal('10.00'), Decimal('-65.00'), Decimal('15.00'), Decimal('35.00'), Decimal('2.00'), Decimal('1.50'), Decimal('1.50'), Decimal('10.00'), Decimal('-0.10'), Decimal('0.02'), Decimal('0.06'), Decimal('0.01'), Decimal('0.01')]</t>
         </is>
       </c>
       <c r="R2" s="13" t="inlineStr">
         <is>
-          <t>((1000419, 2, 3, Decimal('-10.00'), Decimal('99999838.10'), Decimal('99999848.10'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000419, 2, 1, Decimal('-0.10'), Decimal('99999838.00'), Decimal('99999838.10'), '易贝购买商品：扣除买家易贝服务费', 1), (1000419, 2, 1, Decimal('-0.30'), Decimal('42703.20'), Decimal('42703.50'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('-74646.75'), Decimal('-74656.75'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('-74646.65'), Decimal('-74646.75'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('4551031.12'), Decimal('4551030.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('-74656.65'), Decimal('-74646.65'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('750.28'), Decimal('740.28'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('5910.00'), Decimal('5895.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('35.00'), Decimal('6868.85'), Decimal('6833.85'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000348, 2, 10, Decimal('2.00'), Decimal('3628.30'), Decimal('3626.30'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('1.50'), Decimal('1000578.60'), Decimal('1000577.10'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('1.50'), Decimal('10578.60'), Decimal('10577.10'), '销售员分佣金额（现金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528534610.12'), Decimal('999999528534600.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('-74656.75'), Decimal('-74656.65'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000504, 2, 2, Decimal('0.02'), Decimal('750.30'), Decimal('750.28'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000284, 2, 2, Decimal('0.06'), Decimal('222.35'), Decimal('222.29'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000348, 2, 2, Decimal('0.01'), Decimal('1.80'), Decimal('1.79'), '易贝购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.01'), Decimal('-74656.74'), Decimal('-74656.75'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000419, 2, 3, Decimal('-10.00'), Decimal('99999767.40'), Decimal('99999777.40'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000419, 2, 1, Decimal('-0.10'), Decimal('99999767.30'), Decimal('99999767.40'), '易贝购买商品：扣除买家易贝服务费', 1), (1000419, 2, 1, Decimal('-0.20'), Decimal('43601.20'), Decimal('43601.40'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('-74649.66'), Decimal('-74659.66'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('-74649.56'), Decimal('-74649.66'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.20'), Decimal('4551039.72'), Decimal('4551039.52'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('-74659.56'), Decimal('-74649.56'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('800.30'), Decimal('790.30'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('6084.20'), Decimal('6069.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('35.00'), Decimal('7156.85'), Decimal('7121.85'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000348, 2, 10, Decimal('2.00'), Decimal('3696.70'), Decimal('3694.70'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('1.50'), Decimal('1000707.30'), Decimal('1000705.80'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('1.50'), Decimal('10707.30'), Decimal('10705.80'), '销售员分佣金额（现金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528535928.12'), Decimal('999999528535918.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('-74659.66'), Decimal('-74659.56'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000504, 2, 2, Decimal('0.02'), Decimal('800.32'), Decimal('800.30'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000284, 2, 2, Decimal('0.06'), Decimal('222.83'), Decimal('222.77'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000348, 2, 2, Decimal('0.01'), Decimal('1.87'), Decimal('1.86'), '易贝购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.01'), Decimal('-74659.65'), Decimal('-74659.66'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S2" s="13" t="inlineStr">
         <is>
-          <t>((1000419, 2, 3, Decimal('-10.00'), Decimal('99999838.10'), Decimal('99999848.10'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000419, 2, 1, Decimal('-0.10'), Decimal('99999838.00'), Decimal('99999838.10'), '易贝购买商品：扣除买家易贝服务费', 1), (1000419, 2, 1, Decimal('-0.30'), Decimal('42703.20'), Decimal('42703.50'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('-74646.75'), Decimal('-74656.75'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('-74646.65'), Decimal('-74646.75'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('4551031.12'), Decimal('4551030.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('-74656.65'), Decimal('-74646.65'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('750.28'), Decimal('740.28'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('5910.00'), Decimal('5895.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('35.00'), Decimal('6868.85'), Decimal('6833.85'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000348, 2, 10, Decimal('2.00'), Decimal('3628.30'), Decimal('3626.30'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('1.50'), Decimal('1000578.60'), Decimal('1000577.10'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('1.50'), Decimal('10578.60'), Decimal('10577.10'), '销售员分佣金额（现金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528534610.12'), Decimal('999999528534600.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('-74656.75'), Decimal('-74656.65'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000504, 2, 2, Decimal('0.02'), Decimal('750.30'), Decimal('750.28'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000284, 2, 2, Decimal('0.06'), Decimal('222.35'), Decimal('222.29'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000348, 2, 2, Decimal('0.01'), Decimal('1.80'), Decimal('1.79'), '易贝购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.01'), Decimal('-74656.74'), Decimal('-74656.75'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000419, 2, 3, Decimal('-10.00'), Decimal('99999767.40'), Decimal('99999777.40'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000419, 2, 1, Decimal('-0.10'), Decimal('99999767.30'), Decimal('99999767.40'), '易贝购买商品：扣除买家易贝服务费', 1), (1000419, 2, 1, Decimal('-0.20'), Decimal('43601.20'), Decimal('43601.40'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('-74649.66'), Decimal('-74659.66'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('-74649.56'), Decimal('-74649.66'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.20'), Decimal('4551039.72'), Decimal('4551039.52'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('-74659.56'), Decimal('-74649.56'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('800.30'), Decimal('790.30'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('6084.20'), Decimal('6069.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('35.00'), Decimal('7156.85'), Decimal('7121.85'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000348, 2, 10, Decimal('2.00'), Decimal('3696.70'), Decimal('3694.70'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('1.50'), Decimal('1000707.30'), Decimal('1000705.80'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('1.50'), Decimal('10707.30'), Decimal('10705.80'), '销售员分佣金额（现金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528535928.12'), Decimal('999999528535918.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('-74659.66'), Decimal('-74659.56'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000504, 2, 2, Decimal('0.02'), Decimal('800.32'), Decimal('800.30'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000284, 2, 2, Decimal('0.06'), Decimal('222.83'), Decimal('222.77'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000348, 2, 2, Decimal('0.01'), Decimal('1.87'), Decimal('1.86'), '易贝购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.01'), Decimal('-74659.65'), Decimal('-74659.66'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T2" s="13" t="inlineStr">
@@ -8594,7 +8594,7 @@
       </c>
       <c r="L3" s="13" t="inlineStr">
         <is>
-          <t>EC-2020102213361100009078</t>
+          <t>EC-2020103017193400009200</t>
         </is>
       </c>
       <c r="M3" s="13" t="inlineStr">
@@ -8624,12 +8624,12 @@
       </c>
       <c r="R3" s="13" t="inlineStr">
         <is>
-          <t>((1000419, 2, 3, Decimal('-10.00'), Decimal('999610.00'), Decimal('999620.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('10.00'), Decimal('-74646.74'), Decimal('-74656.74'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-10.00'), Decimal('-74656.74'), Decimal('-74646.74'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('760.30'), Decimal('750.30'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('5925.00'), Decimal('5910.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('35.00'), Decimal('6928.35'), Decimal('6893.35'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000348, 2, 10, Decimal('2.00'), Decimal('3631.70'), Decimal('3629.70'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('1.50'), Decimal('1000581.15'), Decimal('1000579.65'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('1.50'), Decimal('10581.15'), Decimal('10579.65'), '销售员分佣金额（现金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528534692.12'), Decimal('999999528534682.12'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+          <t>((1000419, 2, 3, Decimal('-10.00'), Decimal('999550.00'), Decimal('999560.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('10.00'), Decimal('-74649.65'), Decimal('-74659.65'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-10.00'), Decimal('-74659.65'), Decimal('-74649.65'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('810.32'), Decimal('800.32'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('6099.20'), Decimal('6084.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('35.00'), Decimal('7216.35'), Decimal('7181.35'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000348, 2, 10, Decimal('2.00'), Decimal('3700.10'), Decimal('3698.10'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('1.50'), Decimal('1000709.85'), Decimal('1000708.35'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('1.50'), Decimal('10709.85'), Decimal('10708.35'), '销售员分佣金额（现金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528536010.12'), Decimal('999999528536000.12'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
         </is>
       </c>
       <c r="S3" s="13" t="inlineStr">
         <is>
-          <t>((1000419, 2, 3, Decimal('-10.00'), Decimal('999610.00'), Decimal('999620.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('10.00'), Decimal('-74646.74'), Decimal('-74656.74'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-10.00'), Decimal('-74656.74'), Decimal('-74646.74'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('760.30'), Decimal('750.30'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('5925.00'), Decimal('5910.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('35.00'), Decimal('6928.35'), Decimal('6893.35'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000348, 2, 10, Decimal('2.00'), Decimal('3631.70'), Decimal('3629.70'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('1.50'), Decimal('1000581.15'), Decimal('1000579.65'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('1.50'), Decimal('10581.15'), Decimal('10579.65'), '销售员分佣金额（现金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528534692.12'), Decimal('999999528534682.12'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+          <t>((1000419, 2, 3, Decimal('-10.00'), Decimal('999550.00'), Decimal('999560.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('10.00'), Decimal('-74649.65'), Decimal('-74659.65'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-10.00'), Decimal('-74659.65'), Decimal('-74649.65'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('810.32'), Decimal('800.32'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('6099.20'), Decimal('6084.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('35.00'), Decimal('7216.35'), Decimal('7181.35'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000348, 2, 10, Decimal('2.00'), Decimal('3700.10'), Decimal('3698.10'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('1.50'), Decimal('1000709.85'), Decimal('1000708.35'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('1.50'), Decimal('10709.85'), Decimal('10708.35'), '销售员分佣金额（现金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528536010.12'), Decimal('999999528536000.12'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
         </is>
       </c>
       <c r="T3" s="13" t="inlineStr">
@@ -8692,17 +8692,17 @@
       </c>
       <c r="J4" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'省分佣比例': Decimal('0.80'), '市分佣比例': Decimal('0.70'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}, '支付服务费分佣': {'个人分佣比例': Decimal('0.15'), '区分佣比例': Decimal('0.30'), '省分佣比例': None, '市分佣比例': None}}</t>
+          <t>{'储备池分佣': {'省分佣比例': Decimal('0.80'), '市分佣比例': Decimal('0.70'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15'), '区分佣比例': Decimal('0.30'), '省分佣比例': None}}</t>
         </is>
       </c>
       <c r="K4" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': 1000504}, {'市代理商': 1000284, '省代理商': 1000348, '区代理商': None}], '支付服务费分佣': [{'个人焕商': 2000408}, {'市代理商': None, '区代理商': 1000445, '省代理商': None}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': 1000504}, {'市代理商': 1000284, '省代理商': 1000348, '区代理商': None}], '支付服务费分佣': [{'个人焕商': 2000408}, {'市代理商': 1000447, '区代理商': 1000445, '省代理商': None}]}</t>
         </is>
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>EC-2020102213361800009082</t>
+          <t>EC-2020103017194300009204</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -8722,22 +8722,22 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000504, 1000419, 1000504, 1000284, 1000520, 1000519, 1000348, 10, 10, 2000408, 1000445, 10]</t>
+          <t>[1000166, 1000166, 1000166, 10, 10, 10, 10, 1000504, 1000419, 1000504, 1000284, 1000520, 1000519, 1000348, 10, 10, 2000408, 1000445, 1000447, 10]</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.30'), Decimal('10.00'), Decimal('0.10'), Decimal('0.30'), Decimal('-10.00'), Decimal('10.00'), Decimal('-65.00'), Decimal('15.00'), Decimal('14.00'), Decimal('10.50'), Decimal('10.50'), Decimal('5.00'), Decimal('10.00'), Decimal('-0.10'), Decimal('0.02'), Decimal('0.02'), Decimal('0.06')]</t>
+          <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.20'), Decimal('10.00'), Decimal('0.10'), Decimal('0.20'), Decimal('-10.00'), Decimal('10.00'), Decimal('-65.00'), Decimal('15.00'), Decimal('14.00'), Decimal('10.50'), Decimal('10.50'), Decimal('5.00'), Decimal('10.00'), Decimal('-0.10'), Decimal('0.02'), Decimal('0.02'), Decimal('0.03'), Decimal('0.03')]</t>
         </is>
       </c>
       <c r="R4" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-10.00'), Decimal('98989731.25'), Decimal('98989741.25'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.10'), Decimal('98989731.15'), Decimal('98989731.25'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.30'), Decimal('17792.91'), Decimal('17793.21'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('-74646.74'), Decimal('-74656.74'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('-74646.64'), Decimal('-74646.74'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('4551031.42'), Decimal('4551031.12'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('-74656.64'), Decimal('-74646.64'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('770.30'), Decimal('760.30'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('5940.00'), Decimal('5925.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('14.00'), Decimal('6952.15'), Decimal('6938.15'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('10.50'), Decimal('1000599.00'), Decimal('1000588.50'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('10.50'), Decimal('10599.00'), Decimal('10588.50'), '销售员分佣金额（现金）收入', 2), (1000348, 2, 10, Decimal('5.00'), Decimal('3640.20'), Decimal('3635.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528534774.12'), Decimal('999999528534764.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('-74656.74'), Decimal('-74656.64'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (2000408, 2, 2, Decimal('0.02'), Decimal('10000031.62'), Decimal('10000031.60'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000445, 2, 2, Decimal('0.02'), Decimal('10229980.26'), Decimal('10229980.24'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.06'), Decimal('-74656.68'), Decimal('-74656.74'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-10.00'), Decimal('90.15'), Decimal('100.15'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.10'), Decimal('90.05'), Decimal('90.15'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.20'), Decimal('17791.21'), Decimal('17791.41'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('-74649.65'), Decimal('-74659.65'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('-74649.55'), Decimal('-74649.65'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.20'), Decimal('4551039.92'), Decimal('4551039.72'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('-74659.55'), Decimal('-74649.55'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('820.32'), Decimal('810.32'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('6114.20'), Decimal('6099.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('14.00'), Decimal('7240.15'), Decimal('7226.15'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('10.50'), Decimal('1000727.70'), Decimal('1000717.20'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('10.50'), Decimal('10727.70'), Decimal('10717.20'), '销售员分佣金额（现金）收入', 2), (1000348, 2, 10, Decimal('5.00'), Decimal('3708.60'), Decimal('3703.60'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528536092.12'), Decimal('999999528536082.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('-74659.65'), Decimal('-74659.55'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (2000408, 2, 2, Decimal('0.02'), Decimal('10000031.74'), Decimal('10000031.72'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000445, 2, 2, Decimal('0.02'), Decimal('999899.02'), Decimal('999899.00'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000447, 2, 2, Decimal('0.03'), Decimal('0.03'), Decimal('0.00'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.03'), Decimal('-74659.62'), Decimal('-74659.65'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-10.00'), Decimal('98989731.25'), Decimal('98989741.25'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.10'), Decimal('98989731.15'), Decimal('98989731.25'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.30'), Decimal('17792.91'), Decimal('17793.21'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('-74646.74'), Decimal('-74656.74'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('-74646.64'), Decimal('-74646.74'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('4551031.42'), Decimal('4551031.12'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('-74656.64'), Decimal('-74646.64'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('770.30'), Decimal('760.30'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('5940.00'), Decimal('5925.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('14.00'), Decimal('6952.15'), Decimal('6938.15'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('10.50'), Decimal('1000599.00'), Decimal('1000588.50'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('10.50'), Decimal('10599.00'), Decimal('10588.50'), '销售员分佣金额（现金）收入', 2), (1000348, 2, 10, Decimal('5.00'), Decimal('3640.20'), Decimal('3635.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528534774.12'), Decimal('999999528534764.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('-74656.74'), Decimal('-74656.64'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (2000408, 2, 2, Decimal('0.02'), Decimal('10000031.62'), Decimal('10000031.60'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000445, 2, 2, Decimal('0.02'), Decimal('10229980.26'), Decimal('10229980.24'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.06'), Decimal('-74656.68'), Decimal('-74656.74'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-10.00'), Decimal('90.15'), Decimal('100.15'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.10'), Decimal('90.05'), Decimal('90.15'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.20'), Decimal('17791.21'), Decimal('17791.41'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('-74649.65'), Decimal('-74659.65'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('-74649.55'), Decimal('-74649.65'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.20'), Decimal('4551039.92'), Decimal('4551039.72'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('-74659.55'), Decimal('-74649.55'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('820.32'), Decimal('810.32'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('6114.20'), Decimal('6099.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('14.00'), Decimal('7240.15'), Decimal('7226.15'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('10.50'), Decimal('1000727.70'), Decimal('1000717.20'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('10.50'), Decimal('10727.70'), Decimal('10717.20'), '销售员分佣金额（现金）收入', 2), (1000348, 2, 10, Decimal('5.00'), Decimal('3708.60'), Decimal('3703.60'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528536092.12'), Decimal('999999528536082.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('-74659.65'), Decimal('-74659.55'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (2000408, 2, 2, Decimal('0.02'), Decimal('10000031.74'), Decimal('10000031.72'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000445, 2, 2, Decimal('0.02'), Decimal('999899.02'), Decimal('999899.00'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000447, 2, 2, Decimal('0.03'), Decimal('0.03'), Decimal('0.00'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.03'), Decimal('-74659.62'), Decimal('-74659.65'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -8810,7 +8810,7 @@
       </c>
       <c r="L5" s="13" t="inlineStr">
         <is>
-          <t>EC-2020102213362500009086</t>
+          <t>EC-2020103017195200009208</t>
         </is>
       </c>
       <c r="M5" s="13" t="inlineStr">
@@ -8835,17 +8835,17 @@
       </c>
       <c r="Q5" s="13" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.30'), Decimal('10.00'), Decimal('0.10'), Decimal('0.30'), Decimal('-10.00'), Decimal('10.00'), Decimal('-65.00'), Decimal('15.00'), Decimal('14.00'), Decimal('10.50'), Decimal('10.50'), Decimal('5.00'), Decimal('10.00'), Decimal('-0.10'), Decimal('0.05'), Decimal('0.05')]</t>
+          <t>[Decimal('-10.00'), Decimal('-0.10'), Decimal('-0.20'), Decimal('10.00'), Decimal('0.10'), Decimal('0.20'), Decimal('-10.00'), Decimal('10.00'), Decimal('-65.00'), Decimal('15.00'), Decimal('14.00'), Decimal('10.50'), Decimal('10.50'), Decimal('5.00'), Decimal('10.00'), Decimal('-0.10'), Decimal('0.05'), Decimal('0.05')]</t>
         </is>
       </c>
       <c r="R5" s="13" t="inlineStr">
         <is>
-          <t>((1000474, 2, 3, Decimal('-10.00'), Decimal('9999898.80'), Decimal('9999908.80'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000474, 2, 1, Decimal('-0.10'), Decimal('9999898.70'), Decimal('9999898.80'), '亲情购买商品：扣除买家易贝服务费', 1), (1000474, 2, 1, Decimal('-0.30'), Decimal('32894.70'), Decimal('32895.00'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('-74646.68'), Decimal('-74656.68'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('-74646.58'), Decimal('-74646.68'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('4551031.72'), Decimal('4551031.42'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('-74656.58'), Decimal('-74646.58'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('780.30'), Decimal('770.30'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('5955.00'), Decimal('5940.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('14.00'), Decimal('6975.95'), Decimal('6961.95'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('10.50'), Decimal('1000616.85'), Decimal('1000606.35'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('10.50'), Decimal('10616.85'), Decimal('10606.35'), '销售员分佣金额（现金）收入', 2), (1000348, 2, 10, Decimal('5.00'), Decimal('3648.70'), Decimal('3643.70'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528534856.12'), Decimal('999999528534846.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('-74656.68'), Decimal('-74656.58'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (100182, 2, 2, Decimal('0.05'), Decimal('277668.03'), Decimal('277667.98'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.05'), Decimal('-74656.63'), Decimal('-74656.68'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000474, 2, 3, Decimal('-10.00'), Decimal('9999838.20'), Decimal('9999848.20'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000474, 2, 1, Decimal('-0.10'), Decimal('9999838.10'), Decimal('9999838.20'), '亲情购买商品：扣除买家易贝服务费', 1), (1000474, 2, 1, Decimal('-0.20'), Decimal('32893.00'), Decimal('32893.20'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('-74649.62'), Decimal('-74659.62'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('-74649.52'), Decimal('-74649.62'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.20'), Decimal('4551040.12'), Decimal('4551039.92'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('-74659.52'), Decimal('-74649.52'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('830.32'), Decimal('820.32'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('6129.20'), Decimal('6114.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('14.00'), Decimal('7263.95'), Decimal('7249.95'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('10.50'), Decimal('1000745.55'), Decimal('1000735.05'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('10.50'), Decimal('10745.55'), Decimal('10735.05'), '销售员分佣金额（现金）收入', 2), (1000348, 2, 10, Decimal('5.00'), Decimal('3717.10'), Decimal('3712.10'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528536174.12'), Decimal('999999528536164.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('-74659.62'), Decimal('-74659.52'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (100182, 2, 2, Decimal('0.05'), Decimal('277668.33'), Decimal('277668.28'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.05'), Decimal('-74659.57'), Decimal('-74659.62'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="S5" s="13" t="inlineStr">
         <is>
-          <t>((1000474, 2, 3, Decimal('-10.00'), Decimal('9999898.80'), Decimal('9999908.80'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000474, 2, 1, Decimal('-0.10'), Decimal('9999898.70'), Decimal('9999898.80'), '亲情购买商品：扣除买家易贝服务费', 1), (1000474, 2, 1, Decimal('-0.30'), Decimal('32894.70'), Decimal('32895.00'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('-74646.68'), Decimal('-74656.68'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('-74646.58'), Decimal('-74646.68'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.30'), Decimal('4551031.72'), Decimal('4551031.42'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('-74656.58'), Decimal('-74646.58'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('780.30'), Decimal('770.30'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('5955.00'), Decimal('5940.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('14.00'), Decimal('6975.95'), Decimal('6961.95'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('10.50'), Decimal('1000616.85'), Decimal('1000606.35'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('10.50'), Decimal('10616.85'), Decimal('10606.35'), '销售员分佣金额（现金）收入', 2), (1000348, 2, 10, Decimal('5.00'), Decimal('3648.70'), Decimal('3643.70'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528534856.12'), Decimal('999999528534846.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('-74656.68'), Decimal('-74656.58'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (100182, 2, 2, Decimal('0.05'), Decimal('277668.03'), Decimal('277667.98'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.05'), Decimal('-74656.63'), Decimal('-74656.68'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000474, 2, 3, Decimal('-10.00'), Decimal('9999838.20'), Decimal('9999848.20'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000474, 2, 1, Decimal('-0.10'), Decimal('9999838.10'), Decimal('9999838.20'), '亲情购买商品：扣除买家易贝服务费', 1), (1000474, 2, 1, Decimal('-0.20'), Decimal('32893.00'), Decimal('32893.20'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('10.00'), Decimal('-74649.62'), Decimal('-74659.62'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.10'), Decimal('-74649.52'), Decimal('-74649.62'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.20'), Decimal('4551040.12'), Decimal('4551039.92'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-10.00'), Decimal('-74659.52'), Decimal('-74649.52'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000504, 2, 3, Decimal('10.00'), Decimal('830.32'), Decimal('820.32'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('6129.20'), Decimal('6114.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('14.00'), Decimal('7263.95'), Decimal('7249.95'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('10.50'), Decimal('1000745.55'), Decimal('1000735.05'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('10.50'), Decimal('10745.55'), Decimal('10735.05'), '销售员分佣金额（现金）收入', 2), (1000348, 2, 10, Decimal('5.00'), Decimal('3717.10'), Decimal('3712.10'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528536174.12'), Decimal('999999528536164.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.10'), Decimal('-74659.62'), Decimal('-74659.52'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (100182, 2, 2, Decimal('0.05'), Decimal('277668.33'), Decimal('277668.28'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.05'), Decimal('-74659.57'), Decimal('-74659.62'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="T5" s="13" t="inlineStr">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>EC-2020102213353600009070</t>
+          <t>EC-2020103017181700009192</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -8943,17 +8943,17 @@
       </c>
       <c r="Q6" s="13" t="inlineStr">
         <is>
-          <t>[Decimal('-10.00'), Decimal('9.00'), Decimal('1.00'), Decimal('-9.00'), Decimal('10.00'), Decimal('-1.00'), Decimal('-65.00'), Decimal('15.00'), Decimal('14.00'), Decimal('10.50'), Decimal('10.50'), Decimal('5.00'), Decimal('10.00'), Decimal('-1.00'), Decimal('1.00')]</t>
+          <t>[Decimal('-10.00'), Decimal('9.80'), Decimal('0.20'), Decimal('-9.80'), Decimal('10.00'), Decimal('-0.20'), Decimal('-65.00'), Decimal('15.00'), Decimal('14.00'), Decimal('10.50'), Decimal('10.50'), Decimal('5.00'), Decimal('10.00'), Decimal('-0.20'), Decimal('0.20')]</t>
         </is>
       </c>
       <c r="R6" s="13" t="inlineStr">
         <is>
-          <t>((1000419, 2, 3, Decimal('-10.00'), Decimal('99959070.00'), Decimal('99959080.00'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('9.00'), Decimal('999999528534526.12'), Decimal('999999528534517.12'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('1.00'), Decimal('999999528534527.12'), Decimal('999999528534526.12'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-9.00'), Decimal('999999528534518.12'), Decimal('999999528534527.12'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000504, 2, 3, Decimal('10.00'), Decimal('5881.00'), Decimal('5871.00'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000504, 2, 1, Decimal('-1.00'), Decimal('5880.00'), Decimal('5881.00'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('5895.00'), Decimal('5880.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('14.00'), Decimal('6809.35'), Decimal('6795.35'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('10.50'), Decimal('1000576.05'), Decimal('1000565.55'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('10.50'), Decimal('10576.05'), Decimal('10565.55'), '销售员分佣金额（现金）收入', 2), (1000348, 2, 10, Decimal('5.00'), Decimal('3624.90'), Decimal('3619.90'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528534528.12'), Decimal('999999528534518.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('999999528534527.12'), Decimal('999999528534528.12'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (10, 2, 2, Decimal('1.00'), Decimal('999999528534528.12'), Decimal('999999528534527.12'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000419, 2, 3, Decimal('-10.00'), Decimal('99958070.00'), Decimal('99958080.00'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('9.80'), Decimal('999999528535845.72'), Decimal('999999528535835.92'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('0.20'), Decimal('999999528535845.92'), Decimal('999999528535845.72'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-9.80'), Decimal('999999528535836.12'), Decimal('999999528535845.92'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000504, 2, 3, Decimal('10.00'), Decimal('6054.40'), Decimal('6044.40'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000504, 2, 1, Decimal('-0.20'), Decimal('6054.20'), Decimal('6054.40'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('6069.20'), Decimal('6054.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('14.00'), Decimal('7097.35'), Decimal('7083.35'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('10.50'), Decimal('1000704.75'), Decimal('1000694.25'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('10.50'), Decimal('10704.75'), Decimal('10694.25'), '销售员分佣金额（现金）收入', 2), (1000348, 2, 10, Decimal('5.00'), Decimal('3693.30'), Decimal('3688.30'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528535846.12'), Decimal('999999528535836.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.20'), Decimal('999999528535845.92'), Decimal('999999528535846.12'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (10, 2, 2, Decimal('0.20'), Decimal('999999528535846.12'), Decimal('999999528535845.92'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
-          <t>((1000419, 2, 3, Decimal('-10.00'), Decimal('99959070.00'), Decimal('99959080.00'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('9.00'), Decimal('999999528534526.12'), Decimal('999999528534517.12'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('1.00'), Decimal('999999528534527.12'), Decimal('999999528534526.12'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-9.00'), Decimal('999999528534518.12'), Decimal('999999528534527.12'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000504, 2, 3, Decimal('10.00'), Decimal('5881.00'), Decimal('5871.00'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000504, 2, 1, Decimal('-1.00'), Decimal('5880.00'), Decimal('5881.00'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('5895.00'), Decimal('5880.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('14.00'), Decimal('6809.35'), Decimal('6795.35'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('10.50'), Decimal('1000576.05'), Decimal('1000565.55'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('10.50'), Decimal('10576.05'), Decimal('10565.55'), '销售员分佣金额（现金）收入', 2), (1000348, 2, 10, Decimal('5.00'), Decimal('3624.90'), Decimal('3619.90'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528534528.12'), Decimal('999999528534518.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('999999528534527.12'), Decimal('999999528534528.12'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (10, 2, 2, Decimal('1.00'), Decimal('999999528534528.12'), Decimal('999999528534527.12'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000419, 2, 3, Decimal('-10.00'), Decimal('99958070.00'), Decimal('99958080.00'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('9.80'), Decimal('999999528535845.72'), Decimal('999999528535835.92'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('0.20'), Decimal('999999528535845.92'), Decimal('999999528535845.72'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-9.80'), Decimal('999999528535836.12'), Decimal('999999528535845.92'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000504, 2, 3, Decimal('10.00'), Decimal('6054.40'), Decimal('6044.40'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000504, 2, 1, Decimal('-0.20'), Decimal('6054.20'), Decimal('6054.40'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000419, 2, 9, Decimal('-65.00'), Decimal('0.00'), Decimal('65.00'), '购买商品：扣除买家储备金', 11), (1000504, 2, 10, Decimal('15.00'), Decimal('6069.20'), Decimal('6054.20'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000284, 2, 10, Decimal('14.00'), Decimal('7097.35'), Decimal('7083.35'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000520, 2, 11, Decimal('10.50'), Decimal('1000704.75'), Decimal('1000694.25'), 'TCO分佣金额（现金）收入', 2), (1000519, 2, 11, Decimal('10.50'), Decimal('10704.75'), Decimal('10694.25'), '销售员分佣金额（现金）收入', 2), (1000348, 2, 10, Decimal('5.00'), Decimal('3693.30'), Decimal('3688.30'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('10.00'), Decimal('999999528535846.12'), Decimal('999999528535836.12'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.20'), Decimal('999999528535845.92'), Decimal('999999528535846.12'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (10, 2, 2, Decimal('0.20'), Decimal('999999528535846.12'), Decimal('999999528535845.92'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="T6" s="13" t="inlineStr">
@@ -10334,14 +10334,14 @@
     <dataValidation sqref="C1:C11 C12:C16 C17:C21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"普通会员,白银会员,黄金会员,铂金会员,钻石会员"</formula1>
     </dataValidation>
-    <dataValidation sqref="E1:E11 E12:E16 E17:E21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
-    </dataValidation>
     <dataValidation sqref="D1:D11 D12:D16 D17:D21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"公海用户,非公海用户"</formula1>
     </dataValidation>
     <dataValidation sqref="F1:F11 F12:F16 F17:F21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E1:E11 E12:E16 E17:E21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Hobay/TestData/fenyong_data.xlsx
+++ b/Hobay/TestData/fenyong_data.xlsx
@@ -2243,7 +2243,7 @@
       </c>
       <c r="L2" s="13" t="inlineStr">
         <is>
-          <t>EC-2020103017203900000556</t>
+          <t>EC-2020111211564300000926</t>
         </is>
       </c>
       <c r="M2" s="13" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>EC-2020103017211800000572</t>
+          <t>EC-2020111212012600000930</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">

--- a/Hobay/TestData/fenyong_data.xlsx
+++ b/Hobay/TestData/fenyong_data.xlsx
@@ -2675,7 +2675,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>EC-2020111212012600000930</t>
+          <t>EC-2020111213450600000934</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">

--- a/Hobay/TestData/fenyong_data.xlsx
+++ b/Hobay/TestData/fenyong_data.xlsx
@@ -2243,7 +2243,7 @@
       </c>
       <c r="L2" s="13" t="inlineStr">
         <is>
-          <t>EC-2020111211564300000926</t>
+          <t>EC-2020111214282000001026</t>
         </is>
       </c>
       <c r="M2" s="13" t="inlineStr">
@@ -2268,17 +2268,17 @@
       </c>
       <c r="Q2" s="13" t="inlineStr">
         <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-2.00'), Decimal('100.00'), Decimal('1.00'), Decimal('2.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('27.00'), Decimal('4.50'), Decimal('3.15'), Decimal('1.35'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.45'), Decimal('0.10'), Decimal('0.07'), Decimal('0.03'), Decimal('0.20')]</t>
+          <t>[Decimal('-100.00'), Decimal('-0.50'), Decimal('-0.60'), Decimal('100.00'), Decimal('0.50'), Decimal('0.60'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('27.00'), Decimal('4.50'), Decimal('3.15'), Decimal('1.35'), Decimal('9.00'), Decimal('-0.50'), Decimal('0.08'), Decimal('0.23'), Decimal('0.05'), Decimal('0.04'), Decimal('0.01'), Decimal('0.09')]</t>
         </is>
       </c>
       <c r="R2" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999998887.99'), Decimal('999998987.99'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999998886.99'), Decimal('999998887.99'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-2.00'), Decimal('100002277.98'), Decimal('100002279.98'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323290.85'), Decimal('112323190.85'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323291.85'), Decimal('112323290.85'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963175.11'), Decimal('19963173.11'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323191.85'), Decimal('112323291.85'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1801.05'), Decimal('1701.05'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69389.23'), Decimal('69374.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('119305.38'), Decimal('119278.38'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54392.94'), Decimal('54388.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19980.71'), Decimal('19977.56'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6424.41'), Decimal('6423.06'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936679.68'), Decimal('999999224936670.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323190.85'), Decimal('112323191.85'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('1801.20'), Decimal('1801.05'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102672.59'), Decimal('102672.14'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('516.15'), Decimal('516.05'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('867.73'), Decimal('867.66'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.91'), Decimal('17.88'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323191.05'), Decimal('112323190.85'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999193.00'), Decimal('999293.00'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-0.50'), Decimal('999192.50'), Decimal('999193.00'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-0.60'), Decimal('100005364.38'), Decimal('100005364.98'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('113322816.90'), Decimal('113322716.90'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.50'), Decimal('113322817.40'), Decimal('113322816.90'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.60'), Decimal('19963189.31'), Decimal('19963188.71'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('113322717.40'), Decimal('113322817.40'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('4094.25'), Decimal('3994.25'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('70734.33'), Decimal('70719.33'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('120599.27'), Decimal('120572.27'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54660.98'), Decimal('54656.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('20217.70'), Decimal('20214.55'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6750.25'), Decimal('6748.90'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999269948189.28'), Decimal('999999269948180.28'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.50'), Decimal('113322716.90'), Decimal('113322717.40'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.08'), Decimal('4094.33'), Decimal('4094.25'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.23'), Decimal('102675.84'), Decimal('102675.61'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.05'), Decimal('516.90'), Decimal('516.85'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.04'), Decimal('868.29'), Decimal('868.25'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.01'), Decimal('18.23'), Decimal('18.22'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.09'), Decimal('113322716.99'), Decimal('113322716.90'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S2" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999998887.99'), Decimal('999998987.99'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999998886.99'), Decimal('999998887.99'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-2.00'), Decimal('100002277.98'), Decimal('100002279.98'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323290.85'), Decimal('112323190.85'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323291.85'), Decimal('112323290.85'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963175.11'), Decimal('19963173.11'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323191.85'), Decimal('112323291.85'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1801.05'), Decimal('1701.05'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69389.23'), Decimal('69374.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('119305.38'), Decimal('119278.38'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54392.94'), Decimal('54388.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19980.71'), Decimal('19977.56'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6424.41'), Decimal('6423.06'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936679.68'), Decimal('999999224936670.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323190.85'), Decimal('112323191.85'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('1801.20'), Decimal('1801.05'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('102672.59'), Decimal('102672.14'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('516.15'), Decimal('516.05'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('867.73'), Decimal('867.66'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('17.91'), Decimal('17.88'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323191.05'), Decimal('112323190.85'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999193.00'), Decimal('999293.00'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-0.50'), Decimal('999192.50'), Decimal('999193.00'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-0.60'), Decimal('100005364.38'), Decimal('100005364.98'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('113322816.90'), Decimal('113322716.90'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.50'), Decimal('113322817.40'), Decimal('113322816.90'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.60'), Decimal('19963189.31'), Decimal('19963188.71'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('113322717.40'), Decimal('113322817.40'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('4094.25'), Decimal('3994.25'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('70734.33'), Decimal('70719.33'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('120599.27'), Decimal('120572.27'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54660.98'), Decimal('54656.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('20217.70'), Decimal('20214.55'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6750.25'), Decimal('6748.90'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999269948189.28'), Decimal('999999269948180.28'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.50'), Decimal('113322716.90'), Decimal('113322717.40'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.08'), Decimal('4094.33'), Decimal('4094.25'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.23'), Decimal('102675.84'), Decimal('102675.61'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.05'), Decimal('516.90'), Decimal('516.85'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.04'), Decimal('868.29'), Decimal('868.25'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.01'), Decimal('18.23'), Decimal('18.22'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.09'), Decimal('113322716.99'), Decimal('113322716.90'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T2" s="13" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="L3" s="13" t="inlineStr">
         <is>
-          <t>EC-2020103017204900000560</t>
+          <t>EC-2020111214283100001030</t>
         </is>
       </c>
       <c r="M3" s="13" t="inlineStr">
@@ -2381,12 +2381,12 @@
       </c>
       <c r="R3" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1988456.00'), Decimal('1988556.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('112323291.05'), Decimal('112323191.05'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('112323191.05'), Decimal('112323291.05'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1901.20'), Decimal('1801.20'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69404.23'), Decimal('69389.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('119356.38'), Decimal('119329.38'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54401.44'), Decimal('54396.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19986.66'), Decimal('19983.51'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6426.96'), Decimal('6425.61'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936756.68'), Decimal('999999224936747.68'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1987956.00'), Decimal('1988056.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('113322816.99'), Decimal('113322716.99'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('113322716.99'), Decimal('113322816.99'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('4194.33'), Decimal('4094.33'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('70749.33'), Decimal('70734.33'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('120650.27'), Decimal('120623.27'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54669.48'), Decimal('54664.98'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('20223.65'), Decimal('20220.50'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6752.80'), Decimal('6751.45'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999269948266.28'), Decimal('999999269948257.28'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
         </is>
       </c>
       <c r="S3" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1988456.00'), Decimal('1988556.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('112323291.05'), Decimal('112323191.05'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('112323191.05'), Decimal('112323291.05'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('1901.20'), Decimal('1801.20'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69404.23'), Decimal('69389.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('119356.38'), Decimal('119329.38'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54401.44'), Decimal('54396.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('19986.66'), Decimal('19983.51'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6426.96'), Decimal('6425.61'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936756.68'), Decimal('999999224936747.68'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1987956.00'), Decimal('1988056.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('113322816.99'), Decimal('113322716.99'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('113322716.99'), Decimal('113322816.99'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('4194.33'), Decimal('4094.33'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('70749.33'), Decimal('70734.33'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('120650.27'), Decimal('120623.27'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54669.48'), Decimal('54664.98'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('20223.65'), Decimal('20220.50'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('6752.80'), Decimal('6751.45'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999269948266.28'), Decimal('999999269948257.28'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
         </is>
       </c>
       <c r="T3" s="13" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="J4" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'个人分佣比例': Decimal('0.15'), '省分佣比例': Decimal('0.80'), '市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.50')}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'个人分佣比例': Decimal('0.15'), '市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.50'), '省分佣比例': Decimal('0.70')}}</t>
         </is>
       </c>
       <c r="K4" s="13" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>EC-2020103017205800000564</t>
+          <t>EC-2020111214284200001034</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -2484,17 +2484,17 @@
       </c>
       <c r="Q4" s="13" t="inlineStr">
         <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-2.00'), Decimal('100.00'), Decimal('1.00'), Decimal('2.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.35'), Decimal('0.20'), Decimal('0.10'), Decimal('0.20')]</t>
+          <t>[Decimal('-100.00'), Decimal('-0.50'), Decimal('-0.60'), Decimal('100.00'), Decimal('0.50'), Decimal('0.60'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-0.50'), Decimal('0.08'), Decimal('0.18'), Decimal('0.10'), Decimal('0.00'), Decimal('0.14')]</t>
         </is>
       </c>
       <c r="R4" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894384.80'), Decimal('884894484.80'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894383.80'), Decimal('884894384.80'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698271.09'), Decimal('9993698273.09'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323291.05'), Decimal('112323191.05'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323292.05'), Decimal('112323291.05'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963177.11'), Decimal('19963175.11'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323192.05'), Decimal('112323292.05'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('2001.20'), Decimal('1901.20'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69419.23'), Decimal('69404.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119392.08'), Decimal('119373.18'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6442.26'), Decimal('6434.16'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54409.94'), Decimal('54405.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19995.16'), Decimal('19990.66'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936833.68'), Decimal('999999224936824.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323191.05'), Decimal('112323192.05'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.75'), Decimal('100.60'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123453.80'), Decimal('123453.45'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119127.81'), Decimal('1119127.61'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182688.15'), Decimal('999898182688.05'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323191.25'), Decimal('112323191.05'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884893374.80'), Decimal('884893474.80'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.50'), Decimal('884893374.30'), Decimal('884893374.80'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.60'), Decimal('9993698252.49'), Decimal('9993698253.09'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('113322816.99'), Decimal('113322716.99'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.50'), Decimal('113322817.49'), Decimal('113322816.99'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.60'), Decimal('19963189.91'), Decimal('19963189.31'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('113322717.49'), Decimal('113322817.49'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('4294.33'), Decimal('4194.33'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('70764.33'), Decimal('70749.33'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('120685.97'), Decimal('120667.07'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6768.10'), Decimal('6760.00'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54677.98'), Decimal('54673.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20232.15'), Decimal('20227.65'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999269948343.28'), Decimal('999999269948334.28'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.50'), Decimal('113322716.99'), Decimal('113322717.49'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.08'), Decimal('103.18'), Decimal('103.10'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000029, 2, 2, Decimal('0.18'), Decimal('123858.55'), Decimal('123858.37'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.10'), Decimal('1119130.58'), Decimal('1119130.48'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.00'), Decimal('999898182688.25'), Decimal('999898182688.25'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.14'), Decimal('113322717.13'), Decimal('113322716.99'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894384.80'), Decimal('884894484.80'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894383.80'), Decimal('884894384.80'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698271.09'), Decimal('9993698273.09'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323291.05'), Decimal('112323191.05'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323292.05'), Decimal('112323291.05'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963177.11'), Decimal('19963175.11'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323192.05'), Decimal('112323292.05'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('2001.20'), Decimal('1901.20'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69419.23'), Decimal('69404.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119392.08'), Decimal('119373.18'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6442.26'), Decimal('6434.16'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54409.94'), Decimal('54405.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('19995.16'), Decimal('19990.66'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936833.68'), Decimal('999999224936824.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323191.05'), Decimal('112323192.05'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.75'), Decimal('100.60'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123453.80'), Decimal('123453.45'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119127.81'), Decimal('1119127.61'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182688.15'), Decimal('999898182688.05'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323191.25'), Decimal('112323191.05'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884893374.80'), Decimal('884893474.80'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.50'), Decimal('884893374.30'), Decimal('884893374.80'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.60'), Decimal('9993698252.49'), Decimal('9993698253.09'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('113322816.99'), Decimal('113322716.99'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.50'), Decimal('113322817.49'), Decimal('113322816.99'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.60'), Decimal('19963189.91'), Decimal('19963189.31'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('113322717.49'), Decimal('113322817.49'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('4294.33'), Decimal('4194.33'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('70764.33'), Decimal('70749.33'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('120685.97'), Decimal('120667.07'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6768.10'), Decimal('6760.00'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54677.98'), Decimal('54673.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20232.15'), Decimal('20227.65'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999269948343.28'), Decimal('999999269948334.28'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.50'), Decimal('113322716.99'), Decimal('113322717.49'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.08'), Decimal('103.18'), Decimal('103.10'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000029, 2, 2, Decimal('0.18'), Decimal('123858.55'), Decimal('123858.37'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.10'), Decimal('1119130.58'), Decimal('1119130.48'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.00'), Decimal('999898182688.25'), Decimal('999898182688.25'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.14'), Decimal('113322717.13'), Decimal('113322716.99'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J5" s="13" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'个人分佣比例': Decimal('0.15'), '省分佣比例': Decimal('0.80'), '市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.50')}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.60'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'个人分佣比例': Decimal('0.15'), '市分佣比例': Decimal('0.70'), '区分佣比例': Decimal('0.50'), '省分佣比例': Decimal('0.70')}}</t>
         </is>
       </c>
       <c r="K5" s="13" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="L5" s="13" t="inlineStr">
         <is>
-          <t>EC-2020103017210800000568</t>
+          <t>EC-2020111214285300001038</t>
         </is>
       </c>
       <c r="M5" s="13" t="inlineStr">
@@ -2592,17 +2592,17 @@
       </c>
       <c r="Q5" s="13" t="inlineStr">
         <is>
-          <t>[Decimal('-100.00'), Decimal('-1.00'), Decimal('-2.00'), Decimal('100.00'), Decimal('1.00'), Decimal('2.00'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-1.00'), Decimal('0.15'), Decimal('0.35'), Decimal('0.20'), Decimal('0.10'), Decimal('0.20')]</t>
+          <t>[Decimal('-100.00'), Decimal('-0.50'), Decimal('-0.60'), Decimal('100.00'), Decimal('0.50'), Decimal('0.60'), Decimal('-100.00'), Decimal('100.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-0.50'), Decimal('0.08'), Decimal('0.18'), Decimal('0.10'), Decimal('0.00'), Decimal('0.14')]</t>
         </is>
       </c>
       <c r="R5" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894283.80'), Decimal('884894383.80'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894282.80'), Decimal('884894283.80'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698269.09'), Decimal('9993698271.09'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323291.25'), Decimal('112323191.25'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323292.25'), Decimal('112323291.25'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963179.11'), Decimal('19963177.11'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323192.25'), Decimal('112323292.25'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('2101.20'), Decimal('2001.20'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69434.23'), Decimal('69419.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119427.78'), Decimal('119408.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6457.56'), Decimal('6449.46'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54418.44'), Decimal('54413.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20003.66'), Decimal('19999.16'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936910.68'), Decimal('999999224936901.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323191.25'), Decimal('112323192.25'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.90'), Decimal('100.75'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123454.15'), Decimal('123453.80'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119128.01'), Decimal('1119127.81'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182688.25'), Decimal('999898182688.15'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323191.45'), Decimal('112323191.25'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884893274.30'), Decimal('884893374.30'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.50'), Decimal('884893273.80'), Decimal('884893274.30'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.60'), Decimal('9993698251.89'), Decimal('9993698252.49'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('113322817.13'), Decimal('113322717.13'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.50'), Decimal('113322817.63'), Decimal('113322817.13'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.60'), Decimal('19963190.51'), Decimal('19963189.91'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('113322717.63'), Decimal('113322817.63'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('4394.33'), Decimal('4294.33'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('70779.33'), Decimal('70764.33'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('120721.67'), Decimal('120702.77'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6783.40'), Decimal('6775.30'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54686.48'), Decimal('54681.98'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20240.65'), Decimal('20236.15'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999269948420.28'), Decimal('999999269948411.28'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.50'), Decimal('113322717.13'), Decimal('113322717.63'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.08'), Decimal('103.26'), Decimal('103.18'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000029, 2, 2, Decimal('0.18'), Decimal('123858.73'), Decimal('123858.55'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.10'), Decimal('1119130.68'), Decimal('1119130.58'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.00'), Decimal('999898182688.25'), Decimal('999898182688.25'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.14'), Decimal('113322717.27'), Decimal('113322717.13'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="S5" s="13" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884894283.80'), Decimal('884894383.80'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('884894282.80'), Decimal('884894283.80'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-2.00'), Decimal('9993698269.09'), Decimal('9993698271.09'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('112323291.25'), Decimal('112323191.25'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('112323292.25'), Decimal('112323291.25'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('2.00'), Decimal('19963179.11'), Decimal('19963177.11'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('112323192.25'), Decimal('112323292.25'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('2101.20'), Decimal('2001.20'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69434.23'), Decimal('69419.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119427.78'), Decimal('119408.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6457.56'), Decimal('6449.46'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54418.44'), Decimal('54413.94'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20003.66'), Decimal('19999.16'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936910.68'), Decimal('999999224936901.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('112323191.25'), Decimal('112323192.25'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('100.90'), Decimal('100.75'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000029, 2, 2, Decimal('0.35'), Decimal('123454.15'), Decimal('123453.80'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.20'), Decimal('1119128.01'), Decimal('1119127.81'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999898182688.25'), Decimal('999898182688.15'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('112323191.45'), Decimal('112323191.25'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('884893274.30'), Decimal('884893374.30'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-0.50'), Decimal('884893273.80'), Decimal('884893274.30'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-0.60'), Decimal('9993698251.89'), Decimal('9993698252.49'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('113322817.13'), Decimal('113322717.13'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('0.50'), Decimal('113322817.63'), Decimal('113322817.13'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('0.60'), Decimal('19963190.51'), Decimal('19963189.91'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('113322717.63'), Decimal('113322817.63'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('4394.33'), Decimal('4294.33'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('70779.33'), Decimal('70764.33'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('120721.67'), Decimal('120702.77'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6783.40'), Decimal('6775.30'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54686.48'), Decimal('54681.98'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20240.65'), Decimal('20236.15'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999269948420.28'), Decimal('999999269948411.28'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.50'), Decimal('113322717.13'), Decimal('113322717.63'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.08'), Decimal('103.26'), Decimal('103.18'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000029, 2, 2, Decimal('0.18'), Decimal('123858.73'), Decimal('123858.55'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.10'), Decimal('1119130.68'), Decimal('1119130.58'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.00'), Decimal('999898182688.25'), Decimal('999898182688.25'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.14'), Decimal('113322717.27'), Decimal('113322717.13'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="T5" s="13" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>EC-2020111213450600000934</t>
+          <t>EC-2020111214290300001042</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -2700,35 +2700,27 @@
       </c>
       <c r="Q6" s="13" t="inlineStr">
         <is>
-          <t>[Decimal('-100.00'), Decimal('96.00'), Decimal('4.00'), Decimal('-96.00'), Decimal('100.00'), Decimal('-4.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-4.00'), Decimal('0.60'), Decimal('1.26'), Decimal('0.54'), Decimal('0.40'), Decimal('0.40'), Decimal('0.80')]</t>
+          <t>[Decimal('-100.00'), Decimal('99.30'), Decimal('0.70'), Decimal('-99.30'), Decimal('100.00'), Decimal('-0.70'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-0.70'), Decimal('0.11'), Decimal('0.23'), Decimal('0.09'), Decimal('0.07'), Decimal('0.07'), Decimal('0.13')]</t>
         </is>
       </c>
       <c r="R6" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('989880242.05'), Decimal('989880342.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('93.00'), Decimal('999999224937071.68'), Decimal('999999224936978.68'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('7.00'), Decimal('999999224937081.68'), Decimal('999999224937074.68'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-93.00'), Decimal('999999224936985.68'), Decimal('999999224937078.68'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('69534.23'), Decimal('69434.23'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-7.00'), Decimal('69527.23'), Decimal('69534.23'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69545.23'), Decimal('69530.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119463.48'), Decimal('119444.58'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6472.86'), Decimal('6464.76'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54426.94'), Decimal('54422.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20012.16'), Decimal('20007.66'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936991.68'), Decimal('999999224936982.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-7.00'), Decimal('999999224936984.68'), Decimal('999999224936991.68'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('1.05'), Decimal('106726.85'), Decimal('106725.80'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('2.21'), Decimal('119465.69'), Decimal('119463.48'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.94'), Decimal('6473.80'), Decimal('6472.86'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.70'), Decimal('54427.64'), Decimal('54426.94'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.70'), Decimal('20012.86'), Decimal('20012.16'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('1.40'), Decimal('999999224936989.08'), Decimal('999999224936987.68'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('989876322.05'), Decimal('989876422.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('99.30'), Decimal('999999269948587.58'), Decimal('999999269948488.28'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('0.70'), Decimal('999999269948588.28'), Decimal('999999269948587.58'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-99.30'), Decimal('999999269948488.98'), Decimal('999999269948588.28'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('70879.33'), Decimal('70779.33'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-0.70'), Decimal('70878.63'), Decimal('70879.33'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('70893.63'), Decimal('70878.63'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('120757.37'), Decimal('120738.47'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6798.70'), Decimal('6790.60'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54694.98'), Decimal('54690.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20249.15'), Decimal('20244.65'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999269948497.98'), Decimal('999999269948488.98'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.70'), Decimal('999999269948497.28'), Decimal('999999269948497.98'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.11'), Decimal('106730.47'), Decimal('106730.36'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('0.23'), Decimal('120757.60'), Decimal('120757.37'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.09'), Decimal('6798.79'), Decimal('6798.70'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.07'), Decimal('54695.05'), Decimal('54694.98'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.07'), Decimal('20249.22'), Decimal('20249.15'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.13'), Decimal('999999269948497.41'), Decimal('999999269948497.28'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('989880242.05'), Decimal('989880342.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999224937074.68'), Decimal('999999224936978.68'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999224937078.68'), Decimal('999999224937074.68'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999224936982.68'), Decimal('999999224937078.68'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('69534.23'), Decimal('69434.23'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('69530.23'), Decimal('69534.23'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('69545.23'), Decimal('69530.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('119463.48'), Decimal('119444.58'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6472.86'), Decimal('6464.76'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54426.94'), Decimal('54422.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20012.16'), Decimal('20007.66'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999224936991.68'), Decimal('999999224936982.68'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999224936987.68'), Decimal('999999224936991.68'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.60'), Decimal('106726.40'), Decimal('106725.80'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('1.26'), Decimal('119464.74'), Decimal('119463.48'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.54'), Decimal('6473.40'), Decimal('6472.86'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.40'), Decimal('54427.34'), Decimal('54426.94'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('20012.56'), Decimal('20012.16'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999224936988.48'), Decimal('999999224936987.68'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('989876322.05'), Decimal('989876422.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('99.30'), Decimal('999999269948587.58'), Decimal('999999269948488.28'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('0.70'), Decimal('999999269948588.28'), Decimal('999999269948587.58'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-99.30'), Decimal('999999269948488.98'), Decimal('999999269948588.28'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('70879.33'), Decimal('70779.33'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-0.70'), Decimal('70878.63'), Decimal('70879.33'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('70893.63'), Decimal('70878.63'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('120757.37'), Decimal('120738.47'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('6798.70'), Decimal('6790.60'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('54694.98'), Decimal('54690.48'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('20249.15'), Decimal('20244.65'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999269948497.98'), Decimal('999999269948488.98'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-0.70'), Decimal('999999269948497.28'), Decimal('999999269948497.98'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.11'), Decimal('106730.47'), Decimal('106730.36'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('0.23'), Decimal('120757.60'), Decimal('120757.37'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.09'), Decimal('6798.79'), Decimal('6798.70'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.07'), Decimal('54695.05'), Decimal('54694.98'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.07'), Decimal('20249.22'), Decimal('20249.15'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.13'), Decimal('999999269948497.41'), Decimal('999999269948497.28'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
         <is>
-          <t>用例错误！错误原因是：第2行，assert (10, 2, 3, De...978.68'), ...) == (10, 2, 3, Dec...978.68'), ...)
-  At index 3 diff: Decimal('93.00') != Decimal('96.00')
-  Full diff:
-  (10,
-  2,
-  3,
-  -  Decimal('93.00'),
-  ?            ^...
-  ...Full output truncated (10 lines hidden), use '-vv' to show：</t>
+          <t>None</t>
         </is>
       </c>
     </row>
